--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D38F82-E416-4452-87C8-9288EAA989FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3145014-D59A-4089-A1E4-092BBF0655EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1740" windowWidth="26295" windowHeight="13215" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
+    <workbookView xWindow="29415" yWindow="1515" windowWidth="21600" windowHeight="13215" activeTab="1" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -167,13 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -514,11 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE683D1-0F20-4AA9-8E66-4B04E80D1FD0}">
-  <dimension ref="A2:R100"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:R9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,89 +527,111 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="R3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I6" si="0">K2-E2</f>
+        <v>-7.6050000000000004</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>7.7099999999999991</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>-7.7099999999999991</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>7.6050000000000004</v>
+        <v>7.0649999999999995</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="0">K4-E4</f>
-        <v>-7.6050000000000004</v>
+        <f t="shared" si="0"/>
+        <v>-7.0649999999999995</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -617,35 +639,23 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1.0416666666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>7.7099999999999991</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>-7.7099999999999991</v>
+        <v>-8.2349999999999994</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -653,38 +663,23 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="N5" s="2">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2.0833333333333301E-2</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>7.0649999999999995</v>
+        <v>7.17</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>-7.0649999999999995</v>
+        <v>-7.17</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -692,110 +687,71 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="N6" s="2">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3.125E-2</v>
+        <v>5.2083333333333301E-2</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>8.2349999999999994</v>
+        <v>7.4700000000000006</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>-8.2349999999999994</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G41" si="1">E7</f>
+        <v>7.4700000000000006</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="N7" s="2">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>7.17</v>
+        <v>7.875</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>-7.17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7.875</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="N8" s="2">
-        <v>5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>5.2083333333333301E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>7.4700000000000006</v>
+        <v>7.3349999999999991</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G43" si="1">E9</f>
-        <v>7.4700000000000006</v>
+        <f t="shared" si="1"/>
+        <v>7.3349999999999991</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -803,35 +759,23 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
-        <v>6</v>
-      </c>
-      <c r="O9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>6.25E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>7.875</v>
+        <v>7.3949999999999996</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>7.875</v>
+        <v>7.3949999999999996</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -839,24 +783,23 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7.2916666666666699E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>7.3349999999999991</v>
+        <v>7.4399999999999995</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>7.3349999999999991</v>
+        <v>7.4399999999999995</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -864,24 +807,23 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>7.3949999999999996</v>
+        <v>7.89</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>7.3949999999999996</v>
+        <v>7.89</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -889,24 +831,23 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>9.375E-2</v>
+        <v>0.114583333333333</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>7.4399999999999995</v>
+        <v>8.43</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>7.4399999999999995</v>
+        <v>8.43</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -914,24 +855,23 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0.104166666666667</v>
+        <v>0.125</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>7.89</v>
+        <v>7.74</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>7.89</v>
+        <v>7.74</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -939,24 +879,23 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0.114583333333333</v>
+        <v>0.13541666666666699</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>8.43</v>
+        <v>7.38</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>8.43</v>
+        <v>7.38</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -964,24 +903,23 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.125</v>
+        <v>0.14583333333333301</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>7.74</v>
+        <v>7.89</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>7.74</v>
+        <v>7.89</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -989,24 +927,23 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.13541666666666699</v>
+        <v>0.15625</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>7.38</v>
+        <v>7.5449999999999999</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>7.38</v>
+        <v>7.5449999999999999</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -1014,24 +951,23 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.14583333333333301</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>7.89</v>
+        <v>7.7250000000000005</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>7.89</v>
+        <v>7.7250000000000005</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -1039,24 +975,23 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0.15625</v>
+        <v>0.17708333333333301</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>7.5449999999999999</v>
+        <v>8.5950000000000006</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>7.5449999999999999</v>
+        <v>8.5950000000000006</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
@@ -1064,24 +999,23 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.1875</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>7.7250000000000005</v>
+        <v>8.43</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>7.7250000000000005</v>
+        <v>8.43</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -1089,24 +1023,23 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0.17708333333333301</v>
+        <v>0.19791666666666699</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>8.5950000000000006</v>
+        <v>9.18</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>8.5950000000000006</v>
+        <v>9.18</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -1114,24 +1047,23 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>0.1875</v>
+        <v>0.20833333333333301</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>8.43</v>
+        <v>9.3149999999999995</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>8.43</v>
+        <v>9.3149999999999995</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
@@ -1140,57 +1072,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>0.19791666666666699</v>
+        <v>0.21875</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
       <c r="E23">
-        <v>9.18</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>9.18</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0.20833333333333301</v>
+        <v>0.22916666666666699</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
       <c r="E24">
-        <v>9.3149999999999995</v>
+        <v>14.64</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>9.3149999999999995</v>
+        <v>14.64</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.21875</v>
+        <v>0.23958333333333301</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1199,28 +1143,28 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>16.23</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16.23</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
       <c r="K25">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="L25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.22916666666666699</v>
+        <v>0.25</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1229,28 +1173,28 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>14.64</v>
+        <v>19.049999999999997</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>14.64</v>
+        <v>19.049999999999997</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
       </c>
       <c r="K26">
-        <v>0.45</v>
+        <v>1.2</v>
       </c>
       <c r="L26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.23958333333333301</v>
+        <v>0.26041666666666702</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1259,28 +1203,28 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>16.23</v>
+        <v>23.234999999999999</v>
       </c>
       <c r="F27" t="s">
         <v>23</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>16.23</v>
+        <v>23.234999999999999</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>3.15</v>
       </c>
       <c r="L27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>0.25</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1289,28 +1233,28 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>19.049999999999997</v>
+        <v>26.895</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>19.049999999999997</v>
+        <v>26.895</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
       </c>
       <c r="K28">
-        <v>1.2</v>
+        <v>5.25</v>
       </c>
       <c r="L28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>0.26041666666666702</v>
+        <v>0.28125</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1319,28 +1263,28 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>23.234999999999999</v>
+        <v>30.224999999999998</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>23.234999999999999</v>
+        <v>30.224999999999998</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
       </c>
       <c r="K29">
-        <v>3.15</v>
+        <v>7.35</v>
       </c>
       <c r="L29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0.27083333333333298</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -1349,28 +1293,28 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>26.895</v>
+        <v>33.839999999999996</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>26.895</v>
+        <v>33.839999999999996</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
       </c>
       <c r="K30">
-        <v>5.25</v>
+        <v>10.35</v>
       </c>
       <c r="L30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>0.28125</v>
+        <v>0.30208333333333298</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -1379,28 +1323,28 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>30.224999999999998</v>
+        <v>39.765000000000001</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>30.224999999999998</v>
+        <v>39.765000000000001</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
       </c>
       <c r="K31">
-        <v>7.35</v>
+        <v>13.05</v>
       </c>
       <c r="L31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>0.29166666666666702</v>
+        <v>0.3125</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -1409,20 +1353,20 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>33.839999999999996</v>
+        <v>43.68</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>33.839999999999996</v>
+        <v>43.68</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
       </c>
       <c r="K32">
-        <v>10.35</v>
+        <v>16.8</v>
       </c>
       <c r="L32" t="s">
         <v>31</v>
@@ -1430,7 +1374,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>0.30208333333333298</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -1439,20 +1383,20 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>39.765000000000001</v>
+        <v>52.605000000000004</v>
       </c>
       <c r="F33" t="s">
         <v>23</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>39.765000000000001</v>
+        <v>52.605000000000004</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
       </c>
       <c r="K33">
-        <v>13.05</v>
+        <v>23.25</v>
       </c>
       <c r="L33" t="s">
         <v>31</v>
@@ -1460,7 +1404,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>0.3125</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -1469,20 +1413,20 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>43.68</v>
+        <v>47.325000000000003</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>43.68</v>
+        <v>47.325000000000003</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
       </c>
       <c r="K34">
-        <v>16.8</v>
+        <v>25.35</v>
       </c>
       <c r="L34" t="s">
         <v>31</v>
@@ -1490,7 +1434,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>0.32291666666666702</v>
+        <v>0.34375</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -1499,20 +1443,20 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>52.605000000000004</v>
+        <v>55.44</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>52.605000000000004</v>
+        <v>55.44</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
       </c>
       <c r="K35">
-        <v>23.25</v>
+        <v>31.05</v>
       </c>
       <c r="L35" t="s">
         <v>31</v>
@@ -1520,7 +1464,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>0.33333333333333298</v>
+        <v>0.35416666666666702</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -1529,20 +1473,20 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>47.325000000000003</v>
+        <v>58.800000000000004</v>
       </c>
       <c r="F36" t="s">
         <v>23</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>47.325000000000003</v>
+        <v>58.800000000000004</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
       </c>
       <c r="K36">
-        <v>25.35</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="L36" t="s">
         <v>31</v>
@@ -1550,7 +1494,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0.34375</v>
+        <v>0.36458333333333298</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -1559,20 +1503,20 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>55.44</v>
+        <v>64.004999999999995</v>
       </c>
       <c r="F37" t="s">
         <v>23</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>55.44</v>
+        <v>64.004999999999995</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
       </c>
       <c r="K37">
-        <v>31.05</v>
+        <v>44.25</v>
       </c>
       <c r="L37" t="s">
         <v>31</v>
@@ -1580,7 +1524,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>0.35416666666666702</v>
+        <v>0.375</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1589,20 +1533,20 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>58.800000000000004</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>58.800000000000004</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
       </c>
       <c r="K38">
-        <v>34.950000000000003</v>
+        <v>48.6</v>
       </c>
       <c r="L38" t="s">
         <v>31</v>
@@ -1610,7 +1554,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>0.36458333333333298</v>
+        <v>0.38541666666666702</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -1619,20 +1563,20 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>64.004999999999995</v>
+        <v>62.655000000000001</v>
       </c>
       <c r="F39" t="s">
         <v>23</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>64.004999999999995</v>
+        <v>62.655000000000001</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
       </c>
       <c r="K39">
-        <v>44.25</v>
+        <v>53.55</v>
       </c>
       <c r="L39" t="s">
         <v>31</v>
@@ -1640,7 +1584,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>0.375</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -1649,20 +1593,20 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>64.739999999999995</v>
+        <v>66.224999999999994</v>
       </c>
       <c r="F40" t="s">
         <v>23</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>64.739999999999995</v>
+        <v>66.224999999999994</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
       </c>
       <c r="K40">
-        <v>48.6</v>
+        <v>57.9</v>
       </c>
       <c r="L40" t="s">
         <v>31</v>
@@ -1670,7 +1614,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>0.38541666666666702</v>
+        <v>0.40625</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -1679,20 +1623,20 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62.655000000000001</v>
+        <v>69.074999999999989</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>62.655000000000001</v>
+        <v>69.074999999999989</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="K41">
-        <v>53.55</v>
+        <v>66.3</v>
       </c>
       <c r="L41" t="s">
         <v>31</v>
@@ -1700,29 +1644,29 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>0.39583333333333298</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>66.224999999999994</v>
+        <v>68.114999999999995</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>66.224999999999994</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
+        <f>E42-K42</f>
+        <v>-6.7349999999999994</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K42">
-        <v>57.9</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="L42" t="s">
         <v>31</v>
@@ -1730,29 +1674,29 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>0.40625</v>
+        <v>0.42708333333333298</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>69.074999999999989</v>
+        <v>71.820000000000007</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>69.074999999999989</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
+        <f t="shared" ref="G43:G50" si="2">E43-K43</f>
+        <v>-0.17999999999999261</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>66.3</v>
+        <v>72</v>
       </c>
       <c r="L43" t="s">
         <v>31</v>
@@ -1760,7 +1704,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>0.41666666666666702</v>
+        <v>0.4375</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
@@ -1769,20 +1713,20 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>68.114999999999995</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="F44" t="s">
         <v>24</v>
       </c>
       <c r="G44">
-        <f>E44-K44</f>
-        <v>-6.7349999999999994</v>
+        <f t="shared" si="2"/>
+        <v>-24.450000000000003</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K44">
-        <v>74.849999999999994</v>
+        <v>89.55</v>
       </c>
       <c r="L44" t="s">
         <v>31</v>
@@ -1790,7 +1734,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>0.42708333333333298</v>
+        <v>0.44791666666666702</v>
       </c>
       <c r="B45" s="2">
         <v>3</v>
@@ -1799,20 +1743,20 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>71.820000000000007</v>
+        <v>75.974999999999994</v>
       </c>
       <c r="F45" t="s">
         <v>24</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45:G52" si="2">E45-K45</f>
-        <v>-0.17999999999999261</v>
+        <f t="shared" si="2"/>
+        <v>-20.625</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K45">
-        <v>72</v>
+        <v>96.6</v>
       </c>
       <c r="L45" t="s">
         <v>31</v>
@@ -1820,7 +1764,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>0.4375</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
@@ -1829,20 +1773,20 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>65.099999999999994</v>
+        <v>75.960000000000008</v>
       </c>
       <c r="F46" t="s">
         <v>24</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>-24.450000000000003</v>
+        <v>-8.6399999999999864</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K46">
-        <v>89.55</v>
+        <v>84.6</v>
       </c>
       <c r="L46" t="s">
         <v>31</v>
@@ -1850,7 +1794,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>0.44791666666666702</v>
+        <v>0.46875</v>
       </c>
       <c r="B47" s="2">
         <v>3</v>
@@ -1859,20 +1803,20 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>75.974999999999994</v>
+        <v>70.784999999999997</v>
       </c>
       <c r="F47" t="s">
         <v>24</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>-20.625</v>
+        <v>-35.564999999999998</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K47">
-        <v>96.6</v>
+        <v>106.35</v>
       </c>
       <c r="L47" t="s">
         <v>31</v>
@@ -1880,7 +1824,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>0.45833333333333298</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
@@ -1889,20 +1833,20 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>75.960000000000008</v>
+        <v>73.5</v>
       </c>
       <c r="F48" t="s">
         <v>24</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>-8.6399999999999864</v>
+        <v>-45.150000000000006</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K48">
-        <v>84.6</v>
+        <v>118.65</v>
       </c>
       <c r="L48" t="s">
         <v>31</v>
@@ -1910,7 +1854,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>0.46875</v>
+        <v>0.48958333333333298</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
@@ -1919,20 +1863,20 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>70.784999999999997</v>
+        <v>71.88</v>
       </c>
       <c r="F49" t="s">
         <v>24</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>-35.564999999999998</v>
+        <v>-46.320000000000007</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K49">
-        <v>106.35</v>
+        <v>118.2</v>
       </c>
       <c r="L49" t="s">
         <v>31</v>
@@ -1940,7 +1884,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>0.47916666666666702</v>
+        <v>0.5</v>
       </c>
       <c r="B50" s="2">
         <v>3</v>
@@ -1949,20 +1893,20 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>73.5</v>
+        <v>69.36</v>
       </c>
       <c r="F50" t="s">
         <v>24</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>-45.150000000000006</v>
+        <v>-58.739999999999995</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K50">
-        <v>118.65</v>
+        <v>128.1</v>
       </c>
       <c r="L50" t="s">
         <v>31</v>
@@ -1970,29 +1914,34 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>0.48958333333333298</v>
+        <v>0.51041666666666696</v>
       </c>
       <c r="B51" s="2">
         <v>3</v>
       </c>
       <c r="C51" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>71.88</v>
+        <v>71.655000000000001</v>
       </c>
       <c r="F51" t="s">
         <v>24</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
-        <v>-46.320000000000007</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>10</v>
+        <f t="shared" ref="G51:G54" si="3">E51-K51+I51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51">
+        <f>K51-E51</f>
+        <v>58.245000000000005</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
       </c>
       <c r="K51">
-        <v>118.2</v>
+        <v>129.9</v>
       </c>
       <c r="L51" t="s">
         <v>31</v>
@@ -2000,29 +1949,34 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>0.5</v>
+        <v>0.52083333333333304</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>69.36</v>
+        <v>73.905000000000001</v>
       </c>
       <c r="F52" t="s">
         <v>24</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
-        <v>-58.739999999999995</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52">
+        <f t="shared" ref="I52:I54" si="4">K52-E52</f>
+        <v>44.295000000000002</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
       </c>
       <c r="K52">
-        <v>128.1</v>
+        <v>118.2</v>
       </c>
       <c r="L52" t="s">
         <v>31</v>
@@ -2030,7 +1984,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>0.51041666666666696</v>
+        <v>0.53125</v>
       </c>
       <c r="B53" s="2">
         <v>3</v>
@@ -2039,25 +1993,25 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <v>71.655000000000001</v>
+        <v>69.63</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53:G56" si="3">E53-K53+I53</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53">
-        <f>K53-E53</f>
-        <v>58.245000000000005</v>
+        <f t="shared" si="4"/>
+        <v>46.92</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
       <c r="K53">
-        <v>129.9</v>
+        <v>116.55</v>
       </c>
       <c r="L53" t="s">
         <v>31</v>
@@ -2065,7 +2019,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>0.52083333333333304</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="B54" s="2">
         <v>3</v>
@@ -2074,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>73.905000000000001</v>
+        <v>69.314999999999998</v>
       </c>
       <c r="F54" t="s">
         <v>24</v>
@@ -2085,14 +2039,14 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54">
-        <f t="shared" ref="I54:I56" si="4">K54-E54</f>
-        <v>44.295000000000002</v>
+        <f t="shared" si="4"/>
+        <v>58.185000000000002</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
       </c>
       <c r="K54">
-        <v>118.2</v>
+        <v>127.5</v>
       </c>
       <c r="L54" t="s">
         <v>31</v>
@@ -2100,34 +2054,29 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>0.53125</v>
+        <v>0.55208333333333304</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>69.63</v>
+        <v>69.465000000000003</v>
       </c>
       <c r="F55" t="s">
         <v>24</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55">
-        <f t="shared" si="4"/>
-        <v>46.92</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
+        <f t="shared" ref="G55:G56" si="5">E55-K55</f>
+        <v>-56.234999999999999</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K55">
-        <v>116.55</v>
+        <v>125.7</v>
       </c>
       <c r="L55" t="s">
         <v>31</v>
@@ -2135,34 +2084,29 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>0.54166666666666696</v>
+        <v>0.5625</v>
       </c>
       <c r="B56" s="2">
         <v>3</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>69.314999999999998</v>
+        <v>70.185000000000002</v>
       </c>
       <c r="F56" t="s">
         <v>24</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56">
-        <f t="shared" si="4"/>
-        <v>58.185000000000002</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>-43.965000000000003</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K56">
-        <v>127.5</v>
+        <v>114.15</v>
       </c>
       <c r="L56" t="s">
         <v>31</v>
@@ -2170,7 +2114,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>0.55208333333333304</v>
+        <v>0.57291666666666696</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
@@ -2179,20 +2123,20 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <v>69.465000000000003</v>
+        <v>71.789999999999992</v>
       </c>
       <c r="F57" t="s">
         <v>24</v>
       </c>
       <c r="G57">
-        <f t="shared" ref="G57:G58" si="5">E57-K57</f>
-        <v>-56.234999999999999</v>
+        <f t="shared" ref="G57:G58" si="6">E57-K57</f>
+        <v>-47.610000000000014</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K57">
-        <v>125.7</v>
+        <v>119.4</v>
       </c>
       <c r="L57" t="s">
         <v>31</v>
@@ -2200,7 +2144,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>0.5625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="B58" s="2">
         <v>3</v>
@@ -2209,20 +2153,20 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <v>70.185000000000002</v>
+        <v>65.894999999999996</v>
       </c>
       <c r="F58" t="s">
         <v>24</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
-        <v>-43.965000000000003</v>
+        <f t="shared" si="6"/>
+        <v>-53.805000000000007</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K58">
-        <v>114.15</v>
+        <v>119.7</v>
       </c>
       <c r="L58" t="s">
         <v>31</v>
@@ -2230,7 +2174,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>0.57291666666666696</v>
+        <v>0.59375</v>
       </c>
       <c r="B59" s="2">
         <v>3</v>
@@ -2239,20 +2183,20 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <v>71.789999999999992</v>
+        <v>68.28</v>
       </c>
       <c r="F59" t="s">
         <v>24</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:G60" si="6">E59-K59</f>
-        <v>-47.610000000000014</v>
+        <f t="shared" ref="G59" si="7">E59-K59</f>
+        <v>-46.17</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K59">
-        <v>119.4</v>
+        <v>114.45</v>
       </c>
       <c r="L59" t="s">
         <v>31</v>
@@ -2260,7 +2204,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>0.58333333333333304</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
@@ -2269,20 +2213,20 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <v>65.894999999999996</v>
+        <v>66.795000000000002</v>
       </c>
       <c r="F60" t="s">
         <v>24</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
-        <v>-53.805000000000007</v>
+        <f t="shared" ref="G60:G67" si="8">E60-K60</f>
+        <v>-44.504999999999995</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K60">
-        <v>119.7</v>
+        <v>111.3</v>
       </c>
       <c r="L60" t="s">
         <v>31</v>
@@ -2290,7 +2234,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>0.59375</v>
+        <v>0.61458333333333304</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
@@ -2299,20 +2243,20 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <v>68.28</v>
+        <v>60.66</v>
       </c>
       <c r="F61" t="s">
         <v>24</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61" si="7">E61-K61</f>
-        <v>-46.17</v>
+        <f t="shared" si="8"/>
+        <v>-34.14</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K61">
-        <v>114.45</v>
+        <v>94.8</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
@@ -2320,7 +2264,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>0.60416666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
@@ -2329,20 +2273,20 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <v>66.795000000000002</v>
+        <v>63.765000000000001</v>
       </c>
       <c r="F62" t="s">
         <v>24</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:G69" si="8">E62-K62</f>
-        <v>-44.504999999999995</v>
+        <f t="shared" si="8"/>
+        <v>-26.234999999999999</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K62">
-        <v>111.3</v>
+        <v>90</v>
       </c>
       <c r="L62" t="s">
         <v>31</v>
@@ -2350,7 +2294,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>0.61458333333333304</v>
+        <v>0.63541666666666696</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
@@ -2359,20 +2303,20 @@
         <v>4</v>
       </c>
       <c r="E63">
-        <v>60.66</v>
+        <v>63.480000000000004</v>
       </c>
       <c r="F63" t="s">
         <v>24</v>
       </c>
       <c r="G63">
         <f t="shared" si="8"/>
-        <v>-34.14</v>
+        <v>-22.769999999999996</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K63">
-        <v>94.8</v>
+        <v>86.25</v>
       </c>
       <c r="L63" t="s">
         <v>31</v>
@@ -2380,7 +2324,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>0.625</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="B64" s="2">
         <v>3</v>
@@ -2389,20 +2333,20 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <v>63.765000000000001</v>
+        <v>62.67</v>
       </c>
       <c r="F64" t="s">
         <v>24</v>
       </c>
       <c r="G64">
         <f t="shared" si="8"/>
-        <v>-26.234999999999999</v>
+        <v>-22.83</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K64">
-        <v>90</v>
+        <v>85.5</v>
       </c>
       <c r="L64" t="s">
         <v>31</v>
@@ -2410,7 +2354,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>0.63541666666666696</v>
+        <v>0.65625</v>
       </c>
       <c r="B65" s="2">
         <v>3</v>
@@ -2419,20 +2363,20 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <v>63.480000000000004</v>
+        <v>62.550000000000004</v>
       </c>
       <c r="F65" t="s">
         <v>24</v>
       </c>
       <c r="G65">
         <f t="shared" si="8"/>
-        <v>-22.769999999999996</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K65">
-        <v>86.25</v>
+        <v>82.95</v>
       </c>
       <c r="L65" t="s">
         <v>31</v>
@@ -2440,7 +2384,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>0.64583333333333304</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
@@ -2449,20 +2393,20 @@
         <v>4</v>
       </c>
       <c r="E66">
-        <v>62.67</v>
+        <v>55.755000000000003</v>
       </c>
       <c r="F66" t="s">
         <v>24</v>
       </c>
       <c r="G66">
         <f t="shared" si="8"/>
-        <v>-22.83</v>
+        <v>-17.895000000000003</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K66">
-        <v>85.5</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="L66" t="s">
         <v>31</v>
@@ -2470,7 +2414,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>0.65625</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="B67" s="2">
         <v>3</v>
@@ -2479,20 +2423,20 @@
         <v>4</v>
       </c>
       <c r="E67">
-        <v>62.550000000000004</v>
+        <v>59.429999999999993</v>
       </c>
       <c r="F67" t="s">
         <v>24</v>
       </c>
       <c r="G67">
         <f t="shared" si="8"/>
-        <v>-20.399999999999999</v>
+        <v>-4.1700000000000088</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K67">
-        <v>82.95</v>
+        <v>63.6</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
@@ -2500,29 +2444,29 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>0.66666666666666696</v>
+        <v>0.6875</v>
       </c>
       <c r="B68" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>55.755000000000003</v>
+        <v>56.37</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G68">
-        <f t="shared" si="8"/>
-        <v>-17.895000000000003</v>
+        <f>E68-K68</f>
+        <v>0.26999999999999602</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K68">
-        <v>73.650000000000006</v>
+        <v>56.1</v>
       </c>
       <c r="L68" t="s">
         <v>31</v>
@@ -2530,29 +2474,29 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>0.67708333333333304</v>
+        <v>0.69791666666666696</v>
       </c>
       <c r="B69" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>59.429999999999993</v>
+        <v>53.31</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
-        <v>-4.1700000000000088</v>
+        <f t="shared" ref="G69:G88" si="9">E69-K69</f>
+        <v>9.8100000000000023</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K69">
-        <v>63.6</v>
+        <v>43.5</v>
       </c>
       <c r="L69" t="s">
         <v>31</v>
@@ -2560,7 +2504,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>0.6875</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -2569,20 +2513,20 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <v>56.37</v>
+        <v>56.34</v>
       </c>
       <c r="F70" t="s">
         <v>23</v>
       </c>
       <c r="G70">
-        <f>E70-K70</f>
-        <v>0.26999999999999602</v>
+        <f t="shared" si="9"/>
+        <v>18.240000000000002</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K70">
-        <v>56.1</v>
+        <v>38.1</v>
       </c>
       <c r="L70" t="s">
         <v>31</v>
@@ -2590,7 +2534,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>0.69791666666666696</v>
+        <v>0.71875</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -2599,20 +2543,20 @@
         <v>3</v>
       </c>
       <c r="E71">
-        <v>53.31</v>
+        <v>54.33</v>
       </c>
       <c r="F71" t="s">
         <v>23</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G90" si="9">E71-K71</f>
-        <v>9.8100000000000023</v>
+        <f t="shared" si="9"/>
+        <v>19.829999999999998</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K71">
-        <v>43.5</v>
+        <v>34.5</v>
       </c>
       <c r="L71" t="s">
         <v>31</v>
@@ -2620,7 +2564,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>0.70833333333333304</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -2629,20 +2573,20 @@
         <v>3</v>
       </c>
       <c r="E72">
-        <v>56.34</v>
+        <v>49.050000000000004</v>
       </c>
       <c r="F72" t="s">
         <v>23</v>
       </c>
       <c r="G72">
         <f t="shared" si="9"/>
-        <v>18.240000000000002</v>
+        <v>22.200000000000003</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K72">
-        <v>38.1</v>
+        <v>26.85</v>
       </c>
       <c r="L72" t="s">
         <v>31</v>
@@ -2650,7 +2594,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>0.71875</v>
+        <v>0.73958333333333304</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -2659,20 +2603,20 @@
         <v>3</v>
       </c>
       <c r="E73">
-        <v>54.33</v>
+        <v>49.56</v>
       </c>
       <c r="F73" t="s">
         <v>23</v>
       </c>
       <c r="G73">
         <f t="shared" si="9"/>
-        <v>19.829999999999998</v>
+        <v>27.060000000000002</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K73">
-        <v>34.5</v>
+        <v>22.5</v>
       </c>
       <c r="L73" t="s">
         <v>31</v>
@@ -2680,7 +2624,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>0.72916666666666696</v>
+        <v>0.75</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -2689,20 +2633,20 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <v>49.050000000000004</v>
+        <v>44.835000000000001</v>
       </c>
       <c r="F74" t="s">
         <v>23</v>
       </c>
       <c r="G74">
         <f t="shared" si="9"/>
-        <v>22.200000000000003</v>
+        <v>26.085000000000001</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K74">
-        <v>26.85</v>
+        <v>18.75</v>
       </c>
       <c r="L74" t="s">
         <v>31</v>
@@ -2710,7 +2654,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>0.73958333333333304</v>
+        <v>0.76041666666666696</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -2719,20 +2663,20 @@
         <v>3</v>
       </c>
       <c r="E75">
-        <v>49.56</v>
+        <v>43.230000000000004</v>
       </c>
       <c r="F75" t="s">
         <v>23</v>
       </c>
       <c r="G75">
         <f t="shared" si="9"/>
-        <v>27.060000000000002</v>
+        <v>29.130000000000003</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K75">
-        <v>22.5</v>
+        <v>14.1</v>
       </c>
       <c r="L75" t="s">
         <v>31</v>
@@ -2740,7 +2684,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>0.75</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -2749,20 +2693,20 @@
         <v>3</v>
       </c>
       <c r="E76">
-        <v>44.835000000000001</v>
+        <v>38.910000000000004</v>
       </c>
       <c r="F76" t="s">
         <v>23</v>
       </c>
       <c r="G76">
         <f t="shared" si="9"/>
-        <v>26.085000000000001</v>
+        <v>27.810000000000002</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K76">
-        <v>18.75</v>
+        <v>11.1</v>
       </c>
       <c r="L76" t="s">
         <v>31</v>
@@ -2770,7 +2714,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>0.76041666666666696</v>
+        <v>0.78125</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -2779,20 +2723,20 @@
         <v>3</v>
       </c>
       <c r="E77">
-        <v>43.230000000000004</v>
+        <v>40.71</v>
       </c>
       <c r="F77" t="s">
         <v>23</v>
       </c>
       <c r="G77">
         <f t="shared" si="9"/>
-        <v>29.130000000000003</v>
+        <v>33.36</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K77">
-        <v>14.1</v>
+        <v>7.35</v>
       </c>
       <c r="L77" t="s">
         <v>31</v>
@@ -2800,29 +2744,34 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666696</v>
       </c>
       <c r="B78" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E78">
-        <v>38.910000000000004</v>
+        <v>32.055</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G78">
-        <f t="shared" si="9"/>
-        <v>27.810000000000002</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>16</v>
+        <f>E78-K78+I78</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78">
+        <f>K78-E78</f>
+        <v>-28.754999999999999</v>
+      </c>
+      <c r="J78" t="s">
+        <v>18</v>
       </c>
       <c r="K78">
-        <v>11.1</v>
+        <v>3.3</v>
       </c>
       <c r="L78" t="s">
         <v>31</v>
@@ -2830,29 +2779,34 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>0.78125</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="B79" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>40.71</v>
+        <v>33.674999999999997</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G79">
-        <f t="shared" si="9"/>
-        <v>33.36</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>16</v>
+        <f t="shared" ref="G79:G86" si="10">E79-K79+I79</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79">
+        <f t="shared" ref="I79:I86" si="11">K79-E79</f>
+        <v>-31.274999999999999</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
       </c>
       <c r="K79">
-        <v>7.35</v>
+        <v>2.4</v>
       </c>
       <c r="L79" t="s">
         <v>31</v>
@@ -2860,7 +2814,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>0.79166666666666696</v>
+        <v>0.8125</v>
       </c>
       <c r="B80" s="2">
         <v>3</v>
@@ -2869,25 +2823,25 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>32.055</v>
+        <v>32.61</v>
       </c>
       <c r="F80" t="s">
         <v>21</v>
       </c>
       <c r="G80">
-        <f>E80-K80+I80</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80">
-        <f>K80-E80</f>
-        <v>-28.754999999999999</v>
+        <f t="shared" si="11"/>
+        <v>-31.11</v>
       </c>
       <c r="J80" t="s">
         <v>18</v>
       </c>
       <c r="K80">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L80" t="s">
         <v>31</v>
@@ -2895,7 +2849,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>0.80208333333333304</v>
+        <v>0.82291666666666696</v>
       </c>
       <c r="B81" s="2">
         <v>3</v>
@@ -2904,25 +2858,25 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>33.674999999999997</v>
+        <v>27.255000000000003</v>
       </c>
       <c r="F81" t="s">
         <v>21</v>
       </c>
       <c r="G81">
-        <f t="shared" ref="G81:G88" si="10">E81-K81+I81</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81">
-        <f t="shared" ref="I81:I88" si="11">K81-E81</f>
-        <v>-31.274999999999999</v>
+        <f t="shared" si="11"/>
+        <v>-26.355000000000004</v>
       </c>
       <c r="J81" t="s">
         <v>18</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="L81" t="s">
         <v>31</v>
@@ -2930,16 +2884,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>0.8125</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="B82" s="2">
-        <v>3</v>
-      </c>
-      <c r="C82" s="2">
         <v>6</v>
       </c>
       <c r="E82">
-        <v>32.61</v>
+        <v>27.39</v>
       </c>
       <c r="F82" t="s">
         <v>21</v>
@@ -2951,30 +2902,24 @@
       <c r="H82" s="1"/>
       <c r="I82">
         <f t="shared" si="11"/>
-        <v>-31.11</v>
+        <v>-27.39</v>
       </c>
       <c r="J82" t="s">
         <v>18</v>
       </c>
       <c r="K82">
-        <v>1.5</v>
-      </c>
-      <c r="L82" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>0.82291666666666696</v>
+        <v>0.84375</v>
       </c>
       <c r="B83" s="2">
-        <v>3</v>
-      </c>
-      <c r="C83" s="2">
         <v>6</v>
       </c>
       <c r="E83">
-        <v>27.255000000000003</v>
+        <v>26.130000000000003</v>
       </c>
       <c r="F83" t="s">
         <v>21</v>
@@ -2986,27 +2931,24 @@
       <c r="H83" s="1"/>
       <c r="I83">
         <f t="shared" si="11"/>
-        <v>-26.355000000000004</v>
+        <v>-26.130000000000003</v>
       </c>
       <c r="J83" t="s">
         <v>18</v>
       </c>
       <c r="K83">
-        <v>0.9</v>
-      </c>
-      <c r="L83" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>0.83333333333333304</v>
+        <v>0.85416666666666696</v>
       </c>
       <c r="B84" s="2">
         <v>6</v>
       </c>
       <c r="E84">
-        <v>27.39</v>
+        <v>25.650000000000002</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
@@ -3018,7 +2960,7 @@
       <c r="H84" s="1"/>
       <c r="I84">
         <f t="shared" si="11"/>
-        <v>-27.39</v>
+        <v>-25.650000000000002</v>
       </c>
       <c r="J84" t="s">
         <v>18</v>
@@ -3029,13 +2971,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>0.84375</v>
+        <v>0.86458333333333304</v>
       </c>
       <c r="B85" s="2">
         <v>6</v>
       </c>
       <c r="E85">
-        <v>26.130000000000003</v>
+        <v>24.630000000000003</v>
       </c>
       <c r="F85" t="s">
         <v>21</v>
@@ -3047,7 +2989,7 @@
       <c r="H85" s="1"/>
       <c r="I85">
         <f t="shared" si="11"/>
-        <v>-26.130000000000003</v>
+        <v>-24.630000000000003</v>
       </c>
       <c r="J85" t="s">
         <v>18</v>
@@ -3058,13 +3000,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>0.85416666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="B86" s="2">
         <v>6</v>
       </c>
       <c r="E86">
-        <v>25.650000000000002</v>
+        <v>21.72</v>
       </c>
       <c r="F86" t="s">
         <v>21</v>
@@ -3076,7 +3018,7 @@
       <c r="H86" s="1"/>
       <c r="I86">
         <f t="shared" si="11"/>
-        <v>-25.650000000000002</v>
+        <v>-21.72</v>
       </c>
       <c r="J86" t="s">
         <v>18</v>
@@ -3087,28 +3029,23 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>0.86458333333333304</v>
+        <v>0.88541666666666696</v>
       </c>
       <c r="B87" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>24.630000000000003</v>
+        <v>18.240000000000002</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G87">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="1"/>
-      <c r="I87">
-        <f t="shared" si="11"/>
-        <v>-24.630000000000003</v>
-      </c>
-      <c r="J87" t="s">
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>18.240000000000002</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -3116,28 +3053,23 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>0.875</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="B88" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>21.72</v>
+        <v>17.46</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="1"/>
-      <c r="I88">
-        <f t="shared" si="11"/>
-        <v>-21.72</v>
-      </c>
-      <c r="J88" t="s">
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>17.46</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -3145,20 +3077,20 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>0.88541666666666696</v>
+        <v>0.90625</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>18.240000000000002</v>
+        <v>14.475000000000001</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
-        <v>18.240000000000002</v>
+        <f t="shared" ref="G89" si="12">E89-K89</f>
+        <v>14.475000000000001</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>16</v>
@@ -3169,23 +3101,32 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>0.89583333333333304</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
       </c>
+      <c r="C90" s="2">
+        <v>2</v>
+      </c>
       <c r="E90">
-        <v>17.46</v>
+        <v>10.83</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
-        <v>17.46</v>
+        <f t="shared" ref="G90:G97" si="13">E90-K90+I90</f>
+        <v>60.83</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I90">
+        <v>50</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -3193,23 +3134,32 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>0.90625</v>
+        <v>0.92708333333333304</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
       </c>
+      <c r="C91" s="2">
+        <v>2</v>
+      </c>
       <c r="E91">
-        <v>14.475000000000001</v>
+        <v>10.845000000000001</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
       <c r="G91">
-        <f t="shared" ref="G91" si="12">E91-K91</f>
-        <v>14.475000000000001</v>
+        <f t="shared" si="13"/>
+        <v>60.844999999999999</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I91">
+        <v>50</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -3217,7 +3167,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>0.91666666666666696</v>
+        <v>0.9375</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -3226,14 +3176,14 @@
         <v>2</v>
       </c>
       <c r="E92">
-        <v>10.83</v>
+        <v>10.5</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
       </c>
       <c r="G92">
-        <f t="shared" ref="G92:G99" si="13">E92-K92+I92</f>
-        <v>60.83</v>
+        <f t="shared" si="13"/>
+        <v>60.5</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>16</v>
@@ -3250,7 +3200,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>0.92708333333333304</v>
+        <v>0.94791666666666696</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -3259,14 +3209,14 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>10.845000000000001</v>
+        <v>10.23</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
       </c>
       <c r="G93">
         <f t="shared" si="13"/>
-        <v>60.844999999999999</v>
+        <v>60.230000000000004</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>16</v>
@@ -3283,32 +3233,23 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>0.9375</v>
+        <v>0.95833333333333304</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
       </c>
-      <c r="C94" s="2">
-        <v>2</v>
-      </c>
       <c r="E94">
-        <v>10.5</v>
+        <v>9.7349999999999994</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
       </c>
       <c r="G94">
         <f t="shared" si="13"/>
-        <v>60.5</v>
+        <v>9.7349999999999994</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I94">
-        <v>50</v>
-      </c>
-      <c r="J94" t="s">
-        <v>17</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -3316,32 +3257,23 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>0.94791666666666696</v>
+        <v>0.96875</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
       </c>
-      <c r="C95" s="2">
-        <v>2</v>
-      </c>
       <c r="E95">
-        <v>10.23</v>
+        <v>9.69</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
       </c>
       <c r="G95">
         <f t="shared" si="13"/>
-        <v>60.230000000000004</v>
+        <v>9.69</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I95">
-        <v>50</v>
-      </c>
-      <c r="J95" t="s">
-        <v>17</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -3349,20 +3281,20 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>0.95833333333333304</v>
+        <v>0.97916666666666696</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>9.7349999999999994</v>
+        <v>8.0849999999999991</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
       </c>
       <c r="G96">
         <f t="shared" si="13"/>
-        <v>9.7349999999999994</v>
+        <v>8.0849999999999991</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>16</v>
@@ -3373,20 +3305,20 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>0.96875</v>
+        <v>0.98958333333333304</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>9.69</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
       </c>
       <c r="G97">
         <f t="shared" si="13"/>
-        <v>9.69</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>16</v>
@@ -3396,55 +3328,132 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>0.97916666666666696</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>8.0849999999999991</v>
-      </c>
-      <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="13"/>
-        <v>8.0849999999999991</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>0.98958333333333304</v>
-      </c>
-      <c r="B99" s="2">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="13"/>
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H100" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F48B1-5691-44FB-A15E-00BE6FA44B15}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3145014-D59A-4089-A1E4-092BBF0655EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F9EA2-0740-40D8-B6FB-DCFEAB7F2304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29415" yWindow="1515" windowWidth="21600" windowHeight="13215" activeTab="1" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
+    <workbookView xWindow="29415" yWindow="1515" windowWidth="21600" windowHeight="13215" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="33">
   <si>
     <t>PATHS</t>
   </si>
@@ -134,6 +134,9 @@
   <si>
     <t>Active</t>
   </si>
+  <si>
+    <t>BATTERY SOC</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -179,6 +182,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE683D1-0F20-4AA9-8E66-4B04E80D1FD0}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,10 +533,11 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -562,13 +569,16 @@
         <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,17 +592,21 @@
         <v>21</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I6" si="0">K2-E2</f>
+        <f t="shared" ref="I2:I15" si="0">L2-E2</f>
         <v>-7.6050000000000004</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="5">
+        <f>0.95+I2*0.5%</f>
+        <v>0.91197499999999998</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -612,11 +626,15 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="5">
+        <f>K2+I3*0.5%</f>
+        <v>0.87342500000000001</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
@@ -636,11 +654,15 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K15" si="1">K3+I4*0.5%</f>
+        <v>0.83810000000000007</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -660,11 +682,15 @@
       <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.79692500000000011</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -684,11 +710,15 @@
       <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.76107500000000006</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333301E-2</v>
       </c>
@@ -701,18 +731,22 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G41" si="1">E7</f>
-        <v>7.4700000000000006</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>-7.4700000000000006</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.72372500000000006</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -725,18 +759,22 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-7.875</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="5">
         <f t="shared" si="1"/>
-        <v>7.875</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.68435000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666699E-2</v>
       </c>
@@ -749,18 +787,22 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-7.3349999999999991</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5">
         <f t="shared" si="1"/>
-        <v>7.3349999999999991</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.647675</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -773,18 +815,22 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-7.3949999999999996</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="1"/>
-        <v>7.3949999999999996</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -797,18 +843,22 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>-7.4399999999999995</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="1"/>
-        <v>7.4399999999999995</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.104166666666667</v>
       </c>
@@ -821,18 +871,22 @@
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>-7.89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="1"/>
-        <v>7.89</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.53405000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.114583333333333</v>
       </c>
@@ -845,18 +899,22 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-8.43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="5">
         <f t="shared" si="1"/>
-        <v>8.43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4919</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -869,18 +927,22 @@
       <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>-7.74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="1"/>
-        <v>7.74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666699</v>
       </c>
@@ -893,18 +955,22 @@
       <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>-7.38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="5">
         <f t="shared" si="1"/>
-        <v>7.38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4163</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333301</v>
       </c>
@@ -917,18 +983,22 @@
       <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>7.89</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" ref="I16:I17" si="2">L16-E16</f>
+        <v>-7.89</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" ref="K16:K50" si="3">K15+I16*0.5%</f>
+        <v>0.37685000000000002</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -941,18 +1011,22 @@
       <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>7.5449999999999999</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-7.5449999999999999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666699</v>
       </c>
@@ -966,17 +1040,21 @@
         <v>22</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G18:G41" si="4">E18</f>
         <v>7.7250000000000005</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333301</v>
       </c>
@@ -990,17 +1068,21 @@
         <v>22</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.5950000000000006</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -1014,17 +1096,21 @@
         <v>22</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.43</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666699</v>
       </c>
@@ -1038,17 +1124,21 @@
         <v>22</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.18</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333301</v>
       </c>
@@ -1062,17 +1152,21 @@
         <v>22</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.3149999999999995</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -1089,20 +1183,24 @@
         <v>23</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L23">
         <v>0.3</v>
       </c>
-      <c r="L23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666699</v>
       </c>
@@ -1119,20 +1217,24 @@
         <v>23</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.64</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L24">
         <v>0.45</v>
       </c>
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333301</v>
       </c>
@@ -1149,20 +1251,24 @@
         <v>23</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.23</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L25">
         <v>0.75</v>
       </c>
-      <c r="L25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -1179,20 +1285,24 @@
         <v>23</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19.049999999999997</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L26">
         <v>1.2</v>
       </c>
-      <c r="L26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666702</v>
       </c>
@@ -1209,20 +1319,24 @@
         <v>23</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23.234999999999999</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L27">
         <v>3.15</v>
       </c>
-      <c r="L27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333298</v>
       </c>
@@ -1239,20 +1353,24 @@
         <v>23</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26.895</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L28">
         <v>5.25</v>
       </c>
-      <c r="L28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -1269,20 +1387,24 @@
         <v>23</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30.224999999999998</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L29">
         <v>7.35</v>
       </c>
-      <c r="L29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666702</v>
       </c>
@@ -1299,20 +1421,24 @@
         <v>23</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33.839999999999996</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L30">
         <v>10.35</v>
       </c>
-      <c r="L30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333298</v>
       </c>
@@ -1329,20 +1455,24 @@
         <v>23</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39.765000000000001</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L31">
         <v>13.05</v>
       </c>
-      <c r="L31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -1359,20 +1489,24 @@
         <v>23</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>43.68</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L32">
         <v>16.8</v>
       </c>
-      <c r="L32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666702</v>
       </c>
@@ -1389,20 +1523,24 @@
         <v>23</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52.605000000000004</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L33">
         <v>23.25</v>
       </c>
-      <c r="L33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333298</v>
       </c>
@@ -1419,20 +1557,24 @@
         <v>23</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47.325000000000003</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L34">
         <v>25.35</v>
       </c>
-      <c r="L34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -1449,20 +1591,24 @@
         <v>23</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55.44</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L35">
         <v>31.05</v>
       </c>
-      <c r="L35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666702</v>
       </c>
@@ -1479,20 +1625,24 @@
         <v>23</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>58.800000000000004</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L36">
         <v>34.950000000000003</v>
       </c>
-      <c r="L36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333298</v>
       </c>
@@ -1509,20 +1659,24 @@
         <v>23</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>64.004999999999995</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L37">
         <v>44.25</v>
       </c>
-      <c r="L37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -1539,20 +1693,24 @@
         <v>23</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>64.739999999999995</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L38">
         <v>48.6</v>
       </c>
-      <c r="L38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666702</v>
       </c>
@@ -1569,20 +1727,24 @@
         <v>23</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>62.655000000000001</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L39">
         <v>53.55</v>
       </c>
-      <c r="L39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333298</v>
       </c>
@@ -1599,20 +1761,24 @@
         <v>23</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>66.224999999999994</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L40">
         <v>57.9</v>
       </c>
-      <c r="L40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -1629,20 +1795,24 @@
         <v>23</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>69.074999999999989</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L41">
         <v>66.3</v>
       </c>
-      <c r="L41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666702</v>
       </c>
@@ -1659,20 +1829,24 @@
         <v>24</v>
       </c>
       <c r="G42">
-        <f>E42-K42</f>
+        <f>E42-L42</f>
         <v>-6.7349999999999994</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L42">
         <v>74.849999999999994</v>
       </c>
-      <c r="L42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333298</v>
       </c>
@@ -1689,20 +1863,24 @@
         <v>24</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G50" si="2">E43-K43</f>
+        <f t="shared" ref="G43:G50" si="5">E43-L43</f>
         <v>-0.17999999999999261</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L43">
         <v>72</v>
       </c>
-      <c r="L43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -1719,20 +1897,24 @@
         <v>24</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-24.450000000000003</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L44">
         <v>89.55</v>
       </c>
-      <c r="L44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666702</v>
       </c>
@@ -1749,20 +1931,24 @@
         <v>24</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-20.625</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L45">
         <v>96.6</v>
       </c>
-      <c r="L45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333298</v>
       </c>
@@ -1779,20 +1965,24 @@
         <v>24</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-8.6399999999999864</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L46">
         <v>84.6</v>
       </c>
-      <c r="L46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -1809,20 +1999,24 @@
         <v>24</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-35.564999999999998</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L47">
         <v>106.35</v>
       </c>
-      <c r="L47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666702</v>
       </c>
@@ -1839,20 +2033,24 @@
         <v>24</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-45.150000000000006</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L48">
         <v>118.65</v>
       </c>
-      <c r="L48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333298</v>
       </c>
@@ -1869,20 +2067,24 @@
         <v>24</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-46.320000000000007</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L49">
         <v>118.2</v>
       </c>
-      <c r="L49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -1899,20 +2101,24 @@
         <v>24</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-58.739999999999995</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33912500000000001</v>
+      </c>
+      <c r="L50">
         <v>128.1</v>
       </c>
-      <c r="L50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666696</v>
       </c>
@@ -1929,25 +2135,29 @@
         <v>24</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G54" si="3">E51-K51+I51</f>
+        <f t="shared" ref="G51:G54" si="6">E51-L51+I51</f>
         <v>0</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51">
-        <f>K51-E51</f>
+        <f>L51-E51</f>
         <v>58.245000000000005</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="5">
+        <f>K50+I51*0.25%</f>
+        <v>0.48473750000000004</v>
+      </c>
+      <c r="L51">
         <v>129.9</v>
       </c>
-      <c r="L51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333304</v>
       </c>
@@ -1964,25 +2174,29 @@
         <v>24</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52">
-        <f t="shared" ref="I52:I54" si="4">K52-E52</f>
+        <f t="shared" ref="I52:I54" si="7">L52-E52</f>
         <v>44.295000000000002</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="5">
+        <f t="shared" ref="K52:K97" si="8">K51+I52*0.25%</f>
+        <v>0.59547500000000009</v>
+      </c>
+      <c r="L52">
         <v>118.2</v>
       </c>
-      <c r="L52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -1999,25 +2213,29 @@
         <v>24</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>46.92</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="5">
+        <f t="shared" si="8"/>
+        <v>0.71277500000000005</v>
+      </c>
+      <c r="L53">
         <v>116.55</v>
       </c>
-      <c r="L53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666696</v>
       </c>
@@ -2034,25 +2252,29 @@
         <v>24</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.185000000000002</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="5">
+        <f t="shared" si="8"/>
+        <v>0.8582375000000001</v>
+      </c>
+      <c r="L54">
         <v>127.5</v>
       </c>
-      <c r="L54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333304</v>
       </c>
@@ -2069,20 +2291,28 @@
         <v>24</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:G56" si="5">E55-K55</f>
-        <v>-56.234999999999999</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55">
+        <f t="shared" ref="G55" si="9">E55-L55+I55</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55">
+        <f t="shared" ref="I55" si="10">L55-E55</f>
+        <v>56.234999999999999</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="L55">
         <v>125.7</v>
       </c>
-      <c r="L55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -2099,20 +2329,24 @@
         <v>24</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G56" si="11">E56-L56</f>
         <v>-43.965000000000003</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L56">
         <v>114.15</v>
       </c>
-      <c r="L56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666696</v>
       </c>
@@ -2129,20 +2363,24 @@
         <v>24</v>
       </c>
       <c r="G57">
-        <f t="shared" ref="G57:G58" si="6">E57-K57</f>
+        <f t="shared" ref="G57:G58" si="12">E57-L57</f>
         <v>-47.610000000000014</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L57">
         <v>119.4</v>
       </c>
-      <c r="L57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333304</v>
       </c>
@@ -2159,20 +2397,24 @@
         <v>24</v>
       </c>
       <c r="G58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-53.805000000000007</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L58">
         <v>119.7</v>
       </c>
-      <c r="L58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -2189,20 +2431,24 @@
         <v>24</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59" si="7">E59-K59</f>
+        <f t="shared" ref="G59" si="13">E59-L59</f>
         <v>-46.17</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L59">
         <v>114.45</v>
       </c>
-      <c r="L59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666696</v>
       </c>
@@ -2219,20 +2465,24 @@
         <v>24</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:G67" si="8">E60-K60</f>
+        <f t="shared" ref="G60:G67" si="14">E60-L60</f>
         <v>-44.504999999999995</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L60">
         <v>111.3</v>
       </c>
-      <c r="L60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333304</v>
       </c>
@@ -2249,20 +2499,24 @@
         <v>24</v>
       </c>
       <c r="G61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-34.14</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L61">
         <v>94.8</v>
       </c>
-      <c r="L61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -2279,20 +2533,24 @@
         <v>24</v>
       </c>
       <c r="G62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-26.234999999999999</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L62">
         <v>90</v>
       </c>
-      <c r="L62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666696</v>
       </c>
@@ -2309,20 +2567,24 @@
         <v>24</v>
       </c>
       <c r="G63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-22.769999999999996</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L63">
         <v>86.25</v>
       </c>
-      <c r="L63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333304</v>
       </c>
@@ -2339,20 +2601,24 @@
         <v>24</v>
       </c>
       <c r="G64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-22.83</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L64">
         <v>85.5</v>
       </c>
-      <c r="L64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -2369,20 +2635,24 @@
         <v>24</v>
       </c>
       <c r="G65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-20.399999999999999</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L65">
         <v>82.95</v>
       </c>
-      <c r="L65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666696</v>
       </c>
@@ -2399,20 +2669,24 @@
         <v>24</v>
       </c>
       <c r="G66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-17.895000000000003</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L66">
         <v>73.650000000000006</v>
       </c>
-      <c r="L66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333304</v>
       </c>
@@ -2429,20 +2703,24 @@
         <v>24</v>
       </c>
       <c r="G67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.1700000000000088</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L67">
         <v>63.6</v>
       </c>
-      <c r="L67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -2459,20 +2737,24 @@
         <v>23</v>
       </c>
       <c r="G68">
-        <f>E68-K68</f>
+        <f>E68-L68</f>
         <v>0.26999999999999602</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L68">
         <v>56.1</v>
       </c>
-      <c r="L68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666696</v>
       </c>
@@ -2489,20 +2771,24 @@
         <v>23</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G88" si="9">E69-K69</f>
+        <f t="shared" ref="G69:G88" si="15">E69-L69</f>
         <v>9.8100000000000023</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L69">
         <v>43.5</v>
       </c>
-      <c r="L69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333304</v>
       </c>
@@ -2519,20 +2805,24 @@
         <v>23</v>
       </c>
       <c r="G70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>18.240000000000002</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L70">
         <v>38.1</v>
       </c>
-      <c r="L70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -2549,20 +2839,24 @@
         <v>23</v>
       </c>
       <c r="G71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>19.829999999999998</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L71">
         <v>34.5</v>
       </c>
-      <c r="L71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666696</v>
       </c>
@@ -2579,20 +2873,24 @@
         <v>23</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>22.200000000000003</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L72">
         <v>26.85</v>
       </c>
-      <c r="L72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333304</v>
       </c>
@@ -2609,20 +2907,24 @@
         <v>23</v>
       </c>
       <c r="G73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>27.060000000000002</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L73">
         <v>22.5</v>
       </c>
-      <c r="L73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -2639,20 +2941,24 @@
         <v>23</v>
       </c>
       <c r="G74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>26.085000000000001</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L74">
         <v>18.75</v>
       </c>
-      <c r="L74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666696</v>
       </c>
@@ -2669,20 +2975,24 @@
         <v>23</v>
       </c>
       <c r="G75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>29.130000000000003</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L75">
         <v>14.1</v>
       </c>
-      <c r="L75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333304</v>
       </c>
@@ -2699,20 +3009,24 @@
         <v>23</v>
       </c>
       <c r="G76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>27.810000000000002</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L76">
         <v>11.1</v>
       </c>
-      <c r="L76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -2729,20 +3043,24 @@
         <v>23</v>
       </c>
       <c r="G77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>33.36</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="L77">
         <v>7.35</v>
       </c>
-      <c r="L77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666696</v>
       </c>
@@ -2759,25 +3077,29 @@
         <v>21</v>
       </c>
       <c r="G78">
-        <f>E78-K78+I78</f>
+        <f>E78-L78+I78</f>
         <v>0</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78">
-        <f>K78-E78</f>
+        <f>L78-E78</f>
         <v>-28.754999999999999</v>
       </c>
       <c r="J78" t="s">
         <v>18</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="5">
+        <f t="shared" si="8"/>
+        <v>0.88811249999999997</v>
+      </c>
+      <c r="L78">
         <v>3.3</v>
       </c>
-      <c r="L78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333304</v>
       </c>
@@ -2794,25 +3116,29 @@
         <v>21</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:G86" si="10">E79-K79+I79</f>
+        <f t="shared" ref="G79:G86" si="16">E79-L79+I79</f>
         <v>0</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79">
-        <f t="shared" ref="I79:I86" si="11">K79-E79</f>
+        <f t="shared" ref="I79:I86" si="17">L79-E79</f>
         <v>-31.274999999999999</v>
       </c>
       <c r="J79" t="s">
         <v>18</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="5">
+        <f t="shared" si="8"/>
+        <v>0.80992500000000001</v>
+      </c>
+      <c r="L79">
         <v>2.4</v>
       </c>
-      <c r="L79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -2829,25 +3155,29 @@
         <v>21</v>
       </c>
       <c r="G80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-31.11</v>
       </c>
       <c r="J80" t="s">
         <v>18</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="5">
+        <f t="shared" si="8"/>
+        <v>0.73214999999999997</v>
+      </c>
+      <c r="L80">
         <v>1.5</v>
       </c>
-      <c r="L80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666696</v>
       </c>
@@ -2864,25 +3194,29 @@
         <v>21</v>
       </c>
       <c r="G81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-26.355000000000004</v>
       </c>
       <c r="J81" t="s">
         <v>18</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="5">
+        <f t="shared" si="8"/>
+        <v>0.66626249999999998</v>
+      </c>
+      <c r="L81">
         <v>0.9</v>
       </c>
-      <c r="L81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333304</v>
       </c>
@@ -2896,22 +3230,26 @@
         <v>21</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-27.39</v>
       </c>
       <c r="J82" t="s">
         <v>18</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K82" s="5">
+        <f t="shared" si="8"/>
+        <v>0.59778749999999992</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -2925,22 +3263,26 @@
         <v>21</v>
       </c>
       <c r="G83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-26.130000000000003</v>
       </c>
       <c r="J83" t="s">
         <v>18</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K83" s="5">
+        <f t="shared" si="8"/>
+        <v>0.53246249999999995</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666696</v>
       </c>
@@ -2954,22 +3296,26 @@
         <v>21</v>
       </c>
       <c r="G84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-25.650000000000002</v>
       </c>
       <c r="J84" t="s">
         <v>18</v>
       </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K84" s="5">
+        <f t="shared" si="8"/>
+        <v>0.46833749999999996</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333304</v>
       </c>
@@ -2983,22 +3329,26 @@
         <v>21</v>
       </c>
       <c r="G85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-24.630000000000003</v>
       </c>
       <c r="J85" t="s">
         <v>18</v>
       </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K85" s="5">
+        <f t="shared" si="8"/>
+        <v>0.40676249999999997</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -3012,22 +3362,26 @@
         <v>21</v>
       </c>
       <c r="G86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-21.72</v>
       </c>
       <c r="J86" t="s">
         <v>18</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K86" s="5">
+        <f t="shared" si="8"/>
+        <v>0.35246249999999996</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666696</v>
       </c>
@@ -3041,17 +3395,21 @@
         <v>22</v>
       </c>
       <c r="G87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>18.240000000000002</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K87" s="5">
+        <f t="shared" si="8"/>
+        <v>0.35246249999999996</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333304</v>
       </c>
@@ -3065,17 +3423,21 @@
         <v>22</v>
       </c>
       <c r="G88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>17.46</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K88" s="5">
+        <f t="shared" si="8"/>
+        <v>0.35246249999999996</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -3089,17 +3451,21 @@
         <v>22</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89" si="12">E89-K89</f>
+        <f t="shared" ref="G89" si="18">E89-L89</f>
         <v>14.475000000000001</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K89" s="5">
+        <f t="shared" si="8"/>
+        <v>0.35246249999999996</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666696</v>
       </c>
@@ -3116,23 +3482,27 @@
         <v>22</v>
       </c>
       <c r="G90">
-        <f t="shared" ref="G90:G97" si="13">E90-K90+I90</f>
-        <v>60.83</v>
+        <f t="shared" ref="G90:G97" si="19">E90-L90+I90</f>
+        <v>72.83</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I90">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
       </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K90" s="5">
+        <f t="shared" si="8"/>
+        <v>0.50746249999999993</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333304</v>
       </c>
@@ -3149,23 +3519,27 @@
         <v>22</v>
       </c>
       <c r="G91">
-        <f t="shared" si="13"/>
-        <v>60.844999999999999</v>
+        <f t="shared" si="19"/>
+        <v>66.844999999999999</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I91">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J91" t="s">
         <v>17</v>
       </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K91" s="5">
+        <f t="shared" si="8"/>
+        <v>0.64746249999999994</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -3182,23 +3556,27 @@
         <v>22</v>
       </c>
       <c r="G92">
-        <f t="shared" si="13"/>
-        <v>60.5</v>
+        <f t="shared" si="19"/>
+        <v>71.5</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I92">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J92" t="s">
         <v>17</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K92" s="5">
+        <f t="shared" si="8"/>
+        <v>0.79996249999999991</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666696</v>
       </c>
@@ -3215,23 +3593,27 @@
         <v>22</v>
       </c>
       <c r="G93">
-        <f t="shared" si="13"/>
-        <v>60.230000000000004</v>
+        <f t="shared" si="19"/>
+        <v>69.23</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I93">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J93" t="s">
         <v>17</v>
       </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K93" s="5">
+        <f t="shared" si="8"/>
+        <v>0.94746249999999987</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -3245,17 +3627,21 @@
         <v>22</v>
       </c>
       <c r="G94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.7349999999999994</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K94" s="5">
+        <f t="shared" si="8"/>
+        <v>0.94746249999999987</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -3269,17 +3655,21 @@
         <v>22</v>
       </c>
       <c r="G95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.69</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K95" s="5">
+        <f t="shared" si="8"/>
+        <v>0.94746249999999987</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666696</v>
       </c>
@@ -3293,17 +3683,21 @@
         <v>22</v>
       </c>
       <c r="G96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8.0849999999999991</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="5">
+        <f t="shared" si="8"/>
+        <v>0.94746249999999987</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333304</v>
       </c>
@@ -3317,17 +3711,21 @@
         <v>22</v>
       </c>
       <c r="G97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="5">
+        <f t="shared" si="8"/>
+        <v>0.94746249999999987</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H98" s="1"/>
     </row>
   </sheetData>
@@ -3339,7 +3737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F48B1-5691-44FB-A15E-00BE6FA44B15}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>

--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F9EA2-0740-40D8-B6FB-DCFEAB7F2304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCA4258-3F0A-4D2C-97E5-8EF811031FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29415" yWindow="1515" windowWidth="21600" windowHeight="13215" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="33">
   <si>
     <t>PATHS</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>PATH 2</t>
-  </si>
-  <si>
-    <t>PATH 3</t>
   </si>
   <si>
     <t>GRID PWR</t>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>BATTERY SOC</t>
+  </si>
+  <si>
+    <t>Battery + solar</t>
   </si>
 </sst>
 </file>
@@ -520,26 +520,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE683D1-0F20-4AA9-8E66-4B04E80D1FD0}">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="9.140625" style="2"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -547,626 +547,623 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>7.6050000000000004</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I15" si="0">L2-E2</f>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H15" si="0">K2-D2</f>
         <v>-7.6050000000000004</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5">
-        <f>0.95+I2*0.5%</f>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5">
+        <f>0.95+H2*0.5%</f>
         <v>0.91197499999999998</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>7.7099999999999991</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
         <f t="shared" si="0"/>
         <v>-7.7099999999999991</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5">
-        <f>K2+I3*0.5%</f>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5">
+        <f>J2+H3*0.5%</f>
         <v>0.87342500000000001</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>7.0649999999999995</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>-7.0649999999999995</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4:K15" si="1">K3+I4*0.5%</f>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J15" si="1">J3+H4*0.5%</f>
         <v>0.83810000000000007</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>8.2349999999999994</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>-8.2349999999999994</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
         <v>0.79692500000000011</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>7.17</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>-7.17</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="1"/>
         <v>0.76107500000000006</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333301E-2</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>7.4700000000000006</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>-7.4700000000000006</v>
       </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="1"/>
         <v>0.72372500000000006</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>7.875</v>
       </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>-7.875</v>
       </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="1"/>
         <v>0.68435000000000001</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>7.3349999999999991</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>-7.3349999999999991</v>
       </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="1"/>
         <v>0.647675</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>7.3949999999999996</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>-7.3949999999999996</v>
       </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="1"/>
         <v>0.61070000000000002</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>7.4399999999999995</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>-7.4399999999999995</v>
       </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="1"/>
         <v>0.57350000000000001</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.104166666666667</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="D12">
         <v>7.89</v>
       </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>-7.89</v>
       </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" si="1"/>
         <v>0.53405000000000002</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.114583333333333</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>8.43</v>
       </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>-8.43</v>
       </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="1"/>
         <v>0.4919</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <v>7.74</v>
       </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>-7.74</v>
       </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="1"/>
         <v>0.45319999999999999</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666699</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <v>7.38</v>
       </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>-7.38</v>
       </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="1"/>
         <v>0.4163</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333301</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="D16">
         <v>7.89</v>
       </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I17" si="2">L16-E16</f>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H17" si="2">K16-D16</f>
         <v>-7.89</v>
       </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" ref="K16:K50" si="3">K15+I16*0.5%</f>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16:J50" si="3">J15+H16*0.5%</f>
         <v>0.37685000000000002</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="D17">
         <v>7.5449999999999999</v>
       </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17">
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>-7.5449999999999999</v>
       </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666699</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="D18">
         <v>7.7250000000000005</v>
       </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ref="G18:G41" si="4">E18</f>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F41" si="4">D18</f>
         <v>7.7250000000000005</v>
       </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333301</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="D19">
         <v>8.5950000000000006</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="4"/>
         <v>8.5950000000000006</v>
       </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>8.43</v>
       </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="4"/>
         <v>8.43</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666699</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>9.18</v>
       </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21">
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="4"/>
         <v>9.18</v>
       </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333301</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>9.3149999999999995</v>
       </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="4"/>
         <v>9.3149999999999995</v>
       </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -1176,31 +1173,31 @@
       <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>12</v>
       </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23">
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L23">
+      <c r="K23">
         <v>0.3</v>
       </c>
-      <c r="M23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666699</v>
       </c>
@@ -1210,31 +1207,31 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>14.64</v>
       </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24">
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="4"/>
         <v>14.64</v>
       </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L24">
+      <c r="K24">
         <v>0.45</v>
       </c>
-      <c r="M24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333301</v>
       </c>
@@ -1244,31 +1241,31 @@
       <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>16.23</v>
       </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25">
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="4"/>
         <v>16.23</v>
       </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L25">
+      <c r="K25">
         <v>0.75</v>
       </c>
-      <c r="M25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -1278,31 +1275,31 @@
       <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="D26">
         <v>19.049999999999997</v>
       </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26">
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="4"/>
         <v>19.049999999999997</v>
       </c>
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L26">
+      <c r="K26">
         <v>1.2</v>
       </c>
-      <c r="M26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666702</v>
       </c>
@@ -1312,31 +1309,31 @@
       <c r="C27" s="2">
         <v>3</v>
       </c>
-      <c r="E27">
+      <c r="D27">
         <v>23.234999999999999</v>
       </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27">
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="4"/>
         <v>23.234999999999999</v>
       </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L27">
+      <c r="K27">
         <v>3.15</v>
       </c>
-      <c r="M27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333298</v>
       </c>
@@ -1346,31 +1343,31 @@
       <c r="C28" s="2">
         <v>3</v>
       </c>
-      <c r="E28">
+      <c r="D28">
         <v>26.895</v>
       </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28">
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="4"/>
         <v>26.895</v>
       </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L28">
+      <c r="K28">
         <v>5.25</v>
       </c>
-      <c r="M28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -1380,31 +1377,31 @@
       <c r="C29" s="2">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="D29">
         <v>30.224999999999998</v>
       </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29">
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="4"/>
         <v>30.224999999999998</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L29">
+      <c r="K29">
         <v>7.35</v>
       </c>
-      <c r="M29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666702</v>
       </c>
@@ -1414,31 +1411,31 @@
       <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="D30">
         <v>33.839999999999996</v>
       </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30">
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="4"/>
         <v>33.839999999999996</v>
       </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L30">
+      <c r="K30">
         <v>10.35</v>
       </c>
-      <c r="M30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333298</v>
       </c>
@@ -1448,31 +1445,31 @@
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="D31">
         <v>39.765000000000001</v>
       </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31">
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="4"/>
         <v>39.765000000000001</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L31">
+      <c r="K31">
         <v>13.05</v>
       </c>
-      <c r="M31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -1482,31 +1479,31 @@
       <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="D32">
         <v>43.68</v>
       </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32">
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="4"/>
         <v>43.68</v>
       </c>
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="5">
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L32">
+      <c r="K32">
         <v>16.8</v>
       </c>
-      <c r="M32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666702</v>
       </c>
@@ -1516,31 +1513,31 @@
       <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="E33">
+      <c r="D33">
         <v>52.605000000000004</v>
       </c>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33">
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="4"/>
         <v>52.605000000000004</v>
       </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L33">
+      <c r="K33">
         <v>23.25</v>
       </c>
-      <c r="M33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333298</v>
       </c>
@@ -1550,31 +1547,31 @@
       <c r="C34" s="2">
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="D34">
         <v>47.325000000000003</v>
       </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34">
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
         <v>47.325000000000003</v>
       </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L34">
+      <c r="K34">
         <v>25.35</v>
       </c>
-      <c r="M34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -1584,31 +1581,31 @@
       <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="D35">
         <v>55.44</v>
       </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35">
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="4"/>
         <v>55.44</v>
       </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L35">
+      <c r="K35">
         <v>31.05</v>
       </c>
-      <c r="M35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666702</v>
       </c>
@@ -1618,31 +1615,31 @@
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="D36">
         <v>58.800000000000004</v>
       </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36">
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="4"/>
         <v>58.800000000000004</v>
       </c>
-      <c r="H36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="5">
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L36">
+      <c r="K36">
         <v>34.950000000000003</v>
       </c>
-      <c r="M36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333298</v>
       </c>
@@ -1652,31 +1649,31 @@
       <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="D37">
         <v>64.004999999999995</v>
       </c>
-      <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37">
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="4"/>
         <v>64.004999999999995</v>
       </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="5">
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L37">
+      <c r="K37">
         <v>44.25</v>
       </c>
-      <c r="M37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -1686,31 +1683,31 @@
       <c r="C38" s="2">
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="D38">
         <v>64.739999999999995</v>
       </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38">
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="4"/>
         <v>64.739999999999995</v>
       </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="5">
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L38">
+      <c r="K38">
         <v>48.6</v>
       </c>
-      <c r="M38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666702</v>
       </c>
@@ -1720,31 +1717,31 @@
       <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="E39">
+      <c r="D39">
         <v>62.655000000000001</v>
       </c>
-      <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39">
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="4"/>
         <v>62.655000000000001</v>
       </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="5">
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L39">
+      <c r="K39">
         <v>53.55</v>
       </c>
-      <c r="M39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333298</v>
       </c>
@@ -1754,31 +1751,31 @@
       <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="E40">
+      <c r="D40">
         <v>66.224999999999994</v>
       </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40">
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="4"/>
         <v>66.224999999999994</v>
       </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="5">
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L40">
+      <c r="K40">
         <v>57.9</v>
       </c>
-      <c r="M40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -1788,31 +1785,31 @@
       <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="D41">
         <v>69.074999999999989</v>
       </c>
-      <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41">
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="4"/>
         <v>69.074999999999989</v>
       </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="5">
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L41">
+      <c r="K41">
         <v>66.3</v>
       </c>
-      <c r="M41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666702</v>
       </c>
@@ -1822,31 +1819,31 @@
       <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="E42">
+      <c r="D42">
         <v>68.114999999999995</v>
       </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42">
-        <f>E42-L42</f>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42">
+        <f>D42-K42</f>
         <v>-6.7349999999999994</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="5">
+      <c r="J42" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L42">
+      <c r="K42">
         <v>74.849999999999994</v>
       </c>
-      <c r="M42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333298</v>
       </c>
@@ -1856,31 +1853,31 @@
       <c r="C43" s="2">
         <v>4</v>
       </c>
-      <c r="E43">
+      <c r="D43">
         <v>71.820000000000007</v>
       </c>
-      <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43">
-        <f t="shared" ref="G43:G50" si="5">E43-L43</f>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F50" si="5">D43-K43</f>
         <v>-0.17999999999999261</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K43" s="5">
+      <c r="J43" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L43">
+      <c r="K43">
         <v>72</v>
       </c>
-      <c r="M43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -1890,31 +1887,31 @@
       <c r="C44" s="2">
         <v>4</v>
       </c>
-      <c r="E44">
+      <c r="D44">
         <v>65.099999999999994</v>
       </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44">
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="5"/>
         <v>-24.450000000000003</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="5">
+      <c r="J44" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L44">
+      <c r="K44">
         <v>89.55</v>
       </c>
-      <c r="M44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666702</v>
       </c>
@@ -1924,31 +1921,31 @@
       <c r="C45" s="2">
         <v>4</v>
       </c>
-      <c r="E45">
+      <c r="D45">
         <v>75.974999999999994</v>
       </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45">
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="5"/>
         <v>-20.625</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="5">
+      <c r="J45" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L45">
+      <c r="K45">
         <v>96.6</v>
       </c>
-      <c r="M45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333298</v>
       </c>
@@ -1958,31 +1955,31 @@
       <c r="C46" s="2">
         <v>4</v>
       </c>
-      <c r="E46">
+      <c r="D46">
         <v>75.960000000000008</v>
       </c>
-      <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46">
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="5"/>
         <v>-8.6399999999999864</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="5">
+      <c r="J46" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L46">
+      <c r="K46">
         <v>84.6</v>
       </c>
-      <c r="M46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -1992,31 +1989,31 @@
       <c r="C47" s="2">
         <v>4</v>
       </c>
-      <c r="E47">
+      <c r="D47">
         <v>70.784999999999997</v>
       </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47">
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="5"/>
         <v>-35.564999999999998</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="5">
+      <c r="J47" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L47">
+      <c r="K47">
         <v>106.35</v>
       </c>
-      <c r="M47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666702</v>
       </c>
@@ -2026,31 +2023,31 @@
       <c r="C48" s="2">
         <v>4</v>
       </c>
-      <c r="E48">
+      <c r="D48">
         <v>73.5</v>
       </c>
-      <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48">
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="5"/>
         <v>-45.150000000000006</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="5">
+      <c r="J48" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L48">
+      <c r="K48">
         <v>118.65</v>
       </c>
-      <c r="M48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333298</v>
       </c>
@@ -2060,31 +2057,31 @@
       <c r="C49" s="2">
         <v>4</v>
       </c>
-      <c r="E49">
+      <c r="D49">
         <v>71.88</v>
       </c>
-      <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49">
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="5"/>
         <v>-46.320000000000007</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="5">
+      <c r="J49" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L49">
+      <c r="K49">
         <v>118.2</v>
       </c>
-      <c r="M49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -2094,31 +2091,31 @@
       <c r="C50" s="2">
         <v>4</v>
       </c>
-      <c r="E50">
+      <c r="D50">
         <v>69.36</v>
       </c>
-      <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50">
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="5"/>
         <v>-58.739999999999995</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K50" s="5">
+      <c r="J50" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
       </c>
-      <c r="L50">
+      <c r="K50">
         <v>128.1</v>
       </c>
-      <c r="M50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666696</v>
       </c>
@@ -2128,36 +2125,36 @@
       <c r="C51" s="2">
         <v>5</v>
       </c>
-      <c r="E51">
+      <c r="D51">
         <v>71.655000000000001</v>
       </c>
-      <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ref="G51:G54" si="6">E51-L51+I51</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51">
-        <f>L51-E51</f>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F54" si="6">D51-K51+H51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51">
+        <f>K51-D51</f>
         <v>58.245000000000005</v>
       </c>
-      <c r="J51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="5">
-        <f>K50+I51*0.25%</f>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="5">
+        <f>J50+H51*0.25%</f>
         <v>0.48473750000000004</v>
       </c>
-      <c r="L51">
+      <c r="K51">
         <v>129.9</v>
       </c>
-      <c r="M51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333304</v>
       </c>
@@ -2167,36 +2164,36 @@
       <c r="C52" s="2">
         <v>5</v>
       </c>
-      <c r="E52">
+      <c r="D52">
         <v>73.905000000000001</v>
       </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52">
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52">
-        <f t="shared" ref="I52:I54" si="7">L52-E52</f>
+      <c r="G52" s="1"/>
+      <c r="H52">
+        <f t="shared" ref="H52:H54" si="7">K52-D52</f>
         <v>44.295000000000002</v>
       </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="5">
-        <f t="shared" ref="K52:K97" si="8">K51+I52*0.25%</f>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" ref="J52:J97" si="8">J51+H52*0.25%</f>
         <v>0.59547500000000009</v>
       </c>
-      <c r="L52">
+      <c r="K52">
         <v>118.2</v>
       </c>
-      <c r="M52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -2206,36 +2203,36 @@
       <c r="C53" s="2">
         <v>5</v>
       </c>
-      <c r="E53">
+      <c r="D53">
         <v>69.63</v>
       </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53">
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H53" s="1"/>
-      <c r="I53">
+      <c r="G53" s="1"/>
+      <c r="H53">
         <f t="shared" si="7"/>
         <v>46.92</v>
       </c>
-      <c r="J53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="5">
         <f t="shared" si="8"/>
         <v>0.71277500000000005</v>
       </c>
-      <c r="L53">
+      <c r="K53">
         <v>116.55</v>
       </c>
-      <c r="M53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666696</v>
       </c>
@@ -2245,36 +2242,36 @@
       <c r="C54" s="2">
         <v>5</v>
       </c>
-      <c r="E54">
+      <c r="D54">
         <v>69.314999999999998</v>
       </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54">
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54">
+      <c r="G54" s="1"/>
+      <c r="H54">
         <f t="shared" si="7"/>
         <v>58.185000000000002</v>
       </c>
-      <c r="J54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="5">
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="5">
         <f t="shared" si="8"/>
         <v>0.8582375000000001</v>
       </c>
-      <c r="L54">
+      <c r="K54">
         <v>127.5</v>
       </c>
-      <c r="M54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333304</v>
       </c>
@@ -2282,37 +2279,37 @@
         <v>3</v>
       </c>
       <c r="C55" s="2">
-        <v>4</v>
-      </c>
-      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="D55">
         <v>69.465000000000003</v>
       </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55">
-        <f t="shared" ref="G55" si="9">E55-L55+I55</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55">
-        <f t="shared" ref="I55" si="10">L55-E55</f>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="9">D55-K55+H55</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55">
+        <f t="shared" ref="H55" si="10">K55-D55</f>
         <v>56.234999999999999</v>
       </c>
-      <c r="J55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="5">
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="5">
         <v>0.96</v>
       </c>
-      <c r="L55">
+      <c r="K55">
         <v>125.7</v>
       </c>
-      <c r="M55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -2322,31 +2319,31 @@
       <c r="C56" s="2">
         <v>4</v>
       </c>
-      <c r="E56">
+      <c r="D56">
         <v>70.185000000000002</v>
       </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56">
-        <f t="shared" ref="G56" si="11">E56-L56</f>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56" si="11">D56-K56</f>
         <v>-43.965000000000003</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K56" s="5">
+      <c r="J56" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L56">
+      <c r="K56">
         <v>114.15</v>
       </c>
-      <c r="M56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666696</v>
       </c>
@@ -2356,31 +2353,31 @@
       <c r="C57" s="2">
         <v>4</v>
       </c>
-      <c r="E57">
+      <c r="D57">
         <v>71.789999999999992</v>
       </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57">
-        <f t="shared" ref="G57:G58" si="12">E57-L57</f>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:F58" si="12">D57-K57</f>
         <v>-47.610000000000014</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K57" s="5">
+      <c r="J57" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L57">
+      <c r="K57">
         <v>119.4</v>
       </c>
-      <c r="M57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333304</v>
       </c>
@@ -2390,31 +2387,31 @@
       <c r="C58" s="2">
         <v>4</v>
       </c>
-      <c r="E58">
+      <c r="D58">
         <v>65.894999999999996</v>
       </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58">
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="12"/>
         <v>-53.805000000000007</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="5">
+      <c r="J58" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L58">
+      <c r="K58">
         <v>119.7</v>
       </c>
-      <c r="M58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -2424,31 +2421,31 @@
       <c r="C59" s="2">
         <v>4</v>
       </c>
-      <c r="E59">
+      <c r="D59">
         <v>68.28</v>
       </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59">
-        <f t="shared" ref="G59" si="13">E59-L59</f>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59" si="13">D59-K59</f>
         <v>-46.17</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="5">
+      <c r="J59" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L59">
+      <c r="K59">
         <v>114.45</v>
       </c>
-      <c r="M59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666696</v>
       </c>
@@ -2458,31 +2455,31 @@
       <c r="C60" s="2">
         <v>4</v>
       </c>
-      <c r="E60">
+      <c r="D60">
         <v>66.795000000000002</v>
       </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60">
-        <f t="shared" ref="G60:G67" si="14">E60-L60</f>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60:F67" si="14">D60-K60</f>
         <v>-44.504999999999995</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K60" s="5">
+      <c r="J60" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L60">
+      <c r="K60">
         <v>111.3</v>
       </c>
-      <c r="M60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333304</v>
       </c>
@@ -2492,31 +2489,31 @@
       <c r="C61" s="2">
         <v>4</v>
       </c>
-      <c r="E61">
+      <c r="D61">
         <v>60.66</v>
       </c>
-      <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61">
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="14"/>
         <v>-34.14</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="5">
+      <c r="J61" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L61">
+      <c r="K61">
         <v>94.8</v>
       </c>
-      <c r="M61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -2526,31 +2523,31 @@
       <c r="C62" s="2">
         <v>4</v>
       </c>
-      <c r="E62">
+      <c r="D62">
         <v>63.765000000000001</v>
       </c>
-      <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62">
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="14"/>
         <v>-26.234999999999999</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="5">
+      <c r="J62" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L62">
+      <c r="K62">
         <v>90</v>
       </c>
-      <c r="M62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666696</v>
       </c>
@@ -2560,31 +2557,31 @@
       <c r="C63" s="2">
         <v>4</v>
       </c>
-      <c r="E63">
+      <c r="D63">
         <v>63.480000000000004</v>
       </c>
-      <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63">
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="14"/>
         <v>-22.769999999999996</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K63" s="5">
+      <c r="J63" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L63">
+      <c r="K63">
         <v>86.25</v>
       </c>
-      <c r="M63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333304</v>
       </c>
@@ -2594,31 +2591,31 @@
       <c r="C64" s="2">
         <v>4</v>
       </c>
-      <c r="E64">
+      <c r="D64">
         <v>62.67</v>
       </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64">
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="14"/>
         <v>-22.83</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K64" s="5">
+      <c r="J64" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L64">
+      <c r="K64">
         <v>85.5</v>
       </c>
-      <c r="M64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -2628,31 +2625,31 @@
       <c r="C65" s="2">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="D65">
         <v>62.550000000000004</v>
       </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65">
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="14"/>
         <v>-20.399999999999999</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K65" s="5">
+      <c r="J65" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L65">
+      <c r="K65">
         <v>82.95</v>
       </c>
-      <c r="M65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666696</v>
       </c>
@@ -2662,31 +2659,31 @@
       <c r="C66" s="2">
         <v>4</v>
       </c>
-      <c r="E66">
+      <c r="D66">
         <v>55.755000000000003</v>
       </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66">
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="14"/>
         <v>-17.895000000000003</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K66" s="5">
+      <c r="J66" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L66">
+      <c r="K66">
         <v>73.650000000000006</v>
       </c>
-      <c r="M66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333304</v>
       </c>
@@ -2696,31 +2693,31 @@
       <c r="C67" s="2">
         <v>4</v>
       </c>
-      <c r="E67">
+      <c r="D67">
         <v>59.429999999999993</v>
       </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67">
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67">
         <f t="shared" si="14"/>
         <v>-4.1700000000000088</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K67" s="5">
+      <c r="J67" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L67">
+      <c r="K67">
         <v>63.6</v>
       </c>
-      <c r="M67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -2730,31 +2727,31 @@
       <c r="C68" s="2">
         <v>3</v>
       </c>
-      <c r="E68">
+      <c r="D68">
         <v>56.37</v>
       </c>
-      <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68">
-        <f>E68-L68</f>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68">
+        <f>D68-K68</f>
         <v>0.26999999999999602</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="5">
+      <c r="G68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L68">
+      <c r="K68">
         <v>56.1</v>
       </c>
-      <c r="M68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666696</v>
       </c>
@@ -2764,31 +2761,31 @@
       <c r="C69" s="2">
         <v>3</v>
       </c>
-      <c r="E69">
+      <c r="D69">
         <v>53.31</v>
       </c>
-      <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ref="G69:G88" si="15">E69-L69</f>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F88" si="15">D69-K69</f>
         <v>9.8100000000000023</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="5">
+      <c r="G69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L69">
+      <c r="K69">
         <v>43.5</v>
       </c>
-      <c r="M69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333304</v>
       </c>
@@ -2798,31 +2795,31 @@
       <c r="C70" s="2">
         <v>3</v>
       </c>
-      <c r="E70">
+      <c r="D70">
         <v>56.34</v>
       </c>
-      <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70">
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="15"/>
         <v>18.240000000000002</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="5">
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L70">
+      <c r="K70">
         <v>38.1</v>
       </c>
-      <c r="M70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -2832,31 +2829,31 @@
       <c r="C71" s="2">
         <v>3</v>
       </c>
-      <c r="E71">
+      <c r="D71">
         <v>54.33</v>
       </c>
-      <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71">
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="15"/>
         <v>19.829999999999998</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" s="5">
+      <c r="G71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L71">
+      <c r="K71">
         <v>34.5</v>
       </c>
-      <c r="M71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666696</v>
       </c>
@@ -2866,31 +2863,31 @@
       <c r="C72" s="2">
         <v>3</v>
       </c>
-      <c r="E72">
+      <c r="D72">
         <v>49.050000000000004</v>
       </c>
-      <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72">
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="15"/>
         <v>22.200000000000003</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="5">
+      <c r="G72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L72">
+      <c r="K72">
         <v>26.85</v>
       </c>
-      <c r="M72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333304</v>
       </c>
@@ -2900,31 +2897,31 @@
       <c r="C73" s="2">
         <v>3</v>
       </c>
-      <c r="E73">
+      <c r="D73">
         <v>49.56</v>
       </c>
-      <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73">
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="15"/>
         <v>27.060000000000002</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="5">
+      <c r="G73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L73">
+      <c r="K73">
         <v>22.5</v>
       </c>
-      <c r="M73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -2934,31 +2931,31 @@
       <c r="C74" s="2">
         <v>3</v>
       </c>
-      <c r="E74">
+      <c r="D74">
         <v>44.835000000000001</v>
       </c>
-      <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74">
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="15"/>
         <v>26.085000000000001</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="5">
+      <c r="G74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L74">
+      <c r="K74">
         <v>18.75</v>
       </c>
-      <c r="M74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666696</v>
       </c>
@@ -2968,31 +2965,31 @@
       <c r="C75" s="2">
         <v>3</v>
       </c>
-      <c r="E75">
+      <c r="D75">
         <v>43.230000000000004</v>
       </c>
-      <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75">
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="15"/>
         <v>29.130000000000003</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="5">
+      <c r="G75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L75">
+      <c r="K75">
         <v>14.1</v>
       </c>
-      <c r="M75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333304</v>
       </c>
@@ -3002,31 +2999,31 @@
       <c r="C76" s="2">
         <v>3</v>
       </c>
-      <c r="E76">
+      <c r="D76">
         <v>38.910000000000004</v>
       </c>
-      <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76">
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="15"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="5">
+      <c r="G76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L76">
+      <c r="K76">
         <v>11.1</v>
       </c>
-      <c r="M76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -3036,31 +3033,31 @@
       <c r="C77" s="2">
         <v>3</v>
       </c>
-      <c r="E77">
+      <c r="D77">
         <v>40.71</v>
       </c>
-      <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77">
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="15"/>
         <v>33.36</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="5">
+      <c r="G77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="L77">
+      <c r="K77">
         <v>7.35</v>
       </c>
-      <c r="M77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666696</v>
       </c>
@@ -3070,36 +3067,36 @@
       <c r="C78" s="2">
         <v>6</v>
       </c>
-      <c r="E78">
+      <c r="D78">
         <v>32.055</v>
       </c>
-      <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78">
-        <f>E78-L78+I78</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="1"/>
-      <c r="I78">
-        <f>L78-E78</f>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78">
+        <f>D78-K78+H78</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78">
+        <f>K78-D78</f>
         <v>-28.754999999999999</v>
       </c>
-      <c r="J78" t="s">
-        <v>18</v>
-      </c>
-      <c r="K78" s="5">
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="5">
         <f t="shared" si="8"/>
         <v>0.88811249999999997</v>
       </c>
-      <c r="L78">
+      <c r="K78">
         <v>3.3</v>
       </c>
-      <c r="M78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333304</v>
       </c>
@@ -3109,36 +3106,36 @@
       <c r="C79" s="2">
         <v>6</v>
       </c>
-      <c r="E79">
+      <c r="D79">
         <v>33.674999999999997</v>
       </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79">
-        <f t="shared" ref="G79:G86" si="16">E79-L79+I79</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="1"/>
-      <c r="I79">
-        <f t="shared" ref="I79:I86" si="17">L79-E79</f>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79:F86" si="16">D79-K79+H79</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79">
+        <f t="shared" ref="H79:H86" si="17">K79-D79</f>
         <v>-31.274999999999999</v>
       </c>
-      <c r="J79" t="s">
-        <v>18</v>
-      </c>
-      <c r="K79" s="5">
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="5">
         <f t="shared" si="8"/>
         <v>0.80992500000000001</v>
       </c>
-      <c r="L79">
+      <c r="K79">
         <v>2.4</v>
       </c>
-      <c r="M79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -3148,36 +3145,36 @@
       <c r="C80" s="2">
         <v>6</v>
       </c>
-      <c r="E80">
+      <c r="D80">
         <v>32.61</v>
       </c>
-      <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80">
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H80" s="1"/>
-      <c r="I80">
+      <c r="G80" s="1"/>
+      <c r="H80">
         <f t="shared" si="17"/>
         <v>-31.11</v>
       </c>
-      <c r="J80" t="s">
-        <v>18</v>
-      </c>
-      <c r="K80" s="5">
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="5">
         <f t="shared" si="8"/>
         <v>0.73214999999999997</v>
       </c>
-      <c r="L80">
+      <c r="K80">
         <v>1.5</v>
       </c>
-      <c r="M80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666696</v>
       </c>
@@ -3187,285 +3184,285 @@
       <c r="C81" s="2">
         <v>6</v>
       </c>
-      <c r="E81">
+      <c r="D81">
         <v>27.255000000000003</v>
       </c>
-      <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81">
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H81" s="1"/>
-      <c r="I81">
+      <c r="G81" s="1"/>
+      <c r="H81">
         <f t="shared" si="17"/>
         <v>-26.355000000000004</v>
       </c>
-      <c r="J81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K81" s="5">
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="5">
         <f t="shared" si="8"/>
         <v>0.66626249999999998</v>
       </c>
-      <c r="L81">
+      <c r="K81">
         <v>0.9</v>
       </c>
-      <c r="M81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333304</v>
       </c>
       <c r="B82" s="2">
         <v>6</v>
       </c>
-      <c r="E82">
+      <c r="D82">
         <v>27.39</v>
       </c>
-      <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82">
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H82" s="1"/>
-      <c r="I82">
+      <c r="G82" s="1"/>
+      <c r="H82">
         <f t="shared" si="17"/>
         <v>-27.39</v>
       </c>
-      <c r="J82" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82" s="5">
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="5">
         <f t="shared" si="8"/>
         <v>0.59778749999999992</v>
       </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
       <c r="B83" s="2">
         <v>6</v>
       </c>
-      <c r="E83">
+      <c r="D83">
         <v>26.130000000000003</v>
       </c>
-      <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83">
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H83" s="1"/>
-      <c r="I83">
+      <c r="G83" s="1"/>
+      <c r="H83">
         <f t="shared" si="17"/>
         <v>-26.130000000000003</v>
       </c>
-      <c r="J83" t="s">
-        <v>18</v>
-      </c>
-      <c r="K83" s="5">
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="5">
         <f t="shared" si="8"/>
         <v>0.53246249999999995</v>
       </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666696</v>
       </c>
       <c r="B84" s="2">
         <v>6</v>
       </c>
-      <c r="E84">
+      <c r="D84">
         <v>25.650000000000002</v>
       </c>
-      <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84">
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H84" s="1"/>
-      <c r="I84">
+      <c r="G84" s="1"/>
+      <c r="H84">
         <f t="shared" si="17"/>
         <v>-25.650000000000002</v>
       </c>
-      <c r="J84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" s="5">
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="5">
         <f t="shared" si="8"/>
         <v>0.46833749999999996</v>
       </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333304</v>
       </c>
       <c r="B85" s="2">
         <v>6</v>
       </c>
-      <c r="E85">
+      <c r="D85">
         <v>24.630000000000003</v>
       </c>
-      <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85">
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H85" s="1"/>
-      <c r="I85">
+      <c r="G85" s="1"/>
+      <c r="H85">
         <f t="shared" si="17"/>
         <v>-24.630000000000003</v>
       </c>
-      <c r="J85" t="s">
-        <v>18</v>
-      </c>
-      <c r="K85" s="5">
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="5">
         <f t="shared" si="8"/>
         <v>0.40676249999999997</v>
       </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
       <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="E86">
+      <c r="D86">
         <v>21.72</v>
       </c>
-      <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86">
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H86" s="1"/>
-      <c r="I86">
+      <c r="G86" s="1"/>
+      <c r="H86">
         <f t="shared" si="17"/>
         <v>-21.72</v>
       </c>
-      <c r="J86" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="5">
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="5">
         <f t="shared" si="8"/>
         <v>0.35246249999999996</v>
       </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666696</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
       </c>
-      <c r="E87">
+      <c r="D87">
         <v>18.240000000000002</v>
       </c>
-      <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87">
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87">
         <f t="shared" si="15"/>
         <v>18.240000000000002</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K87" s="5">
+      <c r="G87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="5">
         <f t="shared" si="8"/>
         <v>0.35246249999999996</v>
       </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333304</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
       </c>
-      <c r="E88">
+      <c r="D88">
         <v>17.46</v>
       </c>
-      <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88">
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88">
         <f t="shared" si="15"/>
         <v>17.46</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="5">
+      <c r="G88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="5">
         <f t="shared" si="8"/>
         <v>0.35246249999999996</v>
       </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
       </c>
-      <c r="E89">
+      <c r="D89">
         <v>14.475000000000001</v>
       </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89">
-        <f t="shared" ref="G89" si="18">E89-L89</f>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ref="F89" si="18">D89-K89</f>
         <v>14.475000000000001</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" s="5">
+      <c r="G89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="5">
         <f t="shared" si="8"/>
         <v>0.35246249999999996</v>
       </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666696</v>
       </c>
@@ -3475,34 +3472,34 @@
       <c r="C90" s="2">
         <v>2</v>
       </c>
-      <c r="E90">
+      <c r="D90">
         <v>10.83</v>
       </c>
-      <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90">
-        <f t="shared" ref="G90:G97" si="19">E90-L90+I90</f>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:F97" si="19">D90-K90+H90</f>
         <v>72.83</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="G90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>62</v>
+      </c>
+      <c r="I90" t="s">
         <v>16</v>
       </c>
-      <c r="I90">
-        <v>62</v>
-      </c>
-      <c r="J90" t="s">
-        <v>17</v>
-      </c>
-      <c r="K90" s="5">
+      <c r="J90" s="5">
         <f t="shared" si="8"/>
         <v>0.50746249999999993</v>
       </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333304</v>
       </c>
@@ -3512,34 +3509,34 @@
       <c r="C91" s="2">
         <v>2</v>
       </c>
-      <c r="E91">
+      <c r="D91">
         <v>10.845000000000001</v>
       </c>
-      <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91">
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91">
         <f t="shared" si="19"/>
         <v>66.844999999999999</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="G91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>56</v>
+      </c>
+      <c r="I91" t="s">
         <v>16</v>
       </c>
-      <c r="I91">
-        <v>56</v>
-      </c>
-      <c r="J91" t="s">
-        <v>17</v>
-      </c>
-      <c r="K91" s="5">
+      <c r="J91" s="5">
         <f t="shared" si="8"/>
         <v>0.64746249999999994</v>
       </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -3549,34 +3546,34 @@
       <c r="C92" s="2">
         <v>2</v>
       </c>
-      <c r="E92">
+      <c r="D92">
         <v>10.5</v>
       </c>
-      <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92">
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92">
         <f t="shared" si="19"/>
         <v>71.5</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="G92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92">
+        <v>61</v>
+      </c>
+      <c r="I92" t="s">
         <v>16</v>
       </c>
-      <c r="I92">
-        <v>61</v>
-      </c>
-      <c r="J92" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="5">
+      <c r="J92" s="5">
         <f t="shared" si="8"/>
         <v>0.79996249999999991</v>
       </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666696</v>
       </c>
@@ -3586,147 +3583,147 @@
       <c r="C93" s="2">
         <v>2</v>
       </c>
-      <c r="E93">
+      <c r="D93">
         <v>10.23</v>
       </c>
-      <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93">
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="19"/>
         <v>69.23</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="G93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93">
+        <v>59</v>
+      </c>
+      <c r="I93" t="s">
         <v>16</v>
       </c>
-      <c r="I93">
-        <v>59</v>
-      </c>
-      <c r="J93" t="s">
-        <v>17</v>
-      </c>
-      <c r="K93" s="5">
+      <c r="J93" s="5">
         <f t="shared" si="8"/>
         <v>0.94746249999999987</v>
       </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333304</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
       </c>
-      <c r="E94">
+      <c r="D94">
         <v>9.7349999999999994</v>
       </c>
-      <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94">
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94">
         <f t="shared" si="19"/>
         <v>9.7349999999999994</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="5">
+      <c r="G94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="5">
         <f t="shared" si="8"/>
         <v>0.94746249999999987</v>
       </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
       </c>
-      <c r="E95">
+      <c r="D95">
         <v>9.69</v>
       </c>
-      <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95">
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="19"/>
         <v>9.69</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K95" s="5">
+      <c r="G95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="5">
         <f t="shared" si="8"/>
         <v>0.94746249999999987</v>
       </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666696</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
       </c>
-      <c r="E96">
+      <c r="D96">
         <v>8.0849999999999991</v>
       </c>
-      <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96">
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96">
         <f t="shared" si="19"/>
         <v>8.0849999999999991</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K96" s="5">
+      <c r="G96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="5">
         <f t="shared" si="8"/>
         <v>0.94746249999999987</v>
       </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333304</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
       </c>
-      <c r="E97">
+      <c r="D97">
         <v>8.5500000000000007</v>
       </c>
-      <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97">
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="19"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K97" s="5">
+      <c r="G97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="5">
         <f t="shared" si="8"/>
         <v>0.94746249999999987</v>
       </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H98" s="1"/>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G98" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3760,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C565BD37-6A9C-44F5-B89C-A2105A3437C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF713DF-1E03-4030-A08D-5507A37FE816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="660" windowWidth="19140" windowHeight="13215" activeTab="1" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
+    <workbookView xWindow="885" yWindow="945" windowWidth="21600" windowHeight="13215" activeTab="1" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,13 +174,13 @@
     <t>grid_pwr</t>
   </si>
   <si>
-    <t>batter_pwr</t>
-  </si>
-  <si>
     <t>yellow</t>
   </si>
   <si>
     <t>green</t>
+  </si>
+  <si>
+    <t>battery_pwr</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,7 +247,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +605,8 @@
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F48B1-5691-44FB-A15E-00BE6FA44B15}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3681,7 +3682,7 @@
       <c r="E2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3762,7 +3763,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3782,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3796,13 +3797,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,7 +3823,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3836,13 +3837,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,7 +3863,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3882,7 +3883,7 @@
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3901,8 +3902,8 @@
       <c r="E13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>40</v>
+      <c r="F13" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,7 +3983,7 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,7 +4003,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4016,13 +4017,13 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4042,7 +4043,7 @@
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,13 +4057,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4082,7 +4083,7 @@
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4102,7 +4103,7 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4121,8 +4122,8 @@
       <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>40</v>
+      <c r="F24" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,7 +4203,7 @@
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4222,7 +4223,7 @@
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,13 +4237,13 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,7 +4263,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,13 +4277,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4302,7 +4303,7 @@
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4322,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4341,8 +4342,8 @@
       <c r="E35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>40</v>
+      <c r="F35" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4422,7 +4423,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4442,7 +4443,7 @@
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4456,13 +4457,13 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4482,7 +4483,7 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4496,13 +4497,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,7 +4523,7 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4542,7 +4543,7 @@
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4561,8 +4562,8 @@
       <c r="E46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>40</v>
+      <c r="F46" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,7 +4643,7 @@
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4662,7 +4663,7 @@
         <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4676,13 +4677,13 @@
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4702,7 +4703,7 @@
         <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4716,13 +4717,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4742,7 +4743,7 @@
         <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4762,7 +4763,7 @@
         <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,8 +4782,8 @@
       <c r="E57" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>40</v>
+      <c r="F57" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,7 +4863,7 @@
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4882,7 +4883,7 @@
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4896,13 +4897,13 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4922,7 +4923,7 @@
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4936,13 +4937,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4962,7 +4963,7 @@
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4982,7 +4983,7 @@
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5001,8 +5002,8 @@
       <c r="E68" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>40</v>
+      <c r="F68" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,7 +5083,7 @@
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5102,7 +5103,7 @@
         <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -5116,13 +5117,13 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -5142,7 +5143,7 @@
         <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5156,13 +5157,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5182,7 +5183,7 @@
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5202,7 +5203,7 @@
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF713DF-1E03-4030-A08D-5507A37FE816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895B6775-E7C0-46EB-A67F-DEEA0D61C186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="945" windowWidth="21600" windowHeight="13215" activeTab="1" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
+    <workbookView xWindow="29415" yWindow="1515" windowWidth="21600" windowHeight="13215" activeTab="1" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="49">
   <si>
     <t>Exporting</t>
   </si>
@@ -159,9 +159,6 @@
     <t>lineColor</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
@@ -181,6 +178,12 @@
   </si>
   <si>
     <t>battery_pwr</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Idle</t>
   </si>
 </sst>
 </file>
@@ -605,8 +608,8 @@
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78:B81"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,6 +670,9 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">J2-C2</f>
         <v>-7.6050000000000004</v>
@@ -681,6 +687,9 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -695,6 +704,9 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <f t="shared" si="0"/>
         <v>-7.7099999999999991</v>
@@ -709,6 +721,9 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -724,6 +739,9 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>-7.0649999999999995</v>
@@ -738,6 +756,9 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -753,6 +774,9 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>-8.2349999999999994</v>
@@ -767,6 +791,9 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
@@ -783,6 +810,9 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>-7.17</v>
@@ -797,6 +827,9 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
@@ -813,6 +846,9 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>-7.4700000000000006</v>
@@ -827,6 +863,9 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
@@ -843,6 +882,9 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>-7.875</v>
@@ -857,6 +899,9 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
@@ -873,6 +918,9 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>-7.3349999999999991</v>
@@ -887,6 +935,9 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
@@ -903,6 +954,9 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>-7.3949999999999996</v>
@@ -917,6 +971,9 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -931,6 +988,9 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>-7.4399999999999995</v>
@@ -945,6 +1005,9 @@
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -959,6 +1022,9 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>-7.89</v>
@@ -973,6 +1039,9 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -987,6 +1056,9 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>-8.43</v>
@@ -1001,6 +1073,9 @@
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1015,6 +1090,9 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>-7.74</v>
@@ -1029,6 +1107,9 @@
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1043,6 +1124,9 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>-7.38</v>
@@ -1057,6 +1141,9 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1071,6 +1158,9 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="G16">
         <f t="shared" ref="G16:G17" si="2">J16-C16</f>
         <v>-7.89</v>
@@ -1085,6 +1175,9 @@
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1099,6 +1192,9 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
       <c r="G17">
         <f t="shared" si="2"/>
         <v>-7.5449999999999999</v>
@@ -1113,6 +1209,9 @@
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1134,6 +1233,9 @@
       <c r="F18" t="s">
         <v>3</v>
       </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1141,6 +1243,9 @@
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1162,6 +1267,9 @@
       <c r="F19" t="s">
         <v>3</v>
       </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1169,6 +1277,9 @@
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1190,6 +1301,9 @@
       <c r="F20" t="s">
         <v>3</v>
       </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1197,6 +1311,9 @@
       <c r="J20">
         <v>0</v>
       </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1218,6 +1335,9 @@
       <c r="F21" t="s">
         <v>3</v>
       </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1225,6 +1345,9 @@
       <c r="J21">
         <v>0</v>
       </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1246,6 +1369,9 @@
       <c r="F22" t="s">
         <v>3</v>
       </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1253,6 +1379,9 @@
       <c r="J22">
         <v>0</v>
       </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1274,6 +1403,9 @@
       <c r="F23" t="s">
         <v>3</v>
       </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1305,6 +1437,9 @@
       <c r="F24" t="s">
         <v>3</v>
       </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1336,6 +1471,9 @@
       <c r="F25" t="s">
         <v>3</v>
       </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1367,6 +1505,9 @@
       <c r="F26" t="s">
         <v>3</v>
       </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1398,6 +1539,9 @@
       <c r="F27" t="s">
         <v>3</v>
       </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1429,6 +1573,9 @@
       <c r="F28" t="s">
         <v>3</v>
       </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1460,6 +1607,9 @@
       <c r="F29" t="s">
         <v>3</v>
       </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1491,6 +1641,9 @@
       <c r="F30" t="s">
         <v>3</v>
       </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1522,6 +1675,9 @@
       <c r="F31" t="s">
         <v>3</v>
       </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1553,6 +1709,9 @@
       <c r="F32" t="s">
         <v>3</v>
       </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
       <c r="I32" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1584,6 +1743,9 @@
       <c r="F33" t="s">
         <v>3</v>
       </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
       <c r="I33" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1615,6 +1777,9 @@
       <c r="F34" t="s">
         <v>3</v>
       </c>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
       <c r="I34" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1646,6 +1811,9 @@
       <c r="F35" t="s">
         <v>3</v>
       </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
       <c r="I35" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1677,6 +1845,9 @@
       <c r="F36" t="s">
         <v>3</v>
       </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
       <c r="I36" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1708,6 +1879,9 @@
       <c r="F37" t="s">
         <v>3</v>
       </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
       <c r="I37" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1739,6 +1913,9 @@
       <c r="F38" t="s">
         <v>3</v>
       </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
       <c r="I38" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1770,6 +1947,9 @@
       <c r="F39" t="s">
         <v>3</v>
       </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
       <c r="I39" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1801,6 +1981,9 @@
       <c r="F40" t="s">
         <v>3</v>
       </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
       <c r="I40" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1832,6 +2015,9 @@
       <c r="F41" t="s">
         <v>3</v>
       </c>
+      <c r="H41" t="s">
+        <v>48</v>
+      </c>
       <c r="I41" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1863,6 +2049,9 @@
       <c r="F42" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
       <c r="I42" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1894,6 +2083,9 @@
       <c r="F43" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H43" t="s">
+        <v>48</v>
+      </c>
       <c r="I43" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1925,6 +2117,9 @@
       <c r="F44" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
       <c r="I44" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1956,6 +2151,9 @@
       <c r="F45" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
       <c r="I45" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -1987,6 +2185,9 @@
       <c r="F46" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
       <c r="I46" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -2018,6 +2219,9 @@
       <c r="F47" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H47" t="s">
+        <v>48</v>
+      </c>
       <c r="I47" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -2049,6 +2253,9 @@
       <c r="F48" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
       <c r="I48" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -2080,6 +2287,9 @@
       <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
       <c r="I49" s="5">
         <f t="shared" si="3"/>
         <v>0.33912500000000001</v>
@@ -2110,6 +2320,9 @@
       </c>
       <c r="F50" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>48</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="3"/>
@@ -2321,6 +2534,9 @@
       <c r="F56" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
       <c r="I56" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2352,6 +2568,9 @@
       <c r="F57" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H57" t="s">
+        <v>48</v>
+      </c>
       <c r="I57" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2383,6 +2602,9 @@
       <c r="F58" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
       <c r="I58" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2414,6 +2636,9 @@
       <c r="F59" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H59" t="s">
+        <v>48</v>
+      </c>
       <c r="I59" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2445,6 +2670,9 @@
       <c r="F60" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H60" t="s">
+        <v>48</v>
+      </c>
       <c r="I60" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2476,6 +2704,9 @@
       <c r="F61" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H61" t="s">
+        <v>48</v>
+      </c>
       <c r="I61" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2507,6 +2738,9 @@
       <c r="F62" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
       <c r="I62" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2538,6 +2772,9 @@
       <c r="F63" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H63" t="s">
+        <v>48</v>
+      </c>
       <c r="I63" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2569,6 +2806,9 @@
       <c r="F64" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H64" t="s">
+        <v>48</v>
+      </c>
       <c r="I64" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2600,6 +2840,9 @@
       <c r="F65" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H65" t="s">
+        <v>48</v>
+      </c>
       <c r="I65" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2631,6 +2874,9 @@
       <c r="F66" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
       <c r="I66" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2662,6 +2908,9 @@
       <c r="F67" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H67" t="s">
+        <v>48</v>
+      </c>
       <c r="I67" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2693,6 +2942,9 @@
       <c r="F68" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
       <c r="I68" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2724,6 +2976,9 @@
       <c r="F69" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H69" t="s">
+        <v>48</v>
+      </c>
       <c r="I69" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2755,6 +3010,9 @@
       <c r="F70" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H70" t="s">
+        <v>48</v>
+      </c>
       <c r="I70" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2786,6 +3044,9 @@
       <c r="F71" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H71" t="s">
+        <v>48</v>
+      </c>
       <c r="I71" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2817,6 +3078,9 @@
       <c r="F72" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H72" t="s">
+        <v>48</v>
+      </c>
       <c r="I72" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2848,6 +3112,9 @@
       <c r="F73" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H73" t="s">
+        <v>48</v>
+      </c>
       <c r="I73" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2879,6 +3146,9 @@
       <c r="F74" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H74" t="s">
+        <v>48</v>
+      </c>
       <c r="I74" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2910,6 +3180,9 @@
       <c r="F75" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H75" t="s">
+        <v>48</v>
+      </c>
       <c r="I75" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2941,6 +3214,9 @@
       <c r="F76" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H76" t="s">
+        <v>48</v>
+      </c>
       <c r="I76" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
@@ -2971,6 +3247,9 @@
       </c>
       <c r="F77" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>48</v>
       </c>
       <c r="I77" s="5">
         <f t="shared" si="8"/>
@@ -3159,6 +3438,9 @@
       <c r="J82">
         <v>0</v>
       </c>
+      <c r="K82" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -3192,6 +3474,9 @@
       <c r="J83">
         <v>0</v>
       </c>
+      <c r="K83" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -3225,6 +3510,9 @@
       <c r="J84">
         <v>0</v>
       </c>
+      <c r="K84" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -3258,6 +3546,9 @@
       <c r="J85">
         <v>0</v>
       </c>
+      <c r="K85" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -3291,6 +3582,9 @@
       <c r="J86">
         <v>0</v>
       </c>
+      <c r="K86" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -3312,6 +3606,9 @@
       <c r="F87" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H87" t="s">
+        <v>48</v>
+      </c>
       <c r="I87" s="5">
         <f t="shared" si="8"/>
         <v>0.35246249999999996</v>
@@ -3319,6 +3616,9 @@
       <c r="J87">
         <v>0</v>
       </c>
+      <c r="K87" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -3340,6 +3640,9 @@
       <c r="F88" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H88" t="s">
+        <v>48</v>
+      </c>
       <c r="I88" s="5">
         <f t="shared" si="8"/>
         <v>0.35246249999999996</v>
@@ -3347,6 +3650,9 @@
       <c r="J88">
         <v>0</v>
       </c>
+      <c r="K88" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -3368,6 +3674,9 @@
       <c r="F89" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H89" t="s">
+        <v>48</v>
+      </c>
       <c r="I89" s="5">
         <f t="shared" si="8"/>
         <v>0.35246249999999996</v>
@@ -3375,6 +3684,9 @@
       <c r="J89">
         <v>0</v>
       </c>
+      <c r="K89" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -3391,23 +3703,26 @@
       </c>
       <c r="E90">
         <f t="shared" ref="E90:E97" si="19">C90-J90+G90</f>
-        <v>72.83</v>
+        <v>72.960000000000008</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G90">
-        <v>62</v>
+        <v>62.13</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="8"/>
-        <v>0.50746249999999993</v>
+        <v>0.50778749999999995</v>
       </c>
       <c r="J90">
         <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3425,23 +3740,26 @@
       </c>
       <c r="E91">
         <f t="shared" si="19"/>
-        <v>66.844999999999999</v>
+        <v>67.555000000000007</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G91">
-        <v>56</v>
+        <v>56.71</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="8"/>
-        <v>0.64746249999999994</v>
+        <v>0.64956249999999993</v>
       </c>
       <c r="J91">
         <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3459,23 +3777,26 @@
       </c>
       <c r="E92">
         <f t="shared" si="19"/>
-        <v>71.5</v>
+        <v>71.52000000000001</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G92">
-        <v>61</v>
+        <v>61.02</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
       </c>
       <c r="I92" s="5">
         <f t="shared" si="8"/>
-        <v>0.79996249999999991</v>
+        <v>0.80211250000000001</v>
       </c>
       <c r="J92">
         <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3493,23 +3814,26 @@
       </c>
       <c r="E93">
         <f t="shared" si="19"/>
-        <v>69.23</v>
+        <v>69.88</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G93">
-        <v>59</v>
+        <v>59.65</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
       </c>
       <c r="I93" s="5">
         <f t="shared" si="8"/>
-        <v>0.94746249999999987</v>
+        <v>0.95123749999999996</v>
       </c>
       <c r="J93">
         <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -3532,12 +3856,18 @@
       <c r="F94" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H94" t="s">
+        <v>48</v>
+      </c>
       <c r="I94" s="5">
         <f t="shared" si="8"/>
-        <v>0.94746249999999987</v>
+        <v>0.95123749999999996</v>
       </c>
       <c r="J94">
         <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3560,12 +3890,18 @@
       <c r="F95" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H95" t="s">
+        <v>48</v>
+      </c>
       <c r="I95" s="5">
         <f t="shared" si="8"/>
-        <v>0.94746249999999987</v>
+        <v>0.95123749999999996</v>
       </c>
       <c r="J95">
         <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -3588,15 +3924,21 @@
       <c r="F96" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H96" t="s">
+        <v>48</v>
+      </c>
       <c r="I96" s="5">
         <f t="shared" si="8"/>
-        <v>0.94746249999999987</v>
+        <v>0.95123749999999996</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333304</v>
       </c>
@@ -3616,15 +3958,21 @@
       <c r="F97" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H97" t="s">
+        <v>48</v>
+      </c>
       <c r="I97" s="5">
         <f t="shared" si="8"/>
-        <v>0.94746249999999987</v>
+        <v>0.95123749999999996</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F98" s="1"/>
     </row>
   </sheetData>
@@ -3636,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F48B1-5691-44FB-A15E-00BE6FA44B15}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,7 +4005,7 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -3677,7 +4025,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>
@@ -3697,13 +4045,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,13 +4065,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3737,13 +4085,13 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,13 +4105,13 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,13 +4125,13 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3797,13 +4145,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,13 +4165,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3837,13 +4185,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3857,13 +4205,13 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3877,13 +4225,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3897,13 +4245,13 @@
         <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,13 +4265,13 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3937,13 +4285,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3957,13 +4305,13 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3977,13 +4325,13 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3997,13 +4345,13 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4017,13 +4365,13 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4037,13 +4385,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,13 +4405,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4077,13 +4425,13 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4097,13 +4445,13 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4117,13 +4465,13 @@
         <v>24</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4137,13 +4485,13 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4157,13 +4505,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4177,13 +4525,13 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,13 +4545,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4217,13 +4565,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4237,13 +4585,13 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4257,13 +4605,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4277,13 +4625,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4297,13 +4645,13 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4317,13 +4665,13 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4337,13 +4685,13 @@
         <v>24</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4357,13 +4705,13 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4377,13 +4725,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4397,13 +4745,13 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4417,13 +4765,13 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,13 +4785,13 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4457,13 +4805,13 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4477,13 +4825,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4497,13 +4845,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4517,13 +4865,13 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4537,13 +4885,13 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4557,13 +4905,13 @@
         <v>24</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4577,13 +4925,13 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4597,13 +4945,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4617,13 +4965,13 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4637,13 +4985,13 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4657,13 +5005,13 @@
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4677,13 +5025,13 @@
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4697,13 +5045,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
         <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4717,13 +5065,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4737,13 +5085,13 @@
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4757,13 +5105,13 @@
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4777,13 +5125,13 @@
         <v>24</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4797,13 +5145,13 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4817,13 +5165,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,13 +5185,13 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,13 +5205,13 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,13 +5225,13 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4897,13 +5245,13 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4917,13 +5265,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E64" t="s">
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4937,13 +5285,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4957,13 +5305,13 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4977,13 +5325,13 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4997,13 +5345,13 @@
         <v>24</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -5017,13 +5365,13 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -5037,13 +5385,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -5057,13 +5405,13 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5077,13 +5425,13 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5097,13 +5445,13 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
         <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -5117,13 +5465,13 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -5137,13 +5485,13 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5157,13 +5505,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,13 +5525,13 @@
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5197,13 +5545,13 @@
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895B6775-E7C0-46EB-A67F-DEEA0D61C186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1567740-9995-4077-8DE0-369F8FF46511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29415" yWindow="1515" windowWidth="21600" windowHeight="13215" activeTab="1" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Consumption" sheetId="1" r:id="rId1"/>
+    <sheet name="Paths" sheetId="2" r:id="rId2"/>
+    <sheet name="Path Desc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="65">
   <si>
     <t>Exporting</t>
   </si>
@@ -185,6 +186,54 @@
   <si>
     <t>Idle</t>
   </si>
+  <si>
+    <t>GRID ENERGY</t>
+  </si>
+  <si>
+    <t>BUILDING CONSUMPTION</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>BATTERY</t>
+  </si>
+  <si>
+    <t>TARIFF</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Super Low</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>EXPORT PRICE</t>
+  </si>
+  <si>
+    <t>SPOT PRICE</t>
+  </si>
+  <si>
+    <t>METER</t>
+  </si>
+  <si>
+    <t>BUILDING</t>
+  </si>
+  <si>
+    <t>INVERTER</t>
+  </si>
+  <si>
+    <t>SOLAR PRODUCTION</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -250,6 +299,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,25 +657,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE683D1-0F20-4AA9-8E66-4B04E80D1FD0}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -656,13 +714,34 @@
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>7.6050000000000004</v>
@@ -671,18 +750,17 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G15" si="0">J2-C2</f>
-        <v>-7.6050000000000004</v>
+        <f>C2-J2+G2</f>
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I2" s="5">
-        <f>0.95+G2*0.5%</f>
-        <v>0.91197499999999998</v>
+        <v>0.23</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -690,13 +768,38 @@
       <c r="K2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>C2*0.25</f>
+        <v>1.9012500000000001</v>
+      </c>
+      <c r="M2">
+        <f>E2*0.25</f>
+        <v>1.9012500000000001</v>
+      </c>
+      <c r="N2">
+        <f>J2*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>ABS(G2)*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>7.7099999999999991</v>
@@ -705,18 +808,18 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>-7.7099999999999991</v>
+        <f t="shared" ref="E3:E66" si="0">C3-J3+G3</f>
+        <v>7.7099999999999991</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I3" s="5">
         <f>I2+G3*0.5%</f>
-        <v>0.87342500000000001</v>
+        <v>0.23</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -724,14 +827,38 @@
       <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="1">C3*0.25</f>
+        <v>1.9274999999999998</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="2">E3*0.25</f>
+        <v>1.9274999999999998</v>
+      </c>
+      <c r="N3">
+        <f>J3*0.25+N2</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="3">ABS(G3)*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>7.0649999999999995</v>
@@ -740,18 +867,18 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4">
         <f t="shared" si="0"/>
-        <v>-7.0649999999999995</v>
+        <v>7.0649999999999995</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="1">I3+G4*0.5%</f>
-        <v>0.83810000000000007</v>
+        <f t="shared" ref="I4:I50" si="4">I3+G4*0.5%</f>
+        <v>0.23</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -759,14 +886,38 @@
       <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1.7662499999999999</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1.7662499999999999</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N67" si="5">J4*0.25+N3</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>8.2349999999999994</v>
@@ -775,18 +926,18 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <f t="shared" si="0"/>
-        <v>-8.2349999999999994</v>
+        <v>8.2349999999999994</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.79692500000000011</v>
+        <f t="shared" si="4"/>
+        <v>0.23</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -794,15 +945,38 @@
       <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>2.0587499999999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>2.0587499999999999</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>7.17</v>
@@ -811,18 +985,18 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="G6">
         <f t="shared" si="0"/>
-        <v>-7.17</v>
+        <v>7.17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.76107500000000006</v>
+        <f t="shared" si="4"/>
+        <v>0.23</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -830,15 +1004,38 @@
       <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1.7925</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1.7925</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333301E-2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>7.4700000000000006</v>
@@ -847,18 +1044,18 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <f t="shared" si="0"/>
-        <v>-7.4700000000000006</v>
+        <v>7.4700000000000006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.72372500000000006</v>
+        <f t="shared" si="4"/>
+        <v>0.23</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -866,15 +1063,38 @@
       <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.8675000000000002</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1.8675000000000002</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>7.875</v>
@@ -883,18 +1103,18 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8">
         <f t="shared" si="0"/>
-        <v>-7.875</v>
+        <v>7.875</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.68435000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.23</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -902,15 +1122,38 @@
       <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1.96875</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>1.96875</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>7.3349999999999991</v>
@@ -919,18 +1162,18 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9">
         <f t="shared" si="0"/>
-        <v>-7.3349999999999991</v>
+        <v>7.3349999999999991</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.647675</v>
+        <f t="shared" si="4"/>
+        <v>0.23</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -938,15 +1181,38 @@
       <c r="K9" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1.8337499999999998</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>1.8337499999999998</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>7.3949999999999996</v>
@@ -955,18 +1221,18 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10">
         <f t="shared" si="0"/>
-        <v>-7.3949999999999996</v>
+        <v>7.3949999999999996</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.61070000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.23</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -974,13 +1240,38 @@
       <c r="K10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1.8487499999999999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1.8487499999999999</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>7.4399999999999995</v>
@@ -989,18 +1280,18 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11">
         <f t="shared" si="0"/>
-        <v>-7.4399999999999995</v>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.57350000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.23</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1008,13 +1299,38 @@
       <c r="K11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.104166666666667</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>7.89</v>
@@ -1023,18 +1339,21 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20.04</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-7.89</v>
+        <v>12.15</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.53405000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.29075000000000001</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1042,13 +1361,38 @@
       <c r="K12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1.9724999999999999</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>5.01</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>3.0375000000000001</v>
+      </c>
+      <c r="P12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.114583333333333</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>8.43</v>
@@ -1057,18 +1401,21 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>26.93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>-8.43</v>
+        <v>18.5</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.4919</v>
+        <f t="shared" si="4"/>
+        <v>0.38324999999999998</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1076,13 +1423,38 @@
       <c r="K13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>2.1074999999999999</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>6.7324999999999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>4.625</v>
+      </c>
+      <c r="P13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>7.74</v>
@@ -1091,18 +1463,21 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>29.810000000000002</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-7.74</v>
+        <v>22.07</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.45319999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.49359999999999998</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1110,13 +1485,38 @@
       <c r="K14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>7.4525000000000006</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>5.5175000000000001</v>
+      </c>
+      <c r="P14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666699</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>7.38</v>
@@ -1125,18 +1525,21 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>19.919999999999998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>-7.38</v>
+        <v>12.54</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.4163</v>
+        <f t="shared" si="4"/>
+        <v>0.55630000000000002</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1144,13 +1547,38 @@
       <c r="K15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1.845</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>4.9799999999999995</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="P15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333301</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>7.89</v>
@@ -1159,18 +1587,21 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>21.13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G17" si="2">J16-C16</f>
-        <v>-7.89</v>
+        <v>13.24</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" ref="I16:I50" si="3">I15+G16*0.5%</f>
-        <v>0.37685000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.62250000000000005</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1178,13 +1609,38 @@
       <c r="K16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1.9724999999999999</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>5.2824999999999998</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>3.31</v>
+      </c>
+      <c r="P16">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>7.5449999999999999</v>
@@ -1193,18 +1649,21 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>23.195</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
-        <v>-7.5449999999999999</v>
+        <v>15.65</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.7007500000000001</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1212,13 +1671,38 @@
       <c r="K17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1.88625</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>5.7987500000000001</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>3.9125000000000001</v>
+      </c>
+      <c r="P17">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666699</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>7.7250000000000005</v>
@@ -1227,18 +1711,21 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E41" si="4">C18</f>
-        <v>7.7250000000000005</v>
+        <f t="shared" si="0"/>
+        <v>29.435000000000002</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
       </c>
+      <c r="G18">
+        <v>21.71</v>
+      </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.80930000000000013</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1246,13 +1733,38 @@
       <c r="K18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>1.9312500000000001</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>7.3587500000000006</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>5.4275000000000002</v>
+      </c>
+      <c r="P18">
+        <v>0.04</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333301</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>8.5950000000000006</v>
@@ -1261,18 +1773,21 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
-        <v>8.5950000000000006</v>
+        <f t="shared" si="0"/>
+        <v>24.965000000000003</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
       </c>
+      <c r="G19">
+        <v>16.37</v>
+      </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.89115000000000011</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1280,13 +1795,38 @@
       <c r="K19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>2.1487500000000002</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>6.2412500000000009</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>4.0925000000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.04</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>8.43</v>
@@ -1295,18 +1835,21 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
-        <v>8.43</v>
+        <f t="shared" si="0"/>
+        <v>20.57</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
       </c>
+      <c r="G20">
+        <v>12.14</v>
+      </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,8 +1857,33 @@
       <c r="K20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2.1074999999999999</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>5.1425000000000001</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="P20">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666699</v>
       </c>
@@ -1329,7 +1897,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9.18</v>
       </c>
       <c r="F21" t="s">
@@ -1339,8 +1907,8 @@
         <v>48</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1348,8 +1916,33 @@
       <c r="K21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333301</v>
       </c>
@@ -1363,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9.3149999999999995</v>
       </c>
       <c r="F22" t="s">
@@ -1373,8 +1966,8 @@
         <v>48</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1382,8 +1975,33 @@
       <c r="K22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>2.3287499999999999</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>2.3287499999999999</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.04</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -1397,8 +2015,8 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11.7</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -1407,8 +2025,8 @@
         <v>48</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J23">
         <v>0.3</v>
@@ -1416,8 +2034,33 @@
       <c r="K23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666699</v>
       </c>
@@ -1431,8 +2074,8 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
-        <v>14.64</v>
+        <f t="shared" si="0"/>
+        <v>14.190000000000001</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
@@ -1441,8 +2084,8 @@
         <v>48</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J24">
         <v>0.45</v>
@@ -1450,8 +2093,33 @@
       <c r="K24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>3.66</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>3.5475000000000003</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333301</v>
       </c>
@@ -1465,8 +2133,8 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
-        <v>16.23</v>
+        <f t="shared" si="0"/>
+        <v>15.48</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
@@ -1475,8 +2143,8 @@
         <v>48</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J25">
         <v>0.75</v>
@@ -1484,8 +2152,33 @@
       <c r="K25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>4.0575000000000001</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>3.87</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -1499,8 +2192,8 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
-        <v>19.049999999999997</v>
+        <f t="shared" si="0"/>
+        <v>17.849999999999998</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
@@ -1509,8 +2202,8 @@
         <v>48</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J26">
         <v>1.2</v>
@@ -1518,8 +2211,33 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>4.7624999999999993</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>4.4624999999999995</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666702</v>
       </c>
@@ -1533,8 +2251,8 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
-        <v>23.234999999999999</v>
+        <f t="shared" si="0"/>
+        <v>20.085000000000001</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
@@ -1543,8 +2261,8 @@
         <v>48</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J27">
         <v>3.15</v>
@@ -1552,8 +2270,33 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>5.8087499999999999</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>5.0212500000000002</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>1.4624999999999999</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333298</v>
       </c>
@@ -1567,8 +2310,8 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
-        <v>26.895</v>
+        <f t="shared" si="0"/>
+        <v>21.645</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -1577,8 +2320,8 @@
         <v>48</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J28">
         <v>5.25</v>
@@ -1586,8 +2329,33 @@
       <c r="K28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>6.7237499999999999</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>5.4112499999999999</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -1601,8 +2369,8 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
-        <v>30.224999999999998</v>
+        <f t="shared" si="0"/>
+        <v>22.875</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
@@ -1611,8 +2379,8 @@
         <v>48</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J29">
         <v>7.35</v>
@@ -1620,8 +2388,33 @@
       <c r="K29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>7.5562499999999995</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>5.71875</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>4.6124999999999998</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666702</v>
       </c>
@@ -1635,8 +2428,8 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
-        <v>33.839999999999996</v>
+        <f t="shared" si="0"/>
+        <v>23.489999999999995</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
@@ -1645,8 +2438,8 @@
         <v>48</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J30">
         <v>10.35</v>
@@ -1654,8 +2447,33 @@
       <c r="K30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>5.8724999999999987</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R30">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333298</v>
       </c>
@@ -1669,8 +2487,8 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
-        <v>39.765000000000001</v>
+        <f t="shared" si="0"/>
+        <v>26.715</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
@@ -1679,8 +2497,8 @@
         <v>48</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J31">
         <v>13.05</v>
@@ -1688,8 +2506,33 @@
       <c r="K31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>9.9412500000000001</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>6.67875</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>10.462499999999999</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -1703,8 +2546,8 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
-        <v>43.68</v>
+        <f t="shared" si="0"/>
+        <v>26.88</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
@@ -1713,8 +2556,8 @@
         <v>48</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J32">
         <v>16.8</v>
@@ -1722,8 +2565,33 @@
       <c r="K32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>10.92</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>6.72</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>14.662499999999998</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666702</v>
       </c>
@@ -1737,8 +2605,8 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
-        <v>52.605000000000004</v>
+        <f t="shared" si="0"/>
+        <v>29.355000000000004</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -1747,8 +2615,8 @@
         <v>48</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J33">
         <v>23.25</v>
@@ -1756,8 +2624,33 @@
       <c r="K33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>13.151250000000001</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>7.338750000000001</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>20.474999999999998</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0.06</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R33">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333298</v>
       </c>
@@ -1771,8 +2664,8 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
-        <v>47.325000000000003</v>
+        <f t="shared" si="0"/>
+        <v>21.975000000000001</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
@@ -1781,8 +2674,8 @@
         <v>48</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J34">
         <v>25.35</v>
@@ -1790,8 +2683,33 @@
       <c r="K34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>11.831250000000001</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>5.4937500000000004</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>26.8125</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R34">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -1805,8 +2723,8 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
-        <v>55.44</v>
+        <f t="shared" si="0"/>
+        <v>24.389999999999997</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
@@ -1815,8 +2733,8 @@
         <v>48</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.95185000000000008</v>
       </c>
       <c r="J35">
         <v>31.05</v>
@@ -1824,33 +2742,62 @@
       <c r="K35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>13.86</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>6.0974999999999993</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>34.575000000000003</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R35">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>58.800000000000004</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
-        <v>58.800000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G43" si="6">J36-C36</f>
+        <v>-23.85</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.83260000000000012</v>
       </c>
       <c r="J36">
         <v>34.950000000000003</v>
@@ -1858,33 +2805,62 @@
       <c r="K36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>14.700000000000001</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>43.3125</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>5.9625000000000004</v>
+      </c>
+      <c r="P36">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333298</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>64.004999999999995</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
-        <v>64.004999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
       </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>-19.754999999999995</v>
+      </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.73382500000000017</v>
       </c>
       <c r="J37">
         <v>44.25</v>
@@ -1892,33 +2868,62 @@
       <c r="K37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>16.001249999999999</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>54.375</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>4.9387499999999989</v>
+      </c>
+      <c r="P37">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>64.739999999999995</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
-        <v>64.739999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
       </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>-16.139999999999993</v>
+      </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.65312500000000018</v>
       </c>
       <c r="J38">
         <v>48.6</v>
@@ -1926,33 +2931,62 @@
       <c r="K38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>16.184999999999999</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>66.525000000000006</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>4.0349999999999984</v>
+      </c>
+      <c r="P38">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R38">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666702</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>62.655000000000001</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
-        <v>62.655000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
       </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>-9.105000000000004</v>
+      </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.60760000000000014</v>
       </c>
       <c r="J39">
         <v>53.55</v>
@@ -1960,33 +2994,62 @@
       <c r="K39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>15.66375</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>79.912500000000009</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>2.276250000000001</v>
+      </c>
+      <c r="P39">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333298</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>66.224999999999994</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
-        <v>66.224999999999994</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
       </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>-8.3249999999999957</v>
+      </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.56597500000000012</v>
       </c>
       <c r="J40">
         <v>57.9</v>
@@ -1994,8 +3057,33 @@
       <c r="K40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>16.556249999999999</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>94.387500000000003</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>2.0812499999999989</v>
+      </c>
+      <c r="P40">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R40">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -2009,8 +3097,8 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
-        <v>69.074999999999989</v>
+        <f t="shared" si="0"/>
+        <v>2.7749999999999915</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
@@ -2019,8 +3107,8 @@
         <v>48</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.56597500000000012</v>
       </c>
       <c r="J41">
         <v>66.3</v>
@@ -2028,8 +3116,33 @@
       <c r="K41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>17.268749999999997</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>0.69374999999999787</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>110.96250000000001</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R41">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666702</v>
       </c>
@@ -2043,7 +3156,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <f>C42-J42</f>
+        <f t="shared" si="0"/>
         <v>-6.7349999999999994</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -2053,8 +3166,8 @@
         <v>48</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.56597500000000012</v>
       </c>
       <c r="J42">
         <v>74.849999999999994</v>
@@ -2062,8 +3175,33 @@
       <c r="K42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>17.028749999999999</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>-1.6837499999999999</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>129.67500000000001</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R42">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333298</v>
       </c>
@@ -2077,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:E50" si="5">C43-J43</f>
+        <f t="shared" si="0"/>
         <v>-0.17999999999999261</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -2087,8 +3225,8 @@
         <v>48</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.56597500000000012</v>
       </c>
       <c r="J43">
         <v>72</v>
@@ -2096,8 +3234,33 @@
       <c r="K43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>17.955000000000002</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>-4.4999999999998153E-2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="5"/>
+        <v>147.67500000000001</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R43">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -2111,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>-24.450000000000003</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -2121,8 +3284,8 @@
         <v>48</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.56597500000000012</v>
       </c>
       <c r="J44">
         <v>89.55</v>
@@ -2130,8 +3293,33 @@
       <c r="K44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>16.274999999999999</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>-6.1125000000000007</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="5"/>
+        <v>170.0625</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0.05</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R44">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666702</v>
       </c>
@@ -2145,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>-20.625</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2155,8 +3343,8 @@
         <v>48</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.56597500000000012</v>
       </c>
       <c r="J45">
         <v>96.6</v>
@@ -2164,8 +3352,33 @@
       <c r="K45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>18.993749999999999</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>-5.15625</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="5"/>
+        <v>194.21250000000001</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R45">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333298</v>
       </c>
@@ -2179,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>-8.6399999999999864</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -2189,8 +3402,8 @@
         <v>48</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.56597500000000012</v>
       </c>
       <c r="J46">
         <v>84.6</v>
@@ -2198,13 +3411,38 @@
       <c r="K46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>18.990000000000002</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>-2.1599999999999966</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="5"/>
+        <v>215.36250000000001</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>70.784999999999997</v>
@@ -2213,18 +3451,21 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <f t="shared" si="5"/>
-        <v>-35.564999999999998</v>
+        <f>C47-J47+G47</f>
+        <v>-26.144999999999996</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G47">
+        <v>9.42</v>
+      </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.61307500000000015</v>
       </c>
       <c r="J47">
         <v>106.35</v>
@@ -2232,13 +3473,38 @@
       <c r="K47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>17.696249999999999</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>-6.536249999999999</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="5"/>
+        <v>241.95000000000002</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>2.355</v>
+      </c>
+      <c r="P47">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666702</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>73.5</v>
@@ -2247,18 +3513,21 @@
         <v>10</v>
       </c>
       <c r="E48">
-        <f t="shared" si="5"/>
-        <v>-45.150000000000006</v>
+        <f t="shared" si="0"/>
+        <v>-36.590000000000003</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G48">
+        <v>8.56</v>
+      </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.65587500000000021</v>
       </c>
       <c r="J48">
         <v>118.65</v>
@@ -2266,13 +3535,38 @@
       <c r="K48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>18.375</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>-9.1475000000000009</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="5"/>
+        <v>271.61250000000001</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>2.14</v>
+      </c>
+      <c r="P48">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333298</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <v>71.88</v>
@@ -2281,18 +3575,21 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
-        <v>-46.320000000000007</v>
+        <f t="shared" si="0"/>
+        <v>-39.290000000000006</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G49">
+        <v>7.03</v>
+      </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.69102500000000022</v>
       </c>
       <c r="J49">
         <v>118.2</v>
@@ -2300,13 +3597,38 @@
       <c r="K49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>17.97</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>-9.8225000000000016</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="5"/>
+        <v>301.16250000000002</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="P49">
+        <v>0.03</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50">
         <v>69.36</v>
@@ -2315,18 +3637,21 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
-        <v>-58.739999999999995</v>
+        <f t="shared" si="0"/>
+        <v>-49.099999999999994</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G50">
+        <v>9.64</v>
+      </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33912500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.73922500000000024</v>
       </c>
       <c r="J50">
         <v>128.1</v>
@@ -2334,8 +3659,33 @@
       <c r="K50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>17.34</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>-12.274999999999999</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="5"/>
+        <v>333.1875</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>2.41</v>
+      </c>
+      <c r="P50">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666696</v>
       </c>
@@ -2349,20 +3699,21 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E54" si="6">C51-J51+G51</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-50.035000000000004</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G51">
-        <f>J51-C51</f>
-        <v>58.245000000000005</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
       </c>
       <c r="I51" s="5">
         <f>I50+G51*0.25%</f>
-        <v>0.48473750000000004</v>
+        <v>0.75975000000000026</v>
       </c>
       <c r="J51">
         <v>129.9</v>
@@ -2370,8 +3721,33 @@
       <c r="K51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>17.91375</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>-12.508750000000001</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="5"/>
+        <v>365.66250000000002</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>2.0525000000000002</v>
+      </c>
+      <c r="P51">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333304</v>
       </c>
@@ -2385,20 +3761,21 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-33.085000000000001</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G52">
-        <f t="shared" ref="G52:G54" si="7">J52-C52</f>
-        <v>44.295000000000002</v>
+        <v>11.21</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" ref="I52:I97" si="8">I51+G52*0.25%</f>
-        <v>0.59547500000000009</v>
+        <f t="shared" ref="I52:I58" si="7">I51+G52*0.25%</f>
+        <v>0.78777500000000023</v>
       </c>
       <c r="J52">
         <v>118.2</v>
@@ -2406,8 +3783,33 @@
       <c r="K52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>18.47625</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>-8.2712500000000002</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="5"/>
+        <v>395.21250000000003</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>2.8025000000000002</v>
+      </c>
+      <c r="P52">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -2421,20 +3823,21 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-34.6</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G53">
-        <f t="shared" si="7"/>
-        <v>46.92</v>
+        <v>12.32</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="8"/>
-        <v>0.71277500000000005</v>
+        <f t="shared" si="7"/>
+        <v>0.81857500000000027</v>
       </c>
       <c r="J53">
         <v>116.55</v>
@@ -2442,8 +3845,33 @@
       <c r="K53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>17.407499999999999</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="2"/>
+        <v>-8.65</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="5"/>
+        <v>424.35</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>3.08</v>
+      </c>
+      <c r="P53">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666696</v>
       </c>
@@ -2457,20 +3885,21 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-46.665000000000006</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G54">
-        <f t="shared" si="7"/>
-        <v>58.185000000000002</v>
+        <v>11.52</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="8"/>
-        <v>0.8582375000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.84737500000000032</v>
       </c>
       <c r="J54">
         <v>127.5</v>
@@ -2478,8 +3907,33 @@
       <c r="K54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>17.328749999999999</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="2"/>
+        <v>-11.666250000000002</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>456.22500000000002</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>2.88</v>
+      </c>
+      <c r="P54">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333304</v>
       </c>
@@ -2493,19 +3947,21 @@
         <v>10</v>
       </c>
       <c r="E55">
-        <f t="shared" ref="E55" si="9">C55-J55+G55</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-46.585000000000001</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G55">
-        <f t="shared" ref="G55" si="10">J55-C55</f>
-        <v>56.234999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
       </c>
       <c r="I55" s="5">
-        <v>0.96</v>
+        <f t="shared" si="7"/>
+        <v>0.87150000000000027</v>
       </c>
       <c r="J55">
         <v>125.7</v>
@@ -2513,13 +3969,38 @@
       <c r="K55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>17.366250000000001</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="2"/>
+        <v>-11.64625</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="5"/>
+        <v>487.65000000000003</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>2.4125000000000001</v>
+      </c>
+      <c r="P55">
+        <v>0.03</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56">
         <v>70.185000000000002</v>
@@ -2528,18 +4009,21 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <f t="shared" ref="E56" si="11">C56-J56</f>
-        <v>-43.965000000000003</v>
+        <f t="shared" si="0"/>
+        <v>-33.275000000000006</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G56">
+        <v>10.69</v>
+      </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="8"/>
-        <v>0.96</v>
+        <f t="shared" si="7"/>
+        <v>0.89822500000000027</v>
       </c>
       <c r="J56">
         <v>114.15</v>
@@ -2547,13 +4031,38 @@
       <c r="K56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>17.546250000000001</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>-8.3187500000000014</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="5"/>
+        <v>516.1875</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="3"/>
+        <v>2.6724999999999999</v>
+      </c>
+      <c r="P56">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R56">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666696</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57">
         <v>71.789999999999992</v>
@@ -2562,18 +4071,21 @@
         <v>10</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E58" si="12">C57-J57</f>
-        <v>-47.610000000000014</v>
+        <f t="shared" si="0"/>
+        <v>-37.960000000000015</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G57">
+        <v>9.65</v>
+      </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="8"/>
-        <v>0.96</v>
+        <f t="shared" si="7"/>
+        <v>0.92235000000000023</v>
       </c>
       <c r="J57">
         <v>119.4</v>
@@ -2581,13 +4093,38 @@
       <c r="K57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>17.947499999999998</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>-9.4900000000000038</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="5"/>
+        <v>546.03750000000002</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="3"/>
+        <v>2.4125000000000001</v>
+      </c>
+      <c r="P57">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333304</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58">
         <v>65.894999999999996</v>
@@ -2596,18 +4133,21 @@
         <v>10</v>
       </c>
       <c r="E58">
-        <f t="shared" si="12"/>
-        <v>-53.805000000000007</v>
+        <f t="shared" si="0"/>
+        <v>-42.785000000000011</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G58">
+        <v>11.02</v>
+      </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="8"/>
-        <v>0.96</v>
+        <f t="shared" si="7"/>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J58">
         <v>119.7</v>
@@ -2615,8 +4155,33 @@
       <c r="K58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>16.473749999999999</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>-10.696250000000003</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
+        <v>575.96249999999998</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="3"/>
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="P58">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -2630,7 +4195,7 @@
         <v>10</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59" si="13">C59-J59</f>
+        <f t="shared" si="0"/>
         <v>-46.17</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2640,8 +4205,8 @@
         <v>48</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="8"/>
-        <v>0.96</v>
+        <f t="shared" ref="I59:I97" si="8">I58+G59*0.25%</f>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J59">
         <v>114.45</v>
@@ -2649,8 +4214,33 @@
       <c r="K59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>17.07</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>-11.5425</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="5"/>
+        <v>604.57499999999993</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666696</v>
       </c>
@@ -2664,7 +4254,7 @@
         <v>10</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E67" si="14">C60-J60</f>
+        <f t="shared" si="0"/>
         <v>-44.504999999999995</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -2675,7 +4265,7 @@
       </c>
       <c r="I60" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J60">
         <v>111.3</v>
@@ -2683,8 +4273,33 @@
       <c r="K60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>16.69875</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>-11.126249999999999</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="5"/>
+        <v>632.4</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0.04</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R60">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333304</v>
       </c>
@@ -2698,7 +4313,7 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>-34.14</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -2709,7 +4324,7 @@
       </c>
       <c r="I61" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J61">
         <v>94.8</v>
@@ -2717,8 +4332,33 @@
       <c r="K61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>15.164999999999999</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>-8.5350000000000001</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="5"/>
+        <v>656.1</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R61">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -2732,7 +4372,7 @@
         <v>10</v>
       </c>
       <c r="E62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>-26.234999999999999</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2743,7 +4383,7 @@
       </c>
       <c r="I62" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J62">
         <v>90</v>
@@ -2751,8 +4391,33 @@
       <c r="K62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>15.94125</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>-6.5587499999999999</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>678.6</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R62">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666696</v>
       </c>
@@ -2766,7 +4431,7 @@
         <v>10</v>
       </c>
       <c r="E63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>-22.769999999999996</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -2777,7 +4442,7 @@
       </c>
       <c r="I63" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J63">
         <v>86.25</v>
@@ -2785,8 +4450,33 @@
       <c r="K63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>15.870000000000001</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="2"/>
+        <v>-5.692499999999999</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="5"/>
+        <v>700.16250000000002</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R63">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333304</v>
       </c>
@@ -2800,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="E64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>-22.83</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -2811,7 +4501,7 @@
       </c>
       <c r="I64" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J64">
         <v>85.5</v>
@@ -2819,8 +4509,33 @@
       <c r="K64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>15.6675</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="2"/>
+        <v>-5.7074999999999996</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>721.53750000000002</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R64">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -2834,7 +4549,7 @@
         <v>10</v>
       </c>
       <c r="E65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>-20.399999999999999</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -2845,7 +4560,7 @@
       </c>
       <c r="I65" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J65">
         <v>82.95</v>
@@ -2853,8 +4568,33 @@
       <c r="K65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>15.637500000000001</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="5"/>
+        <v>742.27499999999998</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0.05</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R65">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666696</v>
       </c>
@@ -2868,7 +4608,7 @@
         <v>10</v>
       </c>
       <c r="E66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>-17.895000000000003</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -2879,7 +4619,7 @@
       </c>
       <c r="I66" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J66">
         <v>73.650000000000006</v>
@@ -2887,8 +4627,33 @@
       <c r="K66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>13.938750000000001</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>-4.4737500000000008</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="5"/>
+        <v>760.6875</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R66">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333304</v>
       </c>
@@ -2902,7 +4667,7 @@
         <v>10</v>
       </c>
       <c r="E67">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E67:E97" si="9">C67-J67+G67</f>
         <v>-4.1700000000000088</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -2913,7 +4678,7 @@
       </c>
       <c r="I67" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J67">
         <v>63.6</v>
@@ -2921,8 +4686,33 @@
       <c r="K67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f t="shared" ref="L67:L97" si="10">C67*0.25</f>
+        <v>14.857499999999998</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M97" si="11">E67*0.25</f>
+        <v>-1.0425000000000022</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="5"/>
+        <v>776.58749999999998</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O97" si="12">ABS(G67)*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R67">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -2936,7 +4726,7 @@
         <v>9</v>
       </c>
       <c r="E68">
-        <f>C68-J68</f>
+        <f t="shared" si="9"/>
         <v>0.26999999999999602</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -2947,7 +4737,7 @@
       </c>
       <c r="I68" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J68">
         <v>56.1</v>
@@ -2955,8 +4745,33 @@
       <c r="K68" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <f t="shared" si="10"/>
+        <v>14.092499999999999</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="11"/>
+        <v>6.7499999999999005E-2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:N97" si="13">J68*0.25+N67</f>
+        <v>790.61249999999995</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R68">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666696</v>
       </c>
@@ -2970,7 +4785,7 @@
         <v>9</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E88" si="15">C69-J69</f>
+        <f t="shared" si="9"/>
         <v>9.8100000000000023</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -2981,7 +4796,7 @@
       </c>
       <c r="I69" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J69">
         <v>43.5</v>
@@ -2989,8 +4804,33 @@
       <c r="K69" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f t="shared" si="10"/>
+        <v>13.327500000000001</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="11"/>
+        <v>2.4525000000000006</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="13"/>
+        <v>801.48749999999995</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R69">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333304</v>
       </c>
@@ -3004,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="E70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>18.240000000000002</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -3015,7 +4855,7 @@
       </c>
       <c r="I70" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J70">
         <v>38.1</v>
@@ -3023,8 +4863,33 @@
       <c r="K70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f t="shared" si="10"/>
+        <v>14.085000000000001</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="11"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="13"/>
+        <v>811.01249999999993</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R70">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -3038,7 +4903,7 @@
         <v>9</v>
       </c>
       <c r="E71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>19.829999999999998</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -3049,7 +4914,7 @@
       </c>
       <c r="I71" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J71">
         <v>34.5</v>
@@ -3057,8 +4922,33 @@
       <c r="K71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" si="10"/>
+        <v>13.5825</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>4.9574999999999996</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="13"/>
+        <v>819.63749999999993</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R71">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666696</v>
       </c>
@@ -3072,7 +4962,7 @@
         <v>9</v>
       </c>
       <c r="E72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>22.200000000000003</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -3083,7 +4973,7 @@
       </c>
       <c r="I72" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J72">
         <v>26.85</v>
@@ -3091,8 +4981,33 @@
       <c r="K72" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="10"/>
+        <v>12.262500000000001</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="13"/>
+        <v>826.34999999999991</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R72">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333304</v>
       </c>
@@ -3106,7 +5021,7 @@
         <v>9</v>
       </c>
       <c r="E73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>27.060000000000002</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -3117,7 +5032,7 @@
       </c>
       <c r="I73" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J73">
         <v>22.5</v>
@@ -3125,8 +5040,33 @@
       <c r="K73" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="10"/>
+        <v>12.39</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>6.7650000000000006</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="13"/>
+        <v>831.97499999999991</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R73">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -3140,7 +5080,7 @@
         <v>9</v>
       </c>
       <c r="E74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>26.085000000000001</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -3151,7 +5091,7 @@
       </c>
       <c r="I74" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.94990000000000019</v>
       </c>
       <c r="J74">
         <v>18.75</v>
@@ -3159,33 +5099,60 @@
       <c r="K74" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="10"/>
+        <v>11.20875</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>6.5212500000000002</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="13"/>
+        <v>836.66249999999991</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R74">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666696</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C75">
         <v>43.230000000000004</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <f t="shared" si="15"/>
-        <v>29.130000000000003</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75">
+        <f t="shared" ref="G75:G77" si="14">J75-C75</f>
+        <v>-29.130000000000003</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I75" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.87707500000000016</v>
       </c>
       <c r="J75">
         <v>14.1</v>
@@ -3193,33 +5160,60 @@
       <c r="K75" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="10"/>
+        <v>10.807500000000001</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="13"/>
+        <v>840.18749999999989</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="12"/>
+        <v>7.2825000000000006</v>
+      </c>
+      <c r="P75">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R75">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333304</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C76">
         <v>38.910000000000004</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <f t="shared" si="15"/>
-        <v>27.810000000000002</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76">
+        <f t="shared" si="14"/>
+        <v>-27.810000000000002</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.80755000000000021</v>
       </c>
       <c r="J76">
         <v>11.1</v>
@@ -3227,33 +5221,60 @@
       <c r="K76" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" si="10"/>
+        <v>9.7275000000000009</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="13"/>
+        <v>842.96249999999986</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="12"/>
+        <v>6.9525000000000006</v>
+      </c>
+      <c r="P76">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R76">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C77">
         <v>40.71</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <f t="shared" si="15"/>
-        <v>33.36</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77">
+        <f t="shared" si="14"/>
+        <v>-33.36</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I77" s="5">
         <f t="shared" si="8"/>
-        <v>0.96</v>
+        <v>0.72415000000000018</v>
       </c>
       <c r="J77">
         <v>7.35</v>
@@ -3261,8 +5282,33 @@
       <c r="K77" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="10"/>
+        <v>10.1775</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="13"/>
+        <v>844.79999999999984</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="12"/>
+        <v>8.34</v>
+      </c>
+      <c r="P77">
+        <v>0.09</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R77">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666696</v>
       </c>
@@ -3276,7 +5322,7 @@
         <v>19</v>
       </c>
       <c r="E78">
-        <f>C78-J78+G78</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F78" s="1"/>
@@ -3289,7 +5335,7 @@
       </c>
       <c r="I78" s="5">
         <f t="shared" si="8"/>
-        <v>0.88811249999999997</v>
+        <v>0.65226250000000019</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -3297,8 +5343,33 @@
       <c r="K78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="10"/>
+        <v>8.0137499999999999</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="13"/>
+        <v>845.62499999999989</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="12"/>
+        <v>7.1887499999999998</v>
+      </c>
+      <c r="P78">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R78">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333304</v>
       </c>
@@ -3312,12 +5383,12 @@
         <v>19</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E86" si="16">C79-J79+G79</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79">
-        <f t="shared" ref="G79:G86" si="17">J79-C79</f>
+        <f t="shared" ref="G79:G84" si="15">J79-C79</f>
         <v>-31.274999999999999</v>
       </c>
       <c r="H79" t="s">
@@ -3325,7 +5396,7 @@
       </c>
       <c r="I79" s="5">
         <f t="shared" si="8"/>
-        <v>0.80992500000000001</v>
+        <v>0.57407500000000022</v>
       </c>
       <c r="J79">
         <v>2.4</v>
@@ -3333,8 +5404,33 @@
       <c r="K79" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <f t="shared" si="10"/>
+        <v>8.4187499999999993</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="13"/>
+        <v>846.22499999999991</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="12"/>
+        <v>7.8187499999999996</v>
+      </c>
+      <c r="P79">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R79">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -3348,12 +5444,12 @@
         <v>19</v>
       </c>
       <c r="E80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-31.11</v>
       </c>
       <c r="H80" t="s">
@@ -3361,7 +5457,7 @@
       </c>
       <c r="I80" s="5">
         <f t="shared" si="8"/>
-        <v>0.73214999999999997</v>
+        <v>0.49630000000000024</v>
       </c>
       <c r="J80">
         <v>1.5</v>
@@ -3369,8 +5465,33 @@
       <c r="K80" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <f t="shared" si="10"/>
+        <v>8.1524999999999999</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="13"/>
+        <v>846.59999999999991</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="12"/>
+        <v>7.7774999999999999</v>
+      </c>
+      <c r="P80">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R80">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666696</v>
       </c>
@@ -3384,12 +5505,12 @@
         <v>19</v>
       </c>
       <c r="E81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-26.355000000000004</v>
       </c>
       <c r="H81" t="s">
@@ -3397,7 +5518,7 @@
       </c>
       <c r="I81" s="5">
         <f t="shared" si="8"/>
-        <v>0.66626249999999998</v>
+        <v>0.4304125000000002</v>
       </c>
       <c r="J81">
         <v>0.9</v>
@@ -3405,8 +5526,33 @@
       <c r="K81" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <f t="shared" si="10"/>
+        <v>6.8137500000000006</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="12"/>
+        <v>6.588750000000001</v>
+      </c>
+      <c r="P81">
+        <v>0.1</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R81">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333304</v>
       </c>
@@ -3420,12 +5566,12 @@
         <v>7</v>
       </c>
       <c r="E82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-27.39</v>
       </c>
       <c r="H82" t="s">
@@ -3433,7 +5579,7 @@
       </c>
       <c r="I82" s="5">
         <f t="shared" si="8"/>
-        <v>0.59778749999999992</v>
+        <v>0.36193750000000019</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -3441,8 +5587,33 @@
       <c r="K82" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f t="shared" si="10"/>
+        <v>6.8475000000000001</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="12"/>
+        <v>6.8475000000000001</v>
+      </c>
+      <c r="P82">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R82">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -3456,12 +5627,12 @@
         <v>7</v>
       </c>
       <c r="E83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-26.130000000000003</v>
       </c>
       <c r="H83" t="s">
@@ -3469,7 +5640,7 @@
       </c>
       <c r="I83" s="5">
         <f t="shared" si="8"/>
-        <v>0.53246249999999995</v>
+        <v>0.29661250000000017</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -3477,8 +5648,33 @@
       <c r="K83" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="10"/>
+        <v>6.5325000000000006</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="12"/>
+        <v>6.5325000000000006</v>
+      </c>
+      <c r="P83">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R83">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666696</v>
       </c>
@@ -3492,12 +5688,12 @@
         <v>7</v>
       </c>
       <c r="E84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-25.650000000000002</v>
       </c>
       <c r="H84" t="s">
@@ -3505,7 +5701,7 @@
       </c>
       <c r="I84" s="5">
         <f t="shared" si="8"/>
-        <v>0.46833749999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -3513,35 +5709,58 @@
       <c r="K84" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <f t="shared" si="10"/>
+        <v>6.4125000000000005</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="12"/>
+        <v>6.4125000000000005</v>
+      </c>
+      <c r="P84">
+        <v>0.08</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R84">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333304</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C85">
         <v>24.630000000000003</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85">
-        <f t="shared" si="17"/>
-        <v>-24.630000000000003</v>
+        <f t="shared" si="9"/>
+        <v>24.630000000000003</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="8"/>
-        <v>0.40676249999999997</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -3549,35 +5768,58 @@
       <c r="K85" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <f t="shared" si="10"/>
+        <v>6.1575000000000006</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="11"/>
+        <v>6.1575000000000006</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R85">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86">
         <v>21.72</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86">
-        <f t="shared" si="17"/>
-        <v>-21.72</v>
+        <f t="shared" si="9"/>
+        <v>21.72</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" si="8"/>
-        <v>0.35246249999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -3585,8 +5827,33 @@
       <c r="K86" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <f t="shared" si="10"/>
+        <v>5.43</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>5.43</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R86">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666696</v>
       </c>
@@ -3600,7 +5867,7 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>18.240000000000002</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -3611,7 +5878,7 @@
       </c>
       <c r="I87" s="5">
         <f t="shared" si="8"/>
-        <v>0.35246249999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -3619,8 +5886,33 @@
       <c r="K87" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <f t="shared" si="10"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="11"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R87">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333304</v>
       </c>
@@ -3634,7 +5926,7 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>17.46</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -3645,7 +5937,7 @@
       </c>
       <c r="I88" s="5">
         <f t="shared" si="8"/>
-        <v>0.35246249999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -3653,8 +5945,33 @@
       <c r="K88" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <f t="shared" si="10"/>
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="11"/>
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0.06</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R88">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -3668,7 +5985,7 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <f t="shared" ref="E89" si="18">C89-J89</f>
+        <f t="shared" si="9"/>
         <v>14.475000000000001</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -3679,7 +5996,7 @@
       </c>
       <c r="I89" s="5">
         <f t="shared" si="8"/>
-        <v>0.35246249999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -3687,13 +6004,38 @@
       <c r="K89" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <f t="shared" si="10"/>
+        <v>3.6187500000000004</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="11"/>
+        <v>3.6187500000000004</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R89">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666696</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C90">
         <v>10.83</v>
@@ -3702,21 +6044,18 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <f t="shared" ref="E90:E97" si="19">C90-J90+G90</f>
-        <v>72.960000000000008</v>
+        <f t="shared" si="9"/>
+        <v>10.83</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G90">
-        <v>62.13</v>
-      </c>
       <c r="H90" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="8"/>
-        <v>0.50778749999999995</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3724,13 +6063,38 @@
       <c r="K90" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <f t="shared" si="10"/>
+        <v>2.7075</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="11"/>
+        <v>2.7075</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R90">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333304</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C91">
         <v>10.845000000000001</v>
@@ -3739,21 +6103,18 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <f t="shared" si="19"/>
-        <v>67.555000000000007</v>
+        <f t="shared" si="9"/>
+        <v>10.845000000000001</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G91">
-        <v>56.71</v>
-      </c>
       <c r="H91" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="8"/>
-        <v>0.64956249999999993</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -3761,13 +6122,38 @@
       <c r="K91" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <f t="shared" si="10"/>
+        <v>2.7112500000000002</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="11"/>
+        <v>2.7112500000000002</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0.05</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R91">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C92">
         <v>10.5</v>
@@ -3776,21 +6162,18 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <f t="shared" si="19"/>
-        <v>71.52000000000001</v>
+        <f t="shared" si="9"/>
+        <v>10.5</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G92">
-        <v>61.02</v>
-      </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="I92" s="5">
         <f t="shared" si="8"/>
-        <v>0.80211250000000001</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3798,13 +6181,38 @@
       <c r="K92" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <f t="shared" si="10"/>
+        <v>2.625</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="11"/>
+        <v>2.625</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R92">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666696</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C93">
         <v>10.23</v>
@@ -3813,21 +6221,18 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <f t="shared" si="19"/>
-        <v>69.88</v>
+        <f t="shared" si="9"/>
+        <v>10.23</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G93">
-        <v>59.65</v>
-      </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="I93" s="5">
         <f t="shared" si="8"/>
-        <v>0.95123749999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -3835,8 +6240,33 @@
       <c r="K93" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <f t="shared" si="10"/>
+        <v>2.5575000000000001</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="11"/>
+        <v>2.5575000000000001</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R93">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -3850,7 +6280,7 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>9.7349999999999994</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -3861,7 +6291,7 @@
       </c>
       <c r="I94" s="5">
         <f t="shared" si="8"/>
-        <v>0.95123749999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3869,8 +6299,33 @@
       <c r="K94" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <f t="shared" si="10"/>
+        <v>2.4337499999999999</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="11"/>
+        <v>2.4337499999999999</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R94">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -3884,7 +6339,7 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>9.69</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -3895,7 +6350,7 @@
       </c>
       <c r="I95" s="5">
         <f t="shared" si="8"/>
-        <v>0.95123749999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -3903,8 +6358,33 @@
       <c r="K95" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <f t="shared" si="10"/>
+        <v>2.4224999999999999</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="11"/>
+        <v>2.4224999999999999</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R95">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666696</v>
       </c>
@@ -3918,7 +6398,7 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>8.0849999999999991</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -3929,7 +6409,7 @@
       </c>
       <c r="I96" s="5">
         <f t="shared" si="8"/>
-        <v>0.95123749999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3937,8 +6417,33 @@
       <c r="K96" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <f t="shared" si="10"/>
+        <v>2.0212499999999998</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="11"/>
+        <v>2.0212499999999998</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R96">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333304</v>
       </c>
@@ -3952,7 +6457,7 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -3963,7 +6468,7 @@
       </c>
       <c r="I97" s="5">
         <f t="shared" si="8"/>
-        <v>0.95123749999999996</v>
+        <v>0.23248750000000018</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -3971,11 +6476,49 @@
       <c r="K97" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <f t="shared" si="10"/>
+        <v>2.1375000000000002</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="11"/>
+        <v>2.1375000000000002</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="13"/>
+        <v>846.82499999999993</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R97">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F98" s="1"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <conditionalFormatting sqref="P2:P97">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3984,8 +6527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F48B1-5691-44FB-A15E-00BE6FA44B15}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,4 +8108,177 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3547C240-2D7E-420F-840A-7955F8042DC9}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1567740-9995-4077-8DE0-369F8FF46511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3755A59F-07F3-4BDD-BD32-78656DD2F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
+    <workbookView xWindow="29415" yWindow="1515" windowWidth="21600" windowHeight="13215" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="65">
   <si>
     <t>Exporting</t>
   </si>
@@ -239,6 +239,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -302,6 +305,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE683D1-0F20-4AA9-8E66-4B04E80D1FD0}">
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="A1:S1048576"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +685,7 @@
     <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -736,7 +741,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -749,7 +754,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <f>C2-J2+G2</f>
         <v>7.6050000000000004</v>
       </c>
@@ -762,26 +767,26 @@
       <c r="I2" s="5">
         <v>0.23</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="10">
         <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="10">
         <f>C2*0.25</f>
         <v>1.9012500000000001</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="10">
         <f>E2*0.25</f>
         <v>1.9012500000000001</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="10">
         <f>J2*0.25</f>
         <v>0</v>
       </c>
-      <c r="O2">
-        <f>ABS(G2)*0.25</f>
+      <c r="O2" s="10">
+        <f>IF(G2&lt;0,ABS(G2)*0.25,0)</f>
         <v>0</v>
       </c>
       <c r="P2">
@@ -793,8 +798,12 @@
       <c r="R2">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f t="shared" ref="U2:U49" si="0">J2/1.4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -807,8 +816,8 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">C3-J3+G3</f>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E66" si="1">C3-J3+G3</f>
         <v>7.7099999999999991</v>
       </c>
       <c r="F3" t="s">
@@ -821,26 +830,26 @@
         <f>I2+G3*0.5%</f>
         <v>0.23</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="10">
         <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">C3*0.25</f>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L66" si="2">C3*0.25</f>
         <v>1.9274999999999998</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M66" si="2">E3*0.25</f>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M66" si="3">E3*0.25</f>
         <v>1.9274999999999998</v>
       </c>
-      <c r="N3">
-        <f>J3*0.25+N2</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O66" si="3">ABS(G3)*0.25</f>
+      <c r="N3" s="10">
+        <f>J3*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O66" si="4">IF(G3&lt;0,ABS(G3)*0.25,0)</f>
         <v>0</v>
       </c>
       <c r="P3">
@@ -852,8 +861,12 @@
       <c r="R3">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
@@ -866,8 +879,8 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="E4" s="11">
+        <f t="shared" si="1"/>
         <v>7.0649999999999995</v>
       </c>
       <c r="F4" t="s">
@@ -877,29 +890,29 @@
         <v>48</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I50" si="4">I3+G4*0.5%</f>
+        <f t="shared" ref="I4:I50" si="5">I3+G4*0.5%</f>
         <v>0.23</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="10">
         <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>1.7662499999999999</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="10">
         <f t="shared" si="2"/>
         <v>1.7662499999999999</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N67" si="5">J4*0.25+N3</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="M4" s="10">
         <f t="shared" si="3"/>
+        <v>1.7662499999999999</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N67" si="6">J4*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4">
@@ -911,8 +924,12 @@
       <c r="R4">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -925,8 +942,8 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="E5" s="11">
+        <f t="shared" si="1"/>
         <v>8.2349999999999994</v>
       </c>
       <c r="F5" t="s">
@@ -936,29 +953,29 @@
         <v>48</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="10">
         <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>2.0587499999999999</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="10">
         <f t="shared" si="2"/>
         <v>2.0587499999999999</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="M5" s="10">
         <f t="shared" si="3"/>
+        <v>2.0587499999999999</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5">
@@ -970,8 +987,12 @@
       <c r="R5">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -984,8 +1005,8 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
         <v>7.17</v>
       </c>
       <c r="F6" t="s">
@@ -995,29 +1016,29 @@
         <v>48</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="10">
         <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>1.7925</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="10">
         <f t="shared" si="2"/>
         <v>1.7925</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="M6" s="10">
         <f t="shared" si="3"/>
+        <v>1.7925</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6">
@@ -1029,8 +1050,12 @@
       <c r="R6">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333301E-2</v>
       </c>
@@ -1043,8 +1068,8 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="E7" s="11">
+        <f t="shared" si="1"/>
         <v>7.4700000000000006</v>
       </c>
       <c r="F7" t="s">
@@ -1054,29 +1079,29 @@
         <v>48</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="10">
         <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>1.8675000000000002</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="10">
         <f t="shared" si="2"/>
         <v>1.8675000000000002</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="M7" s="10">
         <f t="shared" si="3"/>
+        <v>1.8675000000000002</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7">
@@ -1088,8 +1113,12 @@
       <c r="R7">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -1102,8 +1131,8 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
         <v>7.875</v>
       </c>
       <c r="F8" t="s">
@@ -1113,29 +1142,29 @@
         <v>48</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="10">
         <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>1.96875</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="10">
         <f t="shared" si="2"/>
         <v>1.96875</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
+      <c r="M8" s="10">
         <f t="shared" si="3"/>
+        <v>1.96875</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8">
@@ -1147,8 +1176,12 @@
       <c r="R8">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666699E-2</v>
       </c>
@@ -1161,8 +1194,8 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
         <v>7.3349999999999991</v>
       </c>
       <c r="F9" t="s">
@@ -1172,29 +1205,29 @@
         <v>48</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="10">
         <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>1.8337499999999998</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="10">
         <f t="shared" si="2"/>
         <v>1.8337499999999998</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="M9" s="10">
         <f t="shared" si="3"/>
+        <v>1.8337499999999998</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P9">
@@ -1206,8 +1239,12 @@
       <c r="R9">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -1220,8 +1257,8 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
         <v>7.3949999999999996</v>
       </c>
       <c r="F10" t="s">
@@ -1231,29 +1268,29 @@
         <v>48</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>1.8487499999999999</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="10">
         <f t="shared" si="2"/>
         <v>1.8487499999999999</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="M10" s="10">
         <f t="shared" si="3"/>
+        <v>1.8487499999999999</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10">
@@ -1265,8 +1302,12 @@
       <c r="R10">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -1279,8 +1320,8 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
         <v>7.4399999999999995</v>
       </c>
       <c r="F11" t="s">
@@ -1290,29 +1331,29 @@
         <v>48</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="10">
         <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>1.8599999999999999</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="10">
         <f t="shared" si="2"/>
         <v>1.8599999999999999</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
+      <c r="M11" s="10">
         <f t="shared" si="3"/>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11">
@@ -1324,8 +1365,12 @@
       <c r="R11">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.104166666666667</v>
       </c>
@@ -1338,8 +1383,8 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
         <v>20.04</v>
       </c>
       <c r="F12" t="s">
@@ -1352,30 +1397,30 @@
         <v>4</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29075000000000001</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="10">
         <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
         <v>1.9724999999999999</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
+      <c r="M12" s="10">
+        <f t="shared" si="3"/>
         <v>5.01</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>3.0375000000000001</v>
+      <c r="N12" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>4.2999999999999997E-2</v>
@@ -1386,8 +1431,12 @@
       <c r="R12">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.114583333333333</v>
       </c>
@@ -1400,8 +1449,8 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
         <v>26.93</v>
       </c>
       <c r="F13" t="s">
@@ -1414,30 +1463,30 @@
         <v>4</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38324999999999998</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="10">
         <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
         <v>2.1074999999999999</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
+      <c r="M13" s="10">
+        <f t="shared" si="3"/>
         <v>6.7324999999999999</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
-        <v>4.625</v>
+      <c r="N13" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>4.2999999999999997E-2</v>
@@ -1448,8 +1497,12 @@
       <c r="R13">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -1462,8 +1515,8 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
         <v>29.810000000000002</v>
       </c>
       <c r="F14" t="s">
@@ -1476,30 +1529,30 @@
         <v>4</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49359999999999998</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="10">
         <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
+      <c r="L14" s="10">
+        <f t="shared" si="2"/>
         <v>1.9350000000000001</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
+      <c r="M14" s="10">
+        <f t="shared" si="3"/>
         <v>7.4525000000000006</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>5.5175000000000001</v>
+      <c r="N14" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>4.2000000000000003E-2</v>
@@ -1510,8 +1563,12 @@
       <c r="R14">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666699</v>
       </c>
@@ -1524,8 +1581,8 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
         <v>19.919999999999998</v>
       </c>
       <c r="F15" t="s">
@@ -1538,30 +1595,30 @@
         <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55630000000000002</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="10">
         <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
+      <c r="L15" s="10">
+        <f t="shared" si="2"/>
         <v>1.845</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
+      <c r="M15" s="10">
+        <f t="shared" si="3"/>
         <v>4.9799999999999995</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>3.1349999999999998</v>
+      <c r="N15" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>4.2000000000000003E-2</v>
@@ -1572,8 +1629,12 @@
       <c r="R15">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333301</v>
       </c>
@@ -1586,8 +1647,8 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
         <v>21.13</v>
       </c>
       <c r="F16" t="s">
@@ -1600,30 +1661,30 @@
         <v>4</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62250000000000005</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="10">
         <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
+      <c r="L16" s="10">
+        <f t="shared" si="2"/>
         <v>1.9724999999999999</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
+      <c r="M16" s="10">
+        <f t="shared" si="3"/>
         <v>5.2824999999999998</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
-        <v>3.31</v>
+      <c r="N16" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>4.1000000000000002E-2</v>
@@ -1634,8 +1695,12 @@
       <c r="R16">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -1648,8 +1713,8 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
         <v>23.195</v>
       </c>
       <c r="F17" t="s">
@@ -1662,30 +1727,30 @@
         <v>4</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7007500000000001</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="10">
         <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
+      <c r="L17" s="10">
+        <f t="shared" si="2"/>
         <v>1.88625</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
+      <c r="M17" s="10">
+        <f t="shared" si="3"/>
         <v>5.7987500000000001</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>3.9125000000000001</v>
+      <c r="N17" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>4.1000000000000002E-2</v>
@@ -1696,8 +1761,12 @@
       <c r="R17">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666699</v>
       </c>
@@ -1710,8 +1779,8 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
+      <c r="E18" s="11">
+        <f t="shared" si="1"/>
         <v>29.435000000000002</v>
       </c>
       <c r="F18" t="s">
@@ -1724,30 +1793,30 @@
         <v>4</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.80930000000000013</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="10">
         <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
+      <c r="L18" s="10">
+        <f t="shared" si="2"/>
         <v>1.9312500000000001</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
         <v>7.3587500000000006</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
-        <v>5.4275000000000002</v>
+      <c r="N18" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0.04</v>
@@ -1758,8 +1827,12 @@
       <c r="R18">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333301</v>
       </c>
@@ -1772,8 +1845,8 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
         <v>24.965000000000003</v>
       </c>
       <c r="F19" t="s">
@@ -1786,30 +1859,30 @@
         <v>4</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89115000000000011</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="10">
         <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
+      <c r="L19" s="10">
+        <f t="shared" si="2"/>
         <v>2.1487500000000002</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
+      <c r="M19" s="10">
+        <f t="shared" si="3"/>
         <v>6.2412500000000009</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>4.0925000000000002</v>
+      <c r="N19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0.04</v>
@@ -1820,8 +1893,12 @@
       <c r="R19">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -1834,8 +1911,8 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
         <v>20.57</v>
       </c>
       <c r="F20" t="s">
@@ -1848,30 +1925,30 @@
         <v>4</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="10">
         <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
         <v>2.1074999999999999</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
+      <c r="M20" s="10">
+        <f t="shared" si="3"/>
         <v>5.1425000000000001</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>3.0350000000000001</v>
+      <c r="N20" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>3.9E-2</v>
@@ -1882,8 +1959,12 @@
       <c r="R20">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666699</v>
       </c>
@@ -1896,8 +1977,8 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
         <v>9.18</v>
       </c>
       <c r="F21" t="s">
@@ -1907,29 +1988,29 @@
         <v>48</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="10">
         <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>2.2949999999999999</v>
-      </c>
-      <c r="M21">
+      <c r="L21" s="10">
         <f t="shared" si="2"/>
         <v>2.2949999999999999</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="M21" s="10">
         <f t="shared" si="3"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21">
@@ -1941,8 +2022,12 @@
       <c r="R21">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333301</v>
       </c>
@@ -1955,8 +2040,8 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
         <v>9.3149999999999995</v>
       </c>
       <c r="F22" t="s">
@@ -1966,29 +2051,29 @@
         <v>48</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="10">
         <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>2.3287499999999999</v>
-      </c>
-      <c r="M22">
+      <c r="L22" s="10">
         <f t="shared" si="2"/>
         <v>2.3287499999999999</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
+      <c r="M22" s="10">
         <f t="shared" si="3"/>
+        <v>2.3287499999999999</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22">
@@ -2000,8 +2085,12 @@
       <c r="R22">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -2014,9 +2103,9 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>11.7</v>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
+        <v>11.785714285714286</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -2025,29 +2114,29 @@
         <v>48</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J23">
-        <v>0.3</v>
+      <c r="J23" s="10">
+        <v>0.2142857142857143</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
+      <c r="L23" s="10">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="O23">
+      <c r="M23" s="10">
         <f t="shared" si="3"/>
+        <v>2.9464285714285716</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="6"/>
+        <v>5.3571428571428575E-2</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23">
@@ -2059,8 +2148,12 @@
       <c r="R23">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.15306122448979595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666699</v>
       </c>
@@ -2073,9 +2166,9 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>14.190000000000001</v>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
+        <v>14.318571428571429</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
@@ -2084,29 +2177,29 @@
         <v>48</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J24">
-        <v>0.45</v>
+      <c r="J24" s="10">
+        <v>0.32142857142857145</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
+      <c r="L24" s="10">
+        <f t="shared" si="2"/>
         <v>3.66</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>3.5475000000000003</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="5"/>
-        <v>0.1875</v>
-      </c>
-      <c r="O24">
+      <c r="M24" s="10">
         <f t="shared" si="3"/>
+        <v>3.5796428571428573</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="6"/>
+        <v>8.0357142857142863E-2</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P24">
@@ -2118,8 +2211,12 @@
       <c r="R24">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>0.22959183673469391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333301</v>
       </c>
@@ -2132,9 +2229,9 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>15.48</v>
+      <c r="E25" s="11">
+        <f t="shared" si="1"/>
+        <v>15.694285714285714</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
@@ -2143,29 +2240,29 @@
         <v>48</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J25">
-        <v>0.75</v>
+      <c r="J25" s="10">
+        <v>0.5357142857142857</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
+      <c r="L25" s="10">
+        <f t="shared" si="2"/>
         <v>4.0575000000000001</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>3.87</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="5"/>
-        <v>0.375</v>
-      </c>
-      <c r="O25">
+      <c r="M25" s="10">
         <f t="shared" si="3"/>
+        <v>3.9235714285714285</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="6"/>
+        <v>0.13392857142857142</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25">
@@ -2177,8 +2274,12 @@
       <c r="R25">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>0.38265306122448983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -2191,9 +2292,9 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>17.849999999999998</v>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>18.19285714285714</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
@@ -2202,29 +2303,29 @@
         <v>48</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J26">
-        <v>1.2</v>
+      <c r="J26" s="10">
+        <v>0.85714285714285721</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
+      <c r="L26" s="10">
+        <f t="shared" si="2"/>
         <v>4.7624999999999993</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>4.4624999999999995</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="O26">
+      <c r="M26" s="10">
         <f t="shared" si="3"/>
+        <v>4.5482142857142849</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="6"/>
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26">
@@ -2236,8 +2337,12 @@
       <c r="R26">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>0.6122448979591838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666702</v>
       </c>
@@ -2250,9 +2355,9 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>20.085000000000001</v>
+      <c r="E27" s="11">
+        <f t="shared" si="1"/>
+        <v>20.984999999999999</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
@@ -2261,29 +2366,29 @@
         <v>48</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J27">
-        <v>3.15</v>
+      <c r="J27" s="10">
+        <v>2.25</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
+      <c r="L27" s="10">
+        <f t="shared" si="2"/>
         <v>5.8087499999999999</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>5.0212500000000002</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="5"/>
-        <v>1.4624999999999999</v>
-      </c>
-      <c r="O27">
+      <c r="M27" s="10">
         <f t="shared" si="3"/>
+        <v>5.2462499999999999</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="6"/>
+        <v>0.5625</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27">
@@ -2295,8 +2400,12 @@
       <c r="R27">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>1.6071428571428572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333298</v>
       </c>
@@ -2309,9 +2418,9 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>21.645</v>
+      <c r="E28" s="11">
+        <f t="shared" si="1"/>
+        <v>23.145</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -2320,29 +2429,29 @@
         <v>48</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J28">
-        <v>5.25</v>
+      <c r="J28" s="10">
+        <v>3.7500000000000004</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
+      <c r="L28" s="10">
+        <f t="shared" si="2"/>
         <v>6.7237499999999999</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>5.4112499999999999</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="5"/>
-        <v>2.7749999999999999</v>
-      </c>
-      <c r="O28">
+      <c r="M28" s="10">
         <f t="shared" si="3"/>
+        <v>5.7862499999999999</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="6"/>
+        <v>0.93750000000000011</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28">
@@ -2354,8 +2463,12 @@
       <c r="R28">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>2.6785714285714293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -2368,9 +2481,9 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>22.875</v>
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>24.974999999999998</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
@@ -2379,29 +2492,29 @@
         <v>48</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J29">
-        <v>7.35</v>
+      <c r="J29" s="10">
+        <v>5.25</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
+      <c r="L29" s="10">
+        <f t="shared" si="2"/>
         <v>7.5562499999999995</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>5.71875</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="5"/>
-        <v>4.6124999999999998</v>
-      </c>
-      <c r="O29">
+      <c r="M29" s="10">
         <f t="shared" si="3"/>
+        <v>6.2437499999999995</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3125</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29">
@@ -2413,8 +2526,12 @@
       <c r="R29">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666702</v>
       </c>
@@ -2427,9 +2544,9 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>23.489999999999995</v>
+      <c r="E30" s="11">
+        <f t="shared" si="1"/>
+        <v>26.447142857142854</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
@@ -2438,29 +2555,29 @@
         <v>48</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J30">
-        <v>10.35</v>
+      <c r="J30" s="10">
+        <v>7.3928571428571432</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
+      <c r="L30" s="10">
+        <f t="shared" si="2"/>
         <v>8.4599999999999991</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>5.8724999999999987</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="5"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="O30">
+      <c r="M30" s="10">
         <f t="shared" si="3"/>
+        <v>6.6117857142857135</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="6"/>
+        <v>1.8482142857142858</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P30">
@@ -2472,8 +2589,12 @@
       <c r="R30">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>5.2806122448979602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333298</v>
       </c>
@@ -2486,9 +2607,9 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>26.715</v>
+      <c r="E31" s="11">
+        <f t="shared" si="1"/>
+        <v>30.443571428571428</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
@@ -2497,29 +2618,29 @@
         <v>48</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J31">
-        <v>13.05</v>
+      <c r="J31" s="10">
+        <v>9.321428571428573</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
+      <c r="L31" s="10">
+        <f t="shared" si="2"/>
         <v>9.9412500000000001</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
-        <v>6.67875</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="5"/>
-        <v>10.462499999999999</v>
-      </c>
-      <c r="O31">
+      <c r="M31" s="10">
         <f t="shared" si="3"/>
+        <v>7.6108928571428569</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="6"/>
+        <v>2.3303571428571432</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31">
@@ -2531,8 +2652,12 @@
       <c r="R31">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>6.6581632653061238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -2545,9 +2670,9 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>26.88</v>
+      <c r="E32" s="11">
+        <f t="shared" si="1"/>
+        <v>31.68</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
@@ -2556,29 +2681,29 @@
         <v>48</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J32">
-        <v>16.8</v>
+      <c r="J32" s="10">
+        <v>12.000000000000002</v>
       </c>
       <c r="K32" t="s">
         <v>17</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
+      <c r="L32" s="10">
+        <f t="shared" si="2"/>
         <v>10.92</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>6.72</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="5"/>
-        <v>14.662499999999998</v>
-      </c>
-      <c r="O32">
+      <c r="M32" s="10">
         <f t="shared" si="3"/>
+        <v>7.92</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32">
@@ -2590,8 +2715,12 @@
       <c r="R32">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>8.571428571428573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666702</v>
       </c>
@@ -2604,9 +2733,9 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>29.355000000000004</v>
+      <c r="E33" s="11">
+        <f t="shared" si="1"/>
+        <v>35.997857142857143</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -2615,29 +2744,29 @@
         <v>48</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J33">
-        <v>23.25</v>
+      <c r="J33" s="10">
+        <v>16.607142857142858</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
+      <c r="L33" s="10">
+        <f t="shared" si="2"/>
         <v>13.151250000000001</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
-        <v>7.338750000000001</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="5"/>
-        <v>20.474999999999998</v>
-      </c>
-      <c r="O33">
+      <c r="M33" s="10">
         <f t="shared" si="3"/>
+        <v>8.9994642857142857</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="6"/>
+        <v>4.1517857142857144</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33">
@@ -2649,8 +2778,12 @@
       <c r="R33">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>11.862244897959185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333298</v>
       </c>
@@ -2663,9 +2796,9 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>21.975000000000001</v>
+      <c r="E34" s="11">
+        <f t="shared" si="1"/>
+        <v>29.217857142857145</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
@@ -2674,29 +2807,29 @@
         <v>48</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J34">
-        <v>25.35</v>
+      <c r="J34" s="10">
+        <v>18.107142857142858</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="1"/>
+      <c r="L34" s="10">
+        <f t="shared" si="2"/>
         <v>11.831250000000001</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>5.4937500000000004</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="5"/>
-        <v>26.8125</v>
-      </c>
-      <c r="O34">
+      <c r="M34" s="10">
         <f t="shared" si="3"/>
+        <v>7.3044642857142863</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="6"/>
+        <v>4.5267857142857144</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34">
@@ -2708,8 +2841,12 @@
       <c r="R34">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>12.933673469387756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -2722,9 +2859,9 @@
       <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>24.389999999999997</v>
+      <c r="E35" s="11">
+        <f t="shared" si="1"/>
+        <v>33.261428571428567</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
@@ -2733,29 +2870,29 @@
         <v>48</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95185000000000008</v>
       </c>
-      <c r="J35">
-        <v>31.05</v>
+      <c r="J35" s="10">
+        <v>22.178571428571431</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
+      <c r="L35" s="10">
+        <f t="shared" si="2"/>
         <v>13.86</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>6.0974999999999993</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="5"/>
-        <v>34.575000000000003</v>
-      </c>
-      <c r="O35">
+      <c r="M35" s="10">
         <f t="shared" si="3"/>
+        <v>8.3153571428571418</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="6"/>
+        <v>5.5446428571428577</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P35">
@@ -2767,8 +2904,12 @@
       <c r="R35">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>15.84183673469388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666702</v>
       </c>
@@ -2781,45 +2922,45 @@
       <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
+      <c r="E36" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G43" si="6">J36-C36</f>
-        <v>-23.85</v>
+        <f t="shared" ref="G36:G40" si="7">J36-C36</f>
+        <v>-33.835714285714289</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="4"/>
-        <v>0.83260000000000012</v>
-      </c>
-      <c r="J36">
-        <v>34.950000000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.78267142857142868</v>
+      </c>
+      <c r="J36" s="10">
+        <v>24.964285714285719</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
+      <c r="L36" s="10">
+        <f t="shared" si="2"/>
         <v>14.700000000000001</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="5"/>
-        <v>43.3125</v>
-      </c>
-      <c r="O36">
+      <c r="M36" s="10">
         <f t="shared" si="3"/>
-        <v>5.9625000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="6"/>
+        <v>6.2410714285714297</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" si="4"/>
+        <v>8.4589285714285722</v>
       </c>
       <c r="P36">
         <v>6.6000000000000003E-2</v>
@@ -2830,8 +2971,12 @@
       <c r="R36">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>17.831632653061227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333298</v>
       </c>
@@ -2844,45 +2989,45 @@
       <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
+      <c r="E37" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
-        <v>-19.754999999999995</v>
+        <f t="shared" si="7"/>
+        <v>-32.397857142857134</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="4"/>
-        <v>0.73382500000000017</v>
-      </c>
-      <c r="J37">
-        <v>44.25</v>
+        <f t="shared" si="5"/>
+        <v>0.62068214285714296</v>
+      </c>
+      <c r="J37" s="10">
+        <v>31.607142857142858</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="1"/>
+      <c r="L37" s="10">
+        <f t="shared" si="2"/>
         <v>16.001249999999999</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="5"/>
-        <v>54.375</v>
-      </c>
-      <c r="O37">
+      <c r="M37" s="10">
         <f t="shared" si="3"/>
-        <v>4.9387499999999989</v>
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="6"/>
+        <v>7.9017857142857144</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" si="4"/>
+        <v>8.0994642857142836</v>
       </c>
       <c r="P37">
         <v>6.8000000000000005E-2</v>
@@ -2893,8 +3038,12 @@
       <c r="R37">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>22.576530612244898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -2907,45 +3056,45 @@
       <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
+      <c r="E38" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
-        <v>-16.139999999999993</v>
+        <f t="shared" si="7"/>
+        <v>-30.02571428571428</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="4"/>
-        <v>0.65312500000000018</v>
-      </c>
-      <c r="J38">
-        <v>48.6</v>
+        <f t="shared" si="5"/>
+        <v>0.47055357142857157</v>
+      </c>
+      <c r="J38" s="10">
+        <v>34.714285714285715</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="1"/>
+      <c r="L38" s="10">
+        <f t="shared" si="2"/>
         <v>16.184999999999999</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="5"/>
-        <v>66.525000000000006</v>
-      </c>
-      <c r="O38">
+      <c r="M38" s="10">
         <f t="shared" si="3"/>
-        <v>4.0349999999999984</v>
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="6"/>
+        <v>8.6785714285714288</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="4"/>
+        <v>7.5064285714285699</v>
       </c>
       <c r="P38">
         <v>7.0000000000000007E-2</v>
@@ -2956,8 +3105,12 @@
       <c r="R38">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>24.795918367346943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666702</v>
       </c>
@@ -2970,45 +3123,45 @@
       <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
+      <c r="E39" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
-        <v>-9.105000000000004</v>
+        <f t="shared" si="7"/>
+        <v>-24.405000000000001</v>
       </c>
       <c r="H39" t="s">
         <v>5</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="4"/>
-        <v>0.60760000000000014</v>
-      </c>
-      <c r="J39">
-        <v>53.55</v>
+        <f t="shared" si="5"/>
+        <v>0.34852857142857158</v>
+      </c>
+      <c r="J39" s="10">
+        <v>38.25</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="1"/>
+      <c r="L39" s="10">
+        <f t="shared" si="2"/>
         <v>15.66375</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="5"/>
-        <v>79.912500000000009</v>
-      </c>
-      <c r="O39">
+      <c r="M39" s="10">
         <f t="shared" si="3"/>
-        <v>2.276250000000001</v>
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="6"/>
+        <v>9.5625</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="4"/>
+        <v>6.1012500000000003</v>
       </c>
       <c r="P39">
         <v>6.8000000000000005E-2</v>
@@ -3019,8 +3172,12 @@
       <c r="R39">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>27.321428571428573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333298</v>
       </c>
@@ -3033,45 +3190,45 @@
       <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
+      <c r="E40" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
-        <v>-8.3249999999999957</v>
+        <f t="shared" si="7"/>
+        <v>-24.867857142857133</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56597500000000012</v>
-      </c>
-      <c r="J40">
-        <v>57.9</v>
+        <f t="shared" si="5"/>
+        <v>0.22418928571428592</v>
+      </c>
+      <c r="J40" s="10">
+        <v>41.357142857142861</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="1"/>
+      <c r="L40" s="10">
+        <f t="shared" si="2"/>
         <v>16.556249999999999</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="5"/>
-        <v>94.387500000000003</v>
-      </c>
-      <c r="O40">
+      <c r="M40" s="10">
         <f t="shared" si="3"/>
-        <v>2.0812499999999989</v>
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="6"/>
+        <v>10.339285714285715</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="4"/>
+        <v>6.2169642857142833</v>
       </c>
       <c r="P40">
         <v>6.6000000000000003E-2</v>
@@ -3082,8 +3239,12 @@
       <c r="R40">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>29.540816326530617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -3096,9 +3257,9 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>2.7749999999999915</v>
+      <c r="E41" s="11">
+        <f t="shared" si="1"/>
+        <v>21.717857142857127</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
@@ -3107,29 +3268,29 @@
         <v>48</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56597500000000012</v>
-      </c>
-      <c r="J41">
-        <v>66.3</v>
+        <f t="shared" si="5"/>
+        <v>0.22418928571428592</v>
+      </c>
+      <c r="J41" s="10">
+        <v>47.357142857142861</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="1"/>
+      <c r="L41" s="10">
+        <f t="shared" si="2"/>
         <v>17.268749999999997</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="2"/>
-        <v>0.69374999999999787</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="5"/>
-        <v>110.96250000000001</v>
-      </c>
-      <c r="O41">
+      <c r="M41" s="10">
         <f t="shared" si="3"/>
+        <v>5.4294642857142819</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="6"/>
+        <v>11.839285714285715</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P41">
@@ -3141,54 +3302,58 @@
       <c r="R41">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>33.826530612244902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666702</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>68.114999999999995</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>-6.7349999999999994</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E42" s="11">
+        <f t="shared" si="1"/>
+        <v>14.65071428571428</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
       </c>
       <c r="H42" t="s">
         <v>48</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56597500000000012</v>
-      </c>
-      <c r="J42">
-        <v>74.849999999999994</v>
+        <f t="shared" si="5"/>
+        <v>0.22418928571428592</v>
+      </c>
+      <c r="J42" s="10">
+        <v>53.464285714285715</v>
       </c>
       <c r="K42" t="s">
         <v>17</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="1"/>
+      <c r="L42" s="10">
+        <f t="shared" si="2"/>
         <v>17.028749999999999</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="2"/>
-        <v>-1.6837499999999999</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="5"/>
-        <v>129.67500000000001</v>
-      </c>
-      <c r="O42">
+      <c r="M42" s="10">
         <f t="shared" si="3"/>
+        <v>3.6626785714285699</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="6"/>
+        <v>13.366071428571429</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P42">
@@ -3200,54 +3365,58 @@
       <c r="R42">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>38.188775510204081</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333298</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>71.820000000000007</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>-0.17999999999999261</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" si="1"/>
+        <v>20.391428571428577</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
       </c>
       <c r="H43" t="s">
         <v>48</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56597500000000012</v>
-      </c>
-      <c r="J43">
-        <v>72</v>
+        <f t="shared" si="5"/>
+        <v>0.22418928571428592</v>
+      </c>
+      <c r="J43" s="10">
+        <v>51.428571428571431</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="1"/>
+      <c r="L43" s="10">
+        <f t="shared" si="2"/>
         <v>17.955000000000002</v>
       </c>
-      <c r="M43">
-        <f t="shared" si="2"/>
-        <v>-4.4999999999998153E-2</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="5"/>
-        <v>147.67500000000001</v>
-      </c>
-      <c r="O43">
+      <c r="M43" s="10">
         <f t="shared" si="3"/>
+        <v>5.0978571428571442</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="6"/>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43">
@@ -3259,54 +3428,58 @@
       <c r="R43">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>36.734693877551024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>65.099999999999994</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>-24.450000000000003</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" si="1"/>
+        <v>1.135714285714279</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
       </c>
       <c r="H44" t="s">
         <v>48</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56597500000000012</v>
-      </c>
-      <c r="J44">
-        <v>89.55</v>
+        <f t="shared" si="5"/>
+        <v>0.22418928571428592</v>
+      </c>
+      <c r="J44" s="10">
+        <v>63.964285714285715</v>
       </c>
       <c r="K44" t="s">
         <v>17</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="1"/>
+      <c r="L44" s="10">
+        <f t="shared" si="2"/>
         <v>16.274999999999999</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="2"/>
-        <v>-6.1125000000000007</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="5"/>
-        <v>170.0625</v>
-      </c>
-      <c r="O44">
+      <c r="M44" s="10">
         <f t="shared" si="3"/>
+        <v>0.28392857142856975</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="6"/>
+        <v>15.991071428571429</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P44">
@@ -3318,54 +3491,58 @@
       <c r="R44">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>45.688775510204088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666702</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>75.974999999999994</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>-20.625</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9749999999999943</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
       </c>
       <c r="H45" t="s">
         <v>48</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56597500000000012</v>
-      </c>
-      <c r="J45">
-        <v>96.6</v>
+        <f t="shared" si="5"/>
+        <v>0.22418928571428592</v>
+      </c>
+      <c r="J45" s="10">
+        <v>69</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="1"/>
+      <c r="L45" s="10">
+        <f t="shared" si="2"/>
         <v>18.993749999999999</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="2"/>
-        <v>-5.15625</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="5"/>
-        <v>194.21250000000001</v>
-      </c>
-      <c r="O45">
+      <c r="M45" s="10">
         <f t="shared" si="3"/>
+        <v>1.7437499999999986</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="6"/>
+        <v>17.25</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P45">
@@ -3377,54 +3554,58 @@
       <c r="R45">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>49.285714285714292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333298</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>75.960000000000008</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>-8.6399999999999864</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="1"/>
+        <v>15.531428571428577</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>48</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="4"/>
-        <v>0.56597500000000012</v>
-      </c>
-      <c r="J46">
-        <v>84.6</v>
+        <f t="shared" si="5"/>
+        <v>0.22418928571428592</v>
+      </c>
+      <c r="J46" s="10">
+        <v>60.428571428571431</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="1"/>
+      <c r="L46" s="10">
+        <f t="shared" si="2"/>
         <v>18.990000000000002</v>
       </c>
-      <c r="M46">
-        <f t="shared" si="2"/>
-        <v>-2.1599999999999966</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="5"/>
-        <v>215.36250000000001</v>
-      </c>
-      <c r="O46">
+      <c r="M46" s="10">
         <f t="shared" si="3"/>
+        <v>3.8828571428571443</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" si="6"/>
+        <v>15.107142857142858</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P46">
@@ -3436,8 +3617,12 @@
       <c r="R46">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>43.163265306122454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -3450,44 +3635,44 @@
       <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="11">
         <f>C47-J47+G47</f>
-        <v>-26.144999999999996</v>
+        <v>-0.119285714285712</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>9.42</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="4"/>
-        <v>0.61307500000000015</v>
-      </c>
-      <c r="J47">
-        <v>106.35</v>
+        <f t="shared" si="5"/>
+        <v>0.24948928571428591</v>
+      </c>
+      <c r="J47" s="10">
+        <v>75.964285714285708</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="1"/>
+      <c r="L47" s="10">
+        <f t="shared" si="2"/>
         <v>17.696249999999999</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="2"/>
-        <v>-6.536249999999999</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="5"/>
-        <v>241.95000000000002</v>
-      </c>
-      <c r="O47">
+      <c r="M47" s="10">
         <f t="shared" si="3"/>
-        <v>2.355</v>
+        <v>-2.9821428571427999E-2</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" si="6"/>
+        <v>18.991071428571427</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>3.7999999999999999E-2</v>
@@ -3498,8 +3683,12 @@
       <c r="R47">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>54.260204081632651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666702</v>
       </c>
@@ -3512,44 +3701,44 @@
       <c r="D48" t="s">
         <v>10</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>-36.590000000000003</v>
+      <c r="E48" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.380000000000015</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>8.56</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="4"/>
-        <v>0.65587500000000021</v>
-      </c>
-      <c r="J48">
-        <v>118.65</v>
+        <f t="shared" si="5"/>
+        <v>0.29883928571428592</v>
+      </c>
+      <c r="J48" s="10">
+        <v>84.750000000000014</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="1"/>
+      <c r="L48" s="10">
+        <f t="shared" si="2"/>
         <v>18.375</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="2"/>
-        <v>-9.1475000000000009</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="5"/>
-        <v>271.61250000000001</v>
-      </c>
-      <c r="O48">
+      <c r="M48" s="10">
         <f t="shared" si="3"/>
-        <v>2.14</v>
+        <v>-0.34500000000000375</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="6"/>
+        <v>21.187500000000004</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>3.4000000000000002E-2</v>
@@ -3560,8 +3749,12 @@
       <c r="R48">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>60.535714285714299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333298</v>
       </c>
@@ -3574,44 +3767,44 @@
       <c r="D49" t="s">
         <v>10</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>-39.290000000000006</v>
+      <c r="E49" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.89857142857143479</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>7.03</v>
+        <v>11.65</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="4"/>
-        <v>0.69102500000000022</v>
-      </c>
-      <c r="J49">
-        <v>118.2</v>
+        <f t="shared" si="5"/>
+        <v>0.35708928571428594</v>
+      </c>
+      <c r="J49" s="10">
+        <v>84.428571428571431</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="1"/>
+      <c r="L49" s="10">
+        <f t="shared" si="2"/>
         <v>17.97</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="2"/>
-        <v>-9.8225000000000016</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="5"/>
-        <v>301.16250000000002</v>
-      </c>
-      <c r="O49">
+      <c r="M49" s="10">
         <f t="shared" si="3"/>
-        <v>1.7575000000000001</v>
+        <v>-0.2246428571428587</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" si="6"/>
+        <v>21.107142857142858</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P49">
         <v>0.03</v>
@@ -3622,8 +3815,12 @@
       <c r="R49">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>60.3061224489796</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -3636,44 +3833,44 @@
       <c r="D50" t="s">
         <v>10</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>-49.099999999999994</v>
+      <c r="E50" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.73000000000000043</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>9.64</v>
+        <v>21.41</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="4"/>
-        <v>0.73922500000000024</v>
-      </c>
-      <c r="J50">
-        <v>128.1</v>
+        <f t="shared" si="5"/>
+        <v>0.46413928571428598</v>
+      </c>
+      <c r="J50" s="10">
+        <v>91.5</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="1"/>
+      <c r="L50" s="10">
+        <f t="shared" si="2"/>
         <v>17.34</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="2"/>
-        <v>-12.274999999999999</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="5"/>
-        <v>333.1875</v>
-      </c>
-      <c r="O50">
+      <c r="M50" s="10">
         <f t="shared" si="3"/>
-        <v>2.41</v>
+        <v>-0.18250000000000011</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="6"/>
+        <v>22.875</v>
+      </c>
+      <c r="O50" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>2.8000000000000001E-2</v>
@@ -3684,8 +3881,12 @@
       <c r="R50">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <f>J50/1.4</f>
+        <v>65.357142857142861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666696</v>
       </c>
@@ -3698,44 +3899,44 @@
       <c r="D51" t="s">
         <v>10</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>-50.035000000000004</v>
+      <c r="E51" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.77071428571429124</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>8.2100000000000009</v>
+        <v>20.36</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
       </c>
       <c r="I51" s="5">
         <f>I50+G51*0.25%</f>
-        <v>0.75975000000000026</v>
-      </c>
-      <c r="J51">
-        <v>129.9</v>
+        <v>0.51503928571428603</v>
+      </c>
+      <c r="J51" s="10">
+        <v>92.785714285714292</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="1"/>
+      <c r="L51" s="10">
+        <f t="shared" si="2"/>
         <v>17.91375</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="2"/>
-        <v>-12.508750000000001</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="5"/>
-        <v>365.66250000000002</v>
-      </c>
-      <c r="O51">
+      <c r="M51" s="10">
         <f t="shared" si="3"/>
-        <v>2.0525000000000002</v>
+        <v>-0.19267857142857281</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="6"/>
+        <v>23.196428571428573</v>
+      </c>
+      <c r="O51" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P51">
         <v>2.5999999999999999E-2</v>
@@ -3746,8 +3947,12 @@
       <c r="R51">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <f t="shared" ref="U51:U97" si="8">J51/1.4</f>
+        <v>66.275510204081641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333304</v>
       </c>
@@ -3760,44 +3965,44 @@
       <c r="D52" t="s">
         <v>10</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>-33.085000000000001</v>
+      <c r="E52" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.87357142857142911</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>11.21</v>
+        <v>9.65</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" ref="I52:I58" si="7">I51+G52*0.25%</f>
-        <v>0.78777500000000023</v>
-      </c>
-      <c r="J52">
-        <v>118.2</v>
+        <f t="shared" ref="I52:I58" si="9">I51+G52*0.25%</f>
+        <v>0.53916428571428598</v>
+      </c>
+      <c r="J52" s="10">
+        <v>84.428571428571431</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="1"/>
+      <c r="L52" s="10">
+        <f t="shared" si="2"/>
         <v>18.47625</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="2"/>
-        <v>-8.2712500000000002</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="5"/>
-        <v>395.21250000000003</v>
-      </c>
-      <c r="O52">
+      <c r="M52" s="10">
         <f t="shared" si="3"/>
-        <v>2.8025000000000002</v>
+        <v>-0.21839285714285728</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="6"/>
+        <v>21.107142857142858</v>
+      </c>
+      <c r="O52" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>2.4E-2</v>
@@ -3808,8 +4013,12 @@
       <c r="R52">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <f t="shared" si="8"/>
+        <v>60.3061224489796</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -3822,9 +4031,9 @@
       <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>-34.6</v>
+      <c r="E53" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.3000000000000043</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>0</v>
@@ -3836,30 +4045,30 @@
         <v>4</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="7"/>
-        <v>0.81857500000000027</v>
-      </c>
-      <c r="J53">
-        <v>116.55</v>
+        <f t="shared" si="9"/>
+        <v>0.56996428571428603</v>
+      </c>
+      <c r="J53" s="10">
+        <v>83.25</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="1"/>
+      <c r="L53" s="10">
+        <f t="shared" si="2"/>
         <v>17.407499999999999</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="2"/>
-        <v>-8.65</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="5"/>
-        <v>424.35</v>
-      </c>
-      <c r="O53">
+      <c r="M53" s="10">
         <f t="shared" si="3"/>
-        <v>3.08</v>
+        <v>-0.32500000000000107</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="6"/>
+        <v>20.8125</v>
+      </c>
+      <c r="O53" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>2.5999999999999999E-2</v>
@@ -3870,8 +4079,12 @@
       <c r="R53">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <f t="shared" si="8"/>
+        <v>59.464285714285715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666696</v>
       </c>
@@ -3884,44 +4097,44 @@
       <c r="D54" t="s">
         <v>10</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>-46.665000000000006</v>
+      <c r="E54" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.1364285714285849</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>11.52</v>
+        <v>19.62</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="7"/>
-        <v>0.84737500000000032</v>
-      </c>
-      <c r="J54">
-        <v>127.5</v>
+        <f t="shared" si="9"/>
+        <v>0.61901428571428607</v>
+      </c>
+      <c r="J54" s="10">
+        <v>91.071428571428584</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="1"/>
+      <c r="L54" s="10">
+        <f t="shared" si="2"/>
         <v>17.328749999999999</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="2"/>
-        <v>-11.666250000000002</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="5"/>
-        <v>456.22500000000002</v>
-      </c>
-      <c r="O54">
+      <c r="M54" s="10">
         <f t="shared" si="3"/>
-        <v>2.88</v>
+        <v>-0.53410714285714622</v>
+      </c>
+      <c r="N54" s="10">
+        <f t="shared" si="6"/>
+        <v>22.767857142857146</v>
+      </c>
+      <c r="O54" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P54">
         <v>2.8000000000000001E-2</v>
@@ -3932,8 +4145,12 @@
       <c r="R54">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <f t="shared" si="8"/>
+        <v>65.051020408163282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333304</v>
       </c>
@@ -3946,44 +4163,44 @@
       <c r="D55" t="s">
         <v>10</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>-46.585000000000001</v>
+      <c r="E55" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.7807142857142892</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>9.65</v>
+        <v>18.54</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="7"/>
-        <v>0.87150000000000027</v>
-      </c>
-      <c r="J55">
-        <v>125.7</v>
+        <f t="shared" si="9"/>
+        <v>0.66536428571428607</v>
+      </c>
+      <c r="J55" s="10">
+        <v>89.785714285714292</v>
       </c>
       <c r="K55" t="s">
         <v>17</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="1"/>
+      <c r="L55" s="10">
+        <f t="shared" si="2"/>
         <v>17.366250000000001</v>
       </c>
-      <c r="M55">
-        <f t="shared" si="2"/>
-        <v>-11.64625</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="5"/>
-        <v>487.65000000000003</v>
-      </c>
-      <c r="O55">
+      <c r="M55" s="10">
         <f t="shared" si="3"/>
-        <v>2.4125000000000001</v>
+        <v>-0.44517857142857231</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="6"/>
+        <v>22.446428571428573</v>
+      </c>
+      <c r="O55" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P55">
         <v>0.03</v>
@@ -3994,8 +4211,12 @@
       <c r="R55">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <f t="shared" si="8"/>
+        <v>64.132653061224502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -4008,9 +4229,9 @@
       <c r="D56" t="s">
         <v>10</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>-33.275000000000006</v>
+      <c r="E56" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.66071428571429003</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>0</v>
@@ -4022,30 +4243,30 @@
         <v>4</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="7"/>
-        <v>0.89822500000000027</v>
-      </c>
-      <c r="J56">
-        <v>114.15</v>
+        <f t="shared" si="9"/>
+        <v>0.69208928571428607</v>
+      </c>
+      <c r="J56" s="10">
+        <v>81.535714285714292</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
       </c>
-      <c r="L56">
-        <f t="shared" si="1"/>
+      <c r="L56" s="10">
+        <f t="shared" si="2"/>
         <v>17.546250000000001</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="2"/>
-        <v>-8.3187500000000014</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="5"/>
-        <v>516.1875</v>
-      </c>
-      <c r="O56">
+      <c r="M56" s="10">
         <f t="shared" si="3"/>
-        <v>2.6724999999999999</v>
+        <v>-0.16517857142857251</v>
+      </c>
+      <c r="N56" s="10">
+        <f t="shared" si="6"/>
+        <v>20.383928571428573</v>
+      </c>
+      <c r="O56" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>3.2000000000000001E-2</v>
@@ -4056,8 +4277,12 @@
       <c r="R56">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <f t="shared" si="8"/>
+        <v>58.239795918367356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666696</v>
       </c>
@@ -4070,9 +4295,9 @@
       <c r="D57" t="s">
         <v>10</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>-37.960000000000015</v>
+      <c r="E57" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.8457142857142994</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>0</v>
@@ -4084,30 +4309,30 @@
         <v>4</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="7"/>
-        <v>0.92235000000000023</v>
-      </c>
-      <c r="J57">
-        <v>119.4</v>
+        <f t="shared" si="9"/>
+        <v>0.71621428571428603</v>
+      </c>
+      <c r="J57" s="10">
+        <v>85.285714285714292</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
       </c>
-      <c r="L57">
-        <f t="shared" si="1"/>
+      <c r="L57" s="10">
+        <f t="shared" si="2"/>
         <v>17.947499999999998</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="2"/>
-        <v>-9.4900000000000038</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="5"/>
-        <v>546.03750000000002</v>
-      </c>
-      <c r="O57">
+      <c r="M57" s="10">
         <f t="shared" si="3"/>
-        <v>2.4125000000000001</v>
+        <v>-0.96142857142857485</v>
+      </c>
+      <c r="N57" s="10">
+        <f t="shared" si="6"/>
+        <v>21.321428571428573</v>
+      </c>
+      <c r="O57" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P57">
         <v>3.4000000000000002E-2</v>
@@ -4118,8 +4343,12 @@
       <c r="R57">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <f t="shared" si="8"/>
+        <v>60.918367346938787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333304</v>
       </c>
@@ -4132,44 +4361,44 @@
       <c r="D58" t="s">
         <v>10</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>-42.785000000000011</v>
+      <c r="E58" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.3650000000000198</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>11.02</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="7"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J58">
-        <v>119.7</v>
+        <f t="shared" si="9"/>
+        <v>0.761814285714286</v>
+      </c>
+      <c r="J58" s="10">
+        <v>85.500000000000014</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
       </c>
-      <c r="L58">
-        <f t="shared" si="1"/>
+      <c r="L58" s="10">
+        <f t="shared" si="2"/>
         <v>16.473749999999999</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="2"/>
-        <v>-10.696250000000003</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="5"/>
-        <v>575.96249999999998</v>
-      </c>
-      <c r="O58">
+      <c r="M58" s="10">
         <f t="shared" si="3"/>
-        <v>2.7549999999999999</v>
+        <v>-0.34125000000000494</v>
+      </c>
+      <c r="N58" s="10">
+        <f t="shared" si="6"/>
+        <v>21.375000000000004</v>
+      </c>
+      <c r="O58" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P58">
         <v>3.5999999999999997E-2</v>
@@ -4180,13 +4409,17 @@
       <c r="R58">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <f t="shared" si="8"/>
+        <v>61.071428571428584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59">
         <v>68.28</v>
@@ -4194,40 +4427,43 @@
       <c r="D59" t="s">
         <v>10</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>-46.17</v>
+      <c r="E59" s="11">
+        <f t="shared" si="1"/>
+        <v>-2.4500000000000135</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G59">
+        <v>11.02</v>
+      </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" ref="I59:I97" si="8">I58+G59*0.25%</f>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J59">
-        <v>114.45</v>
+        <f t="shared" ref="I59:I97" si="10">I58+G59*0.25%</f>
+        <v>0.78936428571428596</v>
+      </c>
+      <c r="J59" s="10">
+        <v>81.750000000000014</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
-      <c r="L59">
-        <f t="shared" si="1"/>
+      <c r="L59" s="10">
+        <f t="shared" si="2"/>
         <v>17.07</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="2"/>
-        <v>-11.5425</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="5"/>
-        <v>604.57499999999993</v>
-      </c>
-      <c r="O59">
+      <c r="M59" s="10">
         <f t="shared" si="3"/>
+        <v>-0.61250000000000338</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="6"/>
+        <v>20.437500000000004</v>
+      </c>
+      <c r="O59" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P59">
@@ -4239,13 +4475,17 @@
       <c r="R59">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <f t="shared" si="8"/>
+        <v>58.39285714285716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666696</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60">
         <v>66.795000000000002</v>
@@ -4253,40 +4493,43 @@
       <c r="D60" t="s">
         <v>10</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>-44.504999999999995</v>
+      <c r="E60" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.9949999999999974</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G60">
+        <v>10.71</v>
+      </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J60">
-        <v>111.3</v>
+        <f t="shared" si="10"/>
+        <v>0.81613928571428596</v>
+      </c>
+      <c r="J60" s="10">
+        <v>79.5</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
-      <c r="L60">
-        <f t="shared" si="1"/>
+      <c r="L60" s="10">
+        <f t="shared" si="2"/>
         <v>16.69875</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="2"/>
-        <v>-11.126249999999999</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="5"/>
-        <v>632.4</v>
-      </c>
-      <c r="O60">
+      <c r="M60" s="10">
         <f t="shared" si="3"/>
+        <v>-0.49874999999999936</v>
+      </c>
+      <c r="N60" s="10">
+        <f t="shared" si="6"/>
+        <v>19.875</v>
+      </c>
+      <c r="O60" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P60">
@@ -4298,13 +4541,17 @@
       <c r="R60">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <f t="shared" si="8"/>
+        <v>56.785714285714292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333304</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>60.66</v>
@@ -4312,40 +4559,43 @@
       <c r="D61" t="s">
         <v>10</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>-34.14</v>
+      <c r="E61" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.51428571428572578</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G61">
+        <v>6.54</v>
+      </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J61">
-        <v>94.8</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J61" s="10">
+        <v>67.714285714285722</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
       </c>
-      <c r="L61">
-        <f t="shared" si="1"/>
+      <c r="L61" s="10">
+        <f t="shared" si="2"/>
         <v>15.164999999999999</v>
       </c>
-      <c r="M61">
-        <f t="shared" si="2"/>
-        <v>-8.5350000000000001</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="5"/>
-        <v>656.1</v>
-      </c>
-      <c r="O61">
+      <c r="M61" s="10">
         <f t="shared" si="3"/>
+        <v>-0.12857142857143145</v>
+      </c>
+      <c r="N61" s="10">
+        <f t="shared" si="6"/>
+        <v>16.928571428571431</v>
+      </c>
+      <c r="O61" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P61">
@@ -4357,23 +4607,27 @@
       <c r="R61">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <f t="shared" si="8"/>
+        <v>48.367346938775519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C62">
         <v>63.765000000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>-26.234999999999999</v>
+        <v>9</v>
+      </c>
+      <c r="E62" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.52071428571429124</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>0</v>
@@ -4382,29 +4636,29 @@
         <v>48</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J62">
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J62" s="10">
+        <v>64.285714285714292</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
       </c>
-      <c r="L62">
-        <f t="shared" si="1"/>
+      <c r="L62" s="10">
+        <f t="shared" si="2"/>
         <v>15.94125</v>
       </c>
-      <c r="M62">
-        <f t="shared" si="2"/>
-        <v>-6.5587499999999999</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="5"/>
-        <v>678.6</v>
-      </c>
-      <c r="O62">
+      <c r="M62" s="10">
         <f t="shared" si="3"/>
+        <v>-0.13017857142857281</v>
+      </c>
+      <c r="N62" s="10">
+        <f t="shared" si="6"/>
+        <v>16.071428571428573</v>
+      </c>
+      <c r="O62" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P62">
@@ -4416,54 +4670,58 @@
       <c r="R62">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <f t="shared" si="8"/>
+        <v>45.91836734693878</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666696</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>63.480000000000004</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>-22.769999999999996</v>
+        <v>9</v>
+      </c>
+      <c r="E63" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8728571428571428</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="s">
         <v>48</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J63">
-        <v>86.25</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J63" s="10">
+        <v>61.607142857142861</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
       </c>
-      <c r="L63">
-        <f t="shared" si="1"/>
+      <c r="L63" s="10">
+        <f t="shared" si="2"/>
         <v>15.870000000000001</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="2"/>
-        <v>-5.692499999999999</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="5"/>
-        <v>700.16250000000002</v>
-      </c>
-      <c r="O63">
+      <c r="M63" s="10">
         <f t="shared" si="3"/>
+        <v>0.46821428571428569</v>
+      </c>
+      <c r="N63" s="10">
+        <f t="shared" si="6"/>
+        <v>15.401785714285715</v>
+      </c>
+      <c r="O63" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P63">
@@ -4475,54 +4733,58 @@
       <c r="R63">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <f t="shared" si="8"/>
+        <v>44.005102040816332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333304</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>62.67</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>-22.83</v>
+        <v>9</v>
+      </c>
+      <c r="E64" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5985714285714252</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" t="s">
         <v>48</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J64">
-        <v>85.5</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J64" s="10">
+        <v>61.071428571428577</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
       </c>
-      <c r="L64">
-        <f t="shared" si="1"/>
+      <c r="L64" s="10">
+        <f t="shared" si="2"/>
         <v>15.6675</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="2"/>
-        <v>-5.7074999999999996</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="5"/>
-        <v>721.53750000000002</v>
-      </c>
-      <c r="O64">
+      <c r="M64" s="10">
         <f t="shared" si="3"/>
+        <v>0.3996428571428563</v>
+      </c>
+      <c r="N64" s="10">
+        <f t="shared" si="6"/>
+        <v>15.267857142857144</v>
+      </c>
+      <c r="O64" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P64">
@@ -4534,54 +4796,58 @@
       <c r="R64">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <f t="shared" si="8"/>
+        <v>43.622448979591844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>62.550000000000004</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>-20.399999999999999</v>
+        <v>9</v>
+      </c>
+      <c r="E65" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2999999999999972</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
         <v>48</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J65">
-        <v>82.95</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J65" s="10">
+        <v>59.250000000000007</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
       </c>
-      <c r="L65">
-        <f t="shared" si="1"/>
+      <c r="L65" s="10">
+        <f t="shared" si="2"/>
         <v>15.637500000000001</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="2"/>
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="5"/>
-        <v>742.27499999999998</v>
-      </c>
-      <c r="O65">
+      <c r="M65" s="10">
         <f t="shared" si="3"/>
+        <v>0.82499999999999929</v>
+      </c>
+      <c r="N65" s="10">
+        <f t="shared" si="6"/>
+        <v>14.812500000000002</v>
+      </c>
+      <c r="O65" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P65">
@@ -4593,54 +4859,58 @@
       <c r="R65">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <f t="shared" si="8"/>
+        <v>42.321428571428577</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666696</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>55.755000000000003</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>-17.895000000000003</v>
+        <v>9</v>
+      </c>
+      <c r="E66" s="11">
+        <f t="shared" si="1"/>
+        <v>3.1478571428571414</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
         <v>48</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J66">
-        <v>73.650000000000006</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J66" s="10">
+        <v>52.607142857142861</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="1"/>
+      <c r="L66" s="10">
+        <f t="shared" si="2"/>
         <v>13.938750000000001</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="2"/>
-        <v>-4.4737500000000008</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="5"/>
-        <v>760.6875</v>
-      </c>
-      <c r="O66">
+      <c r="M66" s="10">
         <f t="shared" si="3"/>
+        <v>0.78696428571428534</v>
+      </c>
+      <c r="N66" s="10">
+        <f t="shared" si="6"/>
+        <v>13.151785714285715</v>
+      </c>
+      <c r="O66" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P66">
@@ -4652,54 +4922,58 @@
       <c r="R66">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <f t="shared" si="8"/>
+        <v>37.576530612244902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333304</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>59.429999999999993</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E97" si="9">C67-J67+G67</f>
-        <v>-4.1700000000000088</v>
+        <v>9</v>
+      </c>
+      <c r="E67" s="11">
+        <f t="shared" ref="E67:E97" si="11">C67-J67+G67</f>
+        <v>14.001428571428562</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H67" t="s">
         <v>48</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J67">
-        <v>63.6</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J67" s="10">
+        <v>45.428571428571431</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L97" si="10">C67*0.25</f>
+      <c r="L67" s="10">
+        <f t="shared" ref="L67:L97" si="12">C67*0.25</f>
         <v>14.857499999999998</v>
       </c>
-      <c r="M67">
-        <f t="shared" ref="M67:M97" si="11">E67*0.25</f>
-        <v>-1.0425000000000022</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="5"/>
-        <v>776.58749999999998</v>
-      </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O97" si="12">ABS(G67)*0.25</f>
+      <c r="M67" s="10">
+        <f t="shared" ref="M67:M97" si="13">E67*0.25</f>
+        <v>3.5003571428571405</v>
+      </c>
+      <c r="N67" s="10">
+        <f t="shared" si="6"/>
+        <v>11.357142857142858</v>
+      </c>
+      <c r="O67" s="10">
+        <f t="shared" ref="O67:O97" si="14">IF(G67&lt;0,ABS(G67)*0.25,0)</f>
         <v>0</v>
       </c>
       <c r="P67">
@@ -4711,8 +4985,12 @@
       <c r="R67">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <f t="shared" si="8"/>
+        <v>32.448979591836739</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -4725,9 +5003,9 @@
       <c r="D68" t="s">
         <v>9</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="9"/>
-        <v>0.26999999999999602</v>
+      <c r="E68" s="11">
+        <f t="shared" si="11"/>
+        <v>16.298571428571421</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>3</v>
@@ -4736,29 +5014,29 @@
         <v>48</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J68">
-        <v>56.1</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J68" s="10">
+        <v>40.071428571428577</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="10"/>
+      <c r="L68" s="10">
+        <f t="shared" si="12"/>
         <v>14.092499999999999</v>
       </c>
-      <c r="M68">
-        <f t="shared" si="11"/>
-        <v>6.7499999999999005E-2</v>
-      </c>
-      <c r="N68">
-        <f t="shared" ref="N68:N97" si="13">J68*0.25+N67</f>
-        <v>790.61249999999995</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="12"/>
+      <c r="M68" s="10">
+        <f t="shared" si="13"/>
+        <v>4.0746428571428552</v>
+      </c>
+      <c r="N68" s="10">
+        <f t="shared" ref="N68:N97" si="15">J68*0.25</f>
+        <v>10.017857142857144</v>
+      </c>
+      <c r="O68" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P68">
@@ -4770,8 +5048,12 @@
       <c r="R68">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <f t="shared" si="8"/>
+        <v>28.622448979591841</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666696</v>
       </c>
@@ -4784,9 +5066,9 @@
       <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="9"/>
-        <v>9.8100000000000023</v>
+      <c r="E69" s="11">
+        <f t="shared" si="11"/>
+        <v>22.238571428571429</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>3</v>
@@ -4795,29 +5077,29 @@
         <v>48</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J69">
-        <v>43.5</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J69" s="10">
+        <v>31.071428571428573</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="10"/>
+      <c r="L69" s="10">
+        <f t="shared" si="12"/>
         <v>13.327500000000001</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="11"/>
-        <v>2.4525000000000006</v>
-      </c>
-      <c r="N69">
+      <c r="M69" s="10">
         <f t="shared" si="13"/>
-        <v>801.48749999999995</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="12"/>
+        <v>5.5596428571428573</v>
+      </c>
+      <c r="N69" s="10">
+        <f t="shared" si="15"/>
+        <v>7.7678571428571432</v>
+      </c>
+      <c r="O69" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P69">
@@ -4829,8 +5111,12 @@
       <c r="R69">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <f t="shared" si="8"/>
+        <v>22.19387755102041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333304</v>
       </c>
@@ -4843,9 +5129,9 @@
       <c r="D70" t="s">
         <v>9</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="9"/>
-        <v>18.240000000000002</v>
+      <c r="E70" s="11">
+        <f t="shared" si="11"/>
+        <v>29.125714285714288</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>3</v>
@@ -4854,29 +5140,29 @@
         <v>48</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J70">
-        <v>38.1</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J70" s="10">
+        <v>27.214285714285715</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="10"/>
+      <c r="L70" s="10">
+        <f t="shared" si="12"/>
         <v>14.085000000000001</v>
       </c>
-      <c r="M70">
-        <f t="shared" si="11"/>
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="N70">
+      <c r="M70" s="10">
         <f t="shared" si="13"/>
-        <v>811.01249999999993</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="12"/>
+        <v>7.281428571428572</v>
+      </c>
+      <c r="N70" s="10">
+        <f t="shared" si="15"/>
+        <v>6.8035714285714288</v>
+      </c>
+      <c r="O70" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P70">
@@ -4888,8 +5174,12 @@
       <c r="R70">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <f t="shared" si="8"/>
+        <v>19.438775510204085</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -4902,9 +5192,9 @@
       <c r="D71" t="s">
         <v>9</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="9"/>
-        <v>19.829999999999998</v>
+      <c r="E71" s="11">
+        <f t="shared" si="11"/>
+        <v>29.687142857142852</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>3</v>
@@ -4913,29 +5203,29 @@
         <v>48</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J71">
-        <v>34.5</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J71" s="10">
+        <v>24.642857142857146</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
       </c>
-      <c r="L71">
-        <f t="shared" si="10"/>
+      <c r="L71" s="10">
+        <f t="shared" si="12"/>
         <v>13.5825</v>
       </c>
-      <c r="M71">
-        <f t="shared" si="11"/>
-        <v>4.9574999999999996</v>
-      </c>
-      <c r="N71">
+      <c r="M71" s="10">
         <f t="shared" si="13"/>
-        <v>819.63749999999993</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="12"/>
+        <v>7.4217857142857131</v>
+      </c>
+      <c r="N71" s="10">
+        <f t="shared" si="15"/>
+        <v>6.1607142857142865</v>
+      </c>
+      <c r="O71" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P71">
@@ -4947,8 +5237,12 @@
       <c r="R71">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <f t="shared" si="8"/>
+        <v>17.602040816326532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666696</v>
       </c>
@@ -4961,9 +5255,9 @@
       <c r="D72" t="s">
         <v>9</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="9"/>
-        <v>22.200000000000003</v>
+      <c r="E72" s="11">
+        <f t="shared" si="11"/>
+        <v>29.871428571428574</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>3</v>
@@ -4972,29 +5266,29 @@
         <v>48</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J72">
-        <v>26.85</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J72" s="10">
+        <v>19.178571428571431</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
       </c>
-      <c r="L72">
-        <f t="shared" si="10"/>
+      <c r="L72" s="10">
+        <f t="shared" si="12"/>
         <v>12.262500000000001</v>
       </c>
-      <c r="M72">
-        <f t="shared" si="11"/>
-        <v>5.5500000000000007</v>
-      </c>
-      <c r="N72">
+      <c r="M72" s="10">
         <f t="shared" si="13"/>
-        <v>826.34999999999991</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="12"/>
+        <v>7.4678571428571434</v>
+      </c>
+      <c r="N72" s="10">
+        <f t="shared" si="15"/>
+        <v>4.7946428571428577</v>
+      </c>
+      <c r="O72" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P72">
@@ -5006,8 +5300,12 @@
       <c r="R72">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <f t="shared" si="8"/>
+        <v>13.698979591836737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333304</v>
       </c>
@@ -5020,9 +5318,9 @@
       <c r="D73" t="s">
         <v>9</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="9"/>
-        <v>27.060000000000002</v>
+      <c r="E73" s="11">
+        <f t="shared" si="11"/>
+        <v>33.488571428571433</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>3</v>
@@ -5031,29 +5329,29 @@
         <v>48</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J73">
-        <v>22.5</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J73" s="10">
+        <v>16.071428571428573</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
       </c>
-      <c r="L73">
-        <f t="shared" si="10"/>
+      <c r="L73" s="10">
+        <f t="shared" si="12"/>
         <v>12.39</v>
       </c>
-      <c r="M73">
-        <f t="shared" si="11"/>
-        <v>6.7650000000000006</v>
-      </c>
-      <c r="N73">
+      <c r="M73" s="10">
         <f t="shared" si="13"/>
-        <v>831.97499999999991</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="12"/>
+        <v>8.3721428571428582</v>
+      </c>
+      <c r="N73" s="10">
+        <f t="shared" si="15"/>
+        <v>4.0178571428571432</v>
+      </c>
+      <c r="O73" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P73">
@@ -5065,8 +5363,12 @@
       <c r="R73">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <f t="shared" si="8"/>
+        <v>11.479591836734695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -5079,9 +5381,9 @@
       <c r="D74" t="s">
         <v>9</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="9"/>
-        <v>26.085000000000001</v>
+      <c r="E74" s="11">
+        <f t="shared" si="11"/>
+        <v>31.442142857142855</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>3</v>
@@ -5090,29 +5392,29 @@
         <v>48</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="8"/>
-        <v>0.94990000000000019</v>
-      </c>
-      <c r="J74">
-        <v>18.75</v>
+        <f t="shared" si="10"/>
+        <v>0.83248928571428593</v>
+      </c>
+      <c r="J74" s="10">
+        <v>13.392857142857144</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="10"/>
+      <c r="L74" s="10">
+        <f t="shared" si="12"/>
         <v>11.20875</v>
       </c>
-      <c r="M74">
-        <f t="shared" si="11"/>
-        <v>6.5212500000000002</v>
-      </c>
-      <c r="N74">
+      <c r="M74" s="10">
         <f t="shared" si="13"/>
-        <v>836.66249999999991</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="12"/>
+        <v>7.8605357142857137</v>
+      </c>
+      <c r="N74" s="10">
+        <f t="shared" si="15"/>
+        <v>3.348214285714286</v>
+      </c>
+      <c r="O74" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P74">
@@ -5124,8 +5426,12 @@
       <c r="R74">
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <f t="shared" si="8"/>
+        <v>9.5663265306122458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666696</v>
       </c>
@@ -5138,43 +5444,43 @@
       <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="9"/>
+      <c r="E75" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75">
-        <f t="shared" ref="G75:G77" si="14">J75-C75</f>
-        <v>-29.130000000000003</v>
+        <f t="shared" ref="G75:G77" si="16">J75-C75</f>
+        <v>-33.158571428571435</v>
       </c>
       <c r="H75" t="s">
         <v>5</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="8"/>
-        <v>0.87707500000000016</v>
-      </c>
-      <c r="J75">
-        <v>14.1</v>
+        <f t="shared" si="10"/>
+        <v>0.74959285714285739</v>
+      </c>
+      <c r="J75" s="10">
+        <v>10.071428571428571</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
       </c>
-      <c r="L75">
-        <f t="shared" si="10"/>
+      <c r="L75" s="10">
+        <f t="shared" si="12"/>
         <v>10.807500000000001</v>
       </c>
-      <c r="M75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N75">
+      <c r="M75" s="10">
         <f t="shared" si="13"/>
-        <v>840.18749999999989</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="12"/>
-        <v>7.2825000000000006</v>
+        <v>0</v>
+      </c>
+      <c r="N75" s="10">
+        <f t="shared" si="15"/>
+        <v>2.5178571428571428</v>
+      </c>
+      <c r="O75" s="10">
+        <f t="shared" si="14"/>
+        <v>8.2896428571428586</v>
       </c>
       <c r="P75">
         <v>8.2000000000000003E-2</v>
@@ -5185,8 +5491,12 @@
       <c r="R75">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U75">
+        <f t="shared" si="8"/>
+        <v>7.1938775510204085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333304</v>
       </c>
@@ -5199,43 +5509,43 @@
       <c r="D76" t="s">
         <v>19</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="9"/>
+      <c r="E76" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76">
-        <f t="shared" si="14"/>
-        <v>-27.810000000000002</v>
+        <f t="shared" si="16"/>
+        <v>-30.981428571428573</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="8"/>
-        <v>0.80755000000000021</v>
-      </c>
-      <c r="J76">
-        <v>11.1</v>
+        <f t="shared" si="10"/>
+        <v>0.67213928571428594</v>
+      </c>
+      <c r="J76" s="10">
+        <v>7.9285714285714288</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
       </c>
-      <c r="L76">
-        <f t="shared" si="10"/>
+      <c r="L76" s="10">
+        <f t="shared" si="12"/>
         <v>9.7275000000000009</v>
       </c>
-      <c r="M76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N76">
+      <c r="M76" s="10">
         <f t="shared" si="13"/>
-        <v>842.96249999999986</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="12"/>
-        <v>6.9525000000000006</v>
+        <v>0</v>
+      </c>
+      <c r="N76" s="10">
+        <f t="shared" si="15"/>
+        <v>1.9821428571428572</v>
+      </c>
+      <c r="O76" s="10">
+        <f t="shared" si="14"/>
+        <v>7.7453571428571433</v>
       </c>
       <c r="P76">
         <v>8.5999999999999993E-2</v>
@@ -5246,8 +5556,12 @@
       <c r="R76">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <f t="shared" si="8"/>
+        <v>5.6632653061224492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -5260,43 +5574,43 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="9"/>
+      <c r="E77" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77">
-        <f t="shared" si="14"/>
-        <v>-33.36</v>
+        <f t="shared" si="16"/>
+        <v>-35.46</v>
       </c>
       <c r="H77" t="s">
         <v>5</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="8"/>
-        <v>0.72415000000000018</v>
-      </c>
-      <c r="J77">
-        <v>7.35</v>
+        <f t="shared" si="10"/>
+        <v>0.58348928571428593</v>
+      </c>
+      <c r="J77" s="10">
+        <v>5.25</v>
       </c>
       <c r="K77" t="s">
         <v>17</v>
       </c>
-      <c r="L77">
-        <f t="shared" si="10"/>
+      <c r="L77" s="10">
+        <f t="shared" si="12"/>
         <v>10.1775</v>
       </c>
-      <c r="M77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N77">
+      <c r="M77" s="10">
         <f t="shared" si="13"/>
-        <v>844.79999999999984</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="12"/>
-        <v>8.34</v>
+        <v>0</v>
+      </c>
+      <c r="N77" s="10">
+        <f t="shared" si="15"/>
+        <v>1.3125</v>
+      </c>
+      <c r="O77" s="10">
+        <f t="shared" si="14"/>
+        <v>8.8650000000000002</v>
       </c>
       <c r="P77">
         <v>0.09</v>
@@ -5307,8 +5621,12 @@
       <c r="R77">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <f t="shared" si="8"/>
+        <v>3.7500000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666696</v>
       </c>
@@ -5321,43 +5639,43 @@
       <c r="D78" t="s">
         <v>19</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="9"/>
+      <c r="E78" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78">
         <f>J78-C78</f>
-        <v>-28.754999999999999</v>
+        <v>-29.697857142857142</v>
       </c>
       <c r="H78" t="s">
         <v>5</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="8"/>
-        <v>0.65226250000000019</v>
-      </c>
-      <c r="J78">
-        <v>3.3</v>
+        <f t="shared" si="10"/>
+        <v>0.5092446428571431</v>
+      </c>
+      <c r="J78" s="10">
+        <v>2.3571428571428572</v>
       </c>
       <c r="K78" t="s">
         <v>17</v>
       </c>
-      <c r="L78">
-        <f t="shared" si="10"/>
+      <c r="L78" s="10">
+        <f t="shared" si="12"/>
         <v>8.0137499999999999</v>
       </c>
-      <c r="M78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N78">
+      <c r="M78" s="10">
         <f t="shared" si="13"/>
-        <v>845.62499999999989</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="12"/>
-        <v>7.1887499999999998</v>
+        <v>0</v>
+      </c>
+      <c r="N78" s="10">
+        <f t="shared" si="15"/>
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="O78" s="10">
+        <f t="shared" si="14"/>
+        <v>7.4244642857142855</v>
       </c>
       <c r="P78">
         <v>9.4E-2</v>
@@ -5368,8 +5686,12 @@
       <c r="R78">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <f t="shared" si="8"/>
+        <v>1.6836734693877553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333304</v>
       </c>
@@ -5382,43 +5704,43 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="9"/>
+      <c r="E79" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79">
-        <f t="shared" ref="G79:G84" si="15">J79-C79</f>
-        <v>-31.274999999999999</v>
+        <f t="shared" ref="G79:G84" si="17">J79-C79</f>
+        <v>-31.960714285714282</v>
       </c>
       <c r="H79" t="s">
         <v>5</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="8"/>
-        <v>0.57407500000000022</v>
-      </c>
-      <c r="J79">
-        <v>2.4</v>
+        <f t="shared" si="10"/>
+        <v>0.42934285714285741</v>
+      </c>
+      <c r="J79" s="10">
+        <v>1.7142857142857144</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
       </c>
-      <c r="L79">
-        <f t="shared" si="10"/>
+      <c r="L79" s="10">
+        <f t="shared" si="12"/>
         <v>8.4187499999999993</v>
       </c>
-      <c r="M79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N79">
+      <c r="M79" s="10">
         <f t="shared" si="13"/>
-        <v>846.22499999999991</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="12"/>
-        <v>7.8187499999999996</v>
+        <v>0</v>
+      </c>
+      <c r="N79" s="10">
+        <f t="shared" si="15"/>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="O79" s="10">
+        <f t="shared" si="14"/>
+        <v>7.9901785714285705</v>
       </c>
       <c r="P79">
         <v>9.6000000000000002E-2</v>
@@ -5429,8 +5751,12 @@
       <c r="R79">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U79">
+        <f t="shared" si="8"/>
+        <v>1.2244897959183676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -5443,43 +5769,43 @@
       <c r="D80" t="s">
         <v>19</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="9"/>
+      <c r="E80" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80">
-        <f t="shared" si="15"/>
-        <v>-31.11</v>
+        <f t="shared" si="17"/>
+        <v>-31.538571428571426</v>
       </c>
       <c r="H80" t="s">
         <v>5</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="8"/>
-        <v>0.49630000000000024</v>
-      </c>
-      <c r="J80">
-        <v>1.5</v>
+        <f t="shared" si="10"/>
+        <v>0.35049642857142882</v>
+      </c>
+      <c r="J80" s="10">
+        <v>1.0714285714285714</v>
       </c>
       <c r="K80" t="s">
         <v>17</v>
       </c>
-      <c r="L80">
-        <f t="shared" si="10"/>
+      <c r="L80" s="10">
+        <f t="shared" si="12"/>
         <v>8.1524999999999999</v>
       </c>
-      <c r="M80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N80">
+      <c r="M80" s="10">
         <f t="shared" si="13"/>
-        <v>846.59999999999991</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="12"/>
-        <v>7.7774999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="N80" s="10">
+        <f t="shared" si="15"/>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="O80" s="10">
+        <f t="shared" si="14"/>
+        <v>7.8846428571428566</v>
       </c>
       <c r="P80">
         <v>9.8000000000000004E-2</v>
@@ -5490,8 +5816,12 @@
       <c r="R80">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U80">
+        <f t="shared" si="8"/>
+        <v>0.76530612244897966</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666696</v>
       </c>
@@ -5504,43 +5834,43 @@
       <c r="D81" t="s">
         <v>19</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="9"/>
+      <c r="E81" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81">
-        <f t="shared" si="15"/>
-        <v>-26.355000000000004</v>
+        <f t="shared" si="17"/>
+        <v>-26.61214285714286</v>
       </c>
       <c r="H81" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="8"/>
-        <v>0.4304125000000002</v>
-      </c>
-      <c r="J81">
-        <v>0.9</v>
+        <f t="shared" si="10"/>
+        <v>0.28396607142857166</v>
+      </c>
+      <c r="J81" s="10">
+        <v>0.6428571428571429</v>
       </c>
       <c r="K81" t="s">
         <v>17</v>
       </c>
-      <c r="L81">
-        <f t="shared" si="10"/>
+      <c r="L81" s="10">
+        <f t="shared" si="12"/>
         <v>6.8137500000000006</v>
       </c>
-      <c r="M81">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N81">
+      <c r="M81" s="10">
         <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="12"/>
-        <v>6.588750000000001</v>
+        <v>0</v>
+      </c>
+      <c r="N81" s="10">
+        <f t="shared" si="15"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="O81" s="10">
+        <f t="shared" si="14"/>
+        <v>6.6530357142857151</v>
       </c>
       <c r="P81">
         <v>0.1</v>
@@ -5551,8 +5881,12 @@
       <c r="R81">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <f t="shared" si="8"/>
+        <v>0.45918367346938782</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333304</v>
       </c>
@@ -5565,44 +5899,44 @@
       <c r="D82" t="s">
         <v>7</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="9"/>
+      <c r="E82" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-27.39</v>
       </c>
       <c r="H82" t="s">
         <v>5</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="8"/>
-        <v>0.36193750000000019</v>
-      </c>
-      <c r="J82">
+        <f t="shared" si="10"/>
+        <v>0.21549107142857166</v>
+      </c>
+      <c r="J82" s="10">
         <v>0</v>
       </c>
       <c r="K82" t="s">
         <v>47</v>
       </c>
-      <c r="L82">
-        <f t="shared" si="10"/>
-        <v>6.8475000000000001</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O82">
+      <c r="L82" s="10">
         <f t="shared" si="12"/>
         <v>6.8475000000000001</v>
       </c>
+      <c r="M82" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="10">
+        <f t="shared" si="14"/>
+        <v>6.8475000000000001</v>
+      </c>
       <c r="P82">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -5612,8 +5946,12 @@
       <c r="R82">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -5626,44 +5964,43 @@
       <c r="D83" t="s">
         <v>7</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="E83" s="11">
+        <f t="shared" si="11"/>
+        <v>14.900000000000002</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83">
-        <f t="shared" si="15"/>
-        <v>-26.130000000000003</v>
+        <v>-11.23</v>
       </c>
       <c r="H83" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="8"/>
-        <v>0.29661250000000017</v>
-      </c>
-      <c r="J83">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J83" s="10">
         <v>0</v>
       </c>
       <c r="K83" t="s">
         <v>47</v>
       </c>
-      <c r="L83">
-        <f t="shared" si="10"/>
-        <v>6.5325000000000006</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O83">
+      <c r="L83" s="10">
         <f t="shared" si="12"/>
         <v>6.5325000000000006</v>
       </c>
+      <c r="M83" s="10">
+        <f t="shared" si="13"/>
+        <v>3.7250000000000005</v>
+      </c>
+      <c r="N83" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="10">
+        <f t="shared" si="14"/>
+        <v>2.8075000000000001</v>
+      </c>
       <c r="P83">
         <v>8.5999999999999993E-2</v>
       </c>
@@ -5673,58 +6010,60 @@
       <c r="R83">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666696</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84">
         <v>25.650000000000002</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84">
-        <f t="shared" si="15"/>
-        <v>-25.650000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="11"/>
+        <v>25.650000000000002</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J84">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J84" s="10">
         <v>0</v>
       </c>
       <c r="K84" t="s">
         <v>47</v>
       </c>
-      <c r="L84">
-        <f t="shared" si="10"/>
-        <v>6.4125000000000005</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O84">
+      <c r="L84" s="10">
         <f t="shared" si="12"/>
         <v>6.4125000000000005</v>
       </c>
+      <c r="M84" s="10">
+        <f t="shared" si="13"/>
+        <v>6.4125000000000005</v>
+      </c>
+      <c r="N84" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="P84">
         <v>0.08</v>
       </c>
@@ -5734,8 +6073,12 @@
       <c r="R84">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333304</v>
       </c>
@@ -5748,8 +6091,8 @@
       <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="9"/>
+      <c r="E85" s="11">
+        <f t="shared" si="11"/>
         <v>24.630000000000003</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -5759,29 +6102,29 @@
         <v>48</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J85">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J85" s="10">
         <v>0</v>
       </c>
       <c r="K85" t="s">
         <v>47</v>
       </c>
-      <c r="L85">
-        <f t="shared" si="10"/>
+      <c r="L85" s="10">
+        <f t="shared" si="12"/>
         <v>6.1575000000000006</v>
       </c>
-      <c r="M85">
-        <f t="shared" si="11"/>
+      <c r="M85" s="10">
+        <f t="shared" si="13"/>
         <v>6.1575000000000006</v>
       </c>
-      <c r="N85">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="12"/>
+      <c r="N85" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P85">
@@ -5793,8 +6136,12 @@
       <c r="R85">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -5807,8 +6154,8 @@
       <c r="D86" t="s">
         <v>8</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="9"/>
+      <c r="E86" s="11">
+        <f t="shared" si="11"/>
         <v>21.72</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -5818,29 +6165,29 @@
         <v>48</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J86">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J86" s="10">
         <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>47</v>
       </c>
-      <c r="L86">
-        <f t="shared" si="10"/>
+      <c r="L86" s="10">
+        <f t="shared" si="12"/>
         <v>5.43</v>
       </c>
-      <c r="M86">
-        <f t="shared" si="11"/>
+      <c r="M86" s="10">
+        <f t="shared" si="13"/>
         <v>5.43</v>
       </c>
-      <c r="N86">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="12"/>
+      <c r="N86" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P86">
@@ -5852,8 +6199,12 @@
       <c r="R86">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666696</v>
       </c>
@@ -5866,8 +6217,8 @@
       <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="9"/>
+      <c r="E87" s="11">
+        <f t="shared" si="11"/>
         <v>18.240000000000002</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -5877,29 +6228,29 @@
         <v>48</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J87">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J87" s="10">
         <v>0</v>
       </c>
       <c r="K87" t="s">
         <v>47</v>
       </c>
-      <c r="L87">
-        <f t="shared" si="10"/>
+      <c r="L87" s="10">
+        <f t="shared" si="12"/>
         <v>4.5600000000000005</v>
       </c>
-      <c r="M87">
-        <f t="shared" si="11"/>
+      <c r="M87" s="10">
+        <f t="shared" si="13"/>
         <v>4.5600000000000005</v>
       </c>
-      <c r="N87">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="12"/>
+      <c r="N87" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P87">
@@ -5911,8 +6262,12 @@
       <c r="R87">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333304</v>
       </c>
@@ -5925,8 +6280,8 @@
       <c r="D88" t="s">
         <v>8</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="9"/>
+      <c r="E88" s="11">
+        <f t="shared" si="11"/>
         <v>17.46</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -5936,29 +6291,29 @@
         <v>48</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J88">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J88" s="10">
         <v>0</v>
       </c>
       <c r="K88" t="s">
         <v>47</v>
       </c>
-      <c r="L88">
-        <f t="shared" si="10"/>
+      <c r="L88" s="10">
+        <f t="shared" si="12"/>
         <v>4.3650000000000002</v>
       </c>
-      <c r="M88">
-        <f t="shared" si="11"/>
+      <c r="M88" s="10">
+        <f t="shared" si="13"/>
         <v>4.3650000000000002</v>
       </c>
-      <c r="N88">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="12"/>
+      <c r="N88" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P88">
@@ -5970,8 +6325,12 @@
       <c r="R88">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -5984,8 +6343,8 @@
       <c r="D89" t="s">
         <v>8</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="9"/>
+      <c r="E89" s="11">
+        <f t="shared" si="11"/>
         <v>14.475000000000001</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -5995,29 +6354,29 @@
         <v>48</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J89">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J89" s="10">
         <v>0</v>
       </c>
       <c r="K89" t="s">
         <v>47</v>
       </c>
-      <c r="L89">
-        <f t="shared" si="10"/>
+      <c r="L89" s="10">
+        <f t="shared" si="12"/>
         <v>3.6187500000000004</v>
       </c>
-      <c r="M89">
-        <f t="shared" si="11"/>
+      <c r="M89" s="10">
+        <f t="shared" si="13"/>
         <v>3.6187500000000004</v>
       </c>
-      <c r="N89">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="12"/>
+      <c r="N89" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P89">
@@ -6029,8 +6388,12 @@
       <c r="R89">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666696</v>
       </c>
@@ -6043,8 +6406,8 @@
       <c r="D90" t="s">
         <v>8</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="9"/>
+      <c r="E90" s="11">
+        <f t="shared" si="11"/>
         <v>10.83</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -6054,29 +6417,29 @@
         <v>48</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J90">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J90" s="10">
         <v>0</v>
       </c>
       <c r="K90" t="s">
         <v>47</v>
       </c>
-      <c r="L90">
-        <f t="shared" si="10"/>
+      <c r="L90" s="10">
+        <f t="shared" si="12"/>
         <v>2.7075</v>
       </c>
-      <c r="M90">
-        <f t="shared" si="11"/>
+      <c r="M90" s="10">
+        <f t="shared" si="13"/>
         <v>2.7075</v>
       </c>
-      <c r="N90">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="12"/>
+      <c r="N90" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P90">
@@ -6088,8 +6451,12 @@
       <c r="R90">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333304</v>
       </c>
@@ -6102,8 +6469,8 @@
       <c r="D91" t="s">
         <v>8</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="9"/>
+      <c r="E91" s="11">
+        <f t="shared" si="11"/>
         <v>10.845000000000001</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -6113,29 +6480,29 @@
         <v>48</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J91">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J91" s="10">
         <v>0</v>
       </c>
       <c r="K91" t="s">
         <v>47</v>
       </c>
-      <c r="L91">
-        <f t="shared" si="10"/>
+      <c r="L91" s="10">
+        <f t="shared" si="12"/>
         <v>2.7112500000000002</v>
       </c>
-      <c r="M91">
-        <f t="shared" si="11"/>
+      <c r="M91" s="10">
+        <f t="shared" si="13"/>
         <v>2.7112500000000002</v>
       </c>
-      <c r="N91">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="12"/>
+      <c r="N91" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P91">
@@ -6147,8 +6514,12 @@
       <c r="R91">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -6161,8 +6532,8 @@
       <c r="D92" t="s">
         <v>8</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="9"/>
+      <c r="E92" s="11">
+        <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -6172,29 +6543,29 @@
         <v>48</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J92">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J92" s="10">
         <v>0</v>
       </c>
       <c r="K92" t="s">
         <v>47</v>
       </c>
-      <c r="L92">
-        <f t="shared" si="10"/>
+      <c r="L92" s="10">
+        <f t="shared" si="12"/>
         <v>2.625</v>
       </c>
-      <c r="M92">
-        <f t="shared" si="11"/>
+      <c r="M92" s="10">
+        <f t="shared" si="13"/>
         <v>2.625</v>
       </c>
-      <c r="N92">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="12"/>
+      <c r="N92" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P92">
@@ -6206,8 +6577,12 @@
       <c r="R92">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666696</v>
       </c>
@@ -6220,8 +6595,8 @@
       <c r="D93" t="s">
         <v>8</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="9"/>
+      <c r="E93" s="11">
+        <f t="shared" si="11"/>
         <v>10.23</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -6231,29 +6606,29 @@
         <v>48</v>
       </c>
       <c r="I93" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J93">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J93" s="10">
         <v>0</v>
       </c>
       <c r="K93" t="s">
         <v>47</v>
       </c>
-      <c r="L93">
-        <f t="shared" si="10"/>
+      <c r="L93" s="10">
+        <f t="shared" si="12"/>
         <v>2.5575000000000001</v>
       </c>
-      <c r="M93">
-        <f t="shared" si="11"/>
+      <c r="M93" s="10">
+        <f t="shared" si="13"/>
         <v>2.5575000000000001</v>
       </c>
-      <c r="N93">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="12"/>
+      <c r="N93" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P93">
@@ -6265,8 +6640,12 @@
       <c r="R93">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -6279,8 +6658,8 @@
       <c r="D94" t="s">
         <v>8</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="9"/>
+      <c r="E94" s="11">
+        <f t="shared" si="11"/>
         <v>9.7349999999999994</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -6290,29 +6669,29 @@
         <v>48</v>
       </c>
       <c r="I94" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J94">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J94" s="10">
         <v>0</v>
       </c>
       <c r="K94" t="s">
         <v>47</v>
       </c>
-      <c r="L94">
-        <f t="shared" si="10"/>
+      <c r="L94" s="10">
+        <f t="shared" si="12"/>
         <v>2.4337499999999999</v>
       </c>
-      <c r="M94">
-        <f t="shared" si="11"/>
+      <c r="M94" s="10">
+        <f t="shared" si="13"/>
         <v>2.4337499999999999</v>
       </c>
-      <c r="N94">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="12"/>
+      <c r="N94" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P94">
@@ -6324,8 +6703,12 @@
       <c r="R94">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -6338,8 +6721,8 @@
       <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="9"/>
+      <c r="E95" s="11">
+        <f t="shared" si="11"/>
         <v>9.69</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -6349,29 +6732,29 @@
         <v>48</v>
       </c>
       <c r="I95" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J95">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J95" s="10">
         <v>0</v>
       </c>
       <c r="K95" t="s">
         <v>47</v>
       </c>
-      <c r="L95">
-        <f t="shared" si="10"/>
+      <c r="L95" s="10">
+        <f t="shared" si="12"/>
         <v>2.4224999999999999</v>
       </c>
-      <c r="M95">
-        <f t="shared" si="11"/>
+      <c r="M95" s="10">
+        <f t="shared" si="13"/>
         <v>2.4224999999999999</v>
       </c>
-      <c r="N95">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="12"/>
+      <c r="N95" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P95">
@@ -6383,8 +6766,12 @@
       <c r="R95">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666696</v>
       </c>
@@ -6397,8 +6784,8 @@
       <c r="D96" t="s">
         <v>8</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="9"/>
+      <c r="E96" s="11">
+        <f t="shared" si="11"/>
         <v>8.0849999999999991</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -6408,29 +6795,29 @@
         <v>48</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J96">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J96" s="10">
         <v>0</v>
       </c>
       <c r="K96" t="s">
         <v>47</v>
       </c>
-      <c r="L96">
-        <f t="shared" si="10"/>
+      <c r="L96" s="10">
+        <f t="shared" si="12"/>
         <v>2.0212499999999998</v>
       </c>
-      <c r="M96">
-        <f t="shared" si="11"/>
+      <c r="M96" s="10">
+        <f t="shared" si="13"/>
         <v>2.0212499999999998</v>
       </c>
-      <c r="N96">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="12"/>
+      <c r="N96" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P96">
@@ -6442,8 +6829,12 @@
       <c r="R96">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333304</v>
       </c>
@@ -6456,8 +6847,8 @@
       <c r="D97" t="s">
         <v>8</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="9"/>
+      <c r="E97" s="11">
+        <f t="shared" si="11"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -6467,29 +6858,29 @@
         <v>48</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23248750000000018</v>
-      </c>
-      <c r="J97">
+        <f t="shared" si="10"/>
+        <v>0.18741607142857164</v>
+      </c>
+      <c r="J97" s="10">
         <v>0</v>
       </c>
       <c r="K97" t="s">
         <v>47</v>
       </c>
-      <c r="L97">
-        <f t="shared" si="10"/>
+      <c r="L97" s="10">
+        <f t="shared" si="12"/>
         <v>2.1375000000000002</v>
       </c>
-      <c r="M97">
-        <f t="shared" si="11"/>
+      <c r="M97" s="10">
+        <f t="shared" si="13"/>
         <v>2.1375000000000002</v>
       </c>
-      <c r="N97">
-        <f t="shared" si="13"/>
-        <v>846.82499999999993</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="12"/>
+      <c r="N97" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P97">
@@ -6501,8 +6892,12 @@
       <c r="R97">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F98" s="1"/>
     </row>
   </sheetData>

--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3755A59F-07F3-4BDD-BD32-78656DD2F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51531D2B-23EB-4A84-88A3-7D8F7BD38DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29415" yWindow="1515" windowWidth="21600" windowHeight="13215" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -306,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE683D1-0F20-4AA9-8E66-4B04E80D1FD0}">
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,11 +681,9 @@
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -741,7 +739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -761,6 +759,9 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2" t="s">
         <v>48</v>
       </c>
@@ -796,14 +797,10 @@
         <v>55</v>
       </c>
       <c r="R2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U49" si="0">J2/1.4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -817,11 +814,14 @@
         <v>7</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E66" si="1">C3-J3+G3</f>
+        <f t="shared" ref="E3:E66" si="0">C3-J3+G3</f>
         <v>7.7099999999999991</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
@@ -837,11 +837,11 @@
         <v>47</v>
       </c>
       <c r="L3" s="10">
-        <f t="shared" ref="L3:L66" si="2">C3*0.25</f>
+        <f t="shared" ref="L3:L66" si="1">C3*0.25</f>
         <v>1.9274999999999998</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M66" si="3">E3*0.25</f>
+        <f t="shared" ref="M3:M66" si="2">E3*0.25</f>
         <v>1.9274999999999998</v>
       </c>
       <c r="N3" s="10">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O66" si="4">IF(G3&lt;0,ABS(G3)*0.25,0)</f>
+        <f t="shared" ref="O3:O66" si="3">IF(G3&lt;0,ABS(G3)*0.25,0)</f>
         <v>0</v>
       </c>
       <c r="P3">
@@ -859,14 +859,10 @@
         <v>55</v>
       </c>
       <c r="R3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
@@ -880,17 +876,20 @@
         <v>7</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.0649999999999995</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I50" si="5">I3+G4*0.5%</f>
+        <f t="shared" ref="I4:I50" si="4">I3+G4*0.5%</f>
         <v>0.23</v>
       </c>
       <c r="J4" s="10">
@@ -900,19 +899,19 @@
         <v>47</v>
       </c>
       <c r="L4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7662499999999999</v>
+      </c>
+      <c r="M4" s="10">
         <f t="shared" si="2"/>
         <v>1.7662499999999999</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N67" si="5">J4*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
         <f t="shared" si="3"/>
-        <v>1.7662499999999999</v>
-      </c>
-      <c r="N4" s="10">
-        <f t="shared" ref="N4:N67" si="6">J4*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4">
@@ -922,14 +921,10 @@
         <v>55</v>
       </c>
       <c r="R4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -943,17 +938,20 @@
         <v>7</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.2349999999999994</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="J5" s="10">
@@ -963,19 +961,19 @@
         <v>47</v>
       </c>
       <c r="L5" s="10">
+        <f t="shared" si="1"/>
+        <v>2.0587499999999999</v>
+      </c>
+      <c r="M5" s="10">
         <f t="shared" si="2"/>
         <v>2.0587499999999999</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
         <f t="shared" si="3"/>
-        <v>2.0587499999999999</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5">
@@ -985,14 +983,10 @@
         <v>55</v>
       </c>
       <c r="R5">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -1006,17 +1000,20 @@
         <v>7</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.17</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="J6" s="10">
@@ -1026,19 +1023,19 @@
         <v>47</v>
       </c>
       <c r="L6" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7925</v>
+      </c>
+      <c r="M6" s="10">
         <f t="shared" si="2"/>
         <v>1.7925</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
         <f t="shared" si="3"/>
-        <v>1.7925</v>
-      </c>
-      <c r="N6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6">
@@ -1048,14 +1045,10 @@
         <v>55</v>
       </c>
       <c r="R6">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333301E-2</v>
       </c>
@@ -1069,17 +1062,20 @@
         <v>8</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.4700000000000006</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="J7" s="10">
@@ -1089,19 +1085,19 @@
         <v>47</v>
       </c>
       <c r="L7" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8675000000000002</v>
+      </c>
+      <c r="M7" s="10">
         <f t="shared" si="2"/>
         <v>1.8675000000000002</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
         <f t="shared" si="3"/>
-        <v>1.8675000000000002</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7">
@@ -1111,14 +1107,10 @@
         <v>55</v>
       </c>
       <c r="R7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -1132,17 +1124,20 @@
         <v>8</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.875</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="J8" s="10">
@@ -1152,19 +1147,19 @@
         <v>47</v>
       </c>
       <c r="L8" s="10">
+        <f t="shared" si="1"/>
+        <v>1.96875</v>
+      </c>
+      <c r="M8" s="10">
         <f t="shared" si="2"/>
         <v>1.96875</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
         <f t="shared" si="3"/>
-        <v>1.96875</v>
-      </c>
-      <c r="N8" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8">
@@ -1174,14 +1169,10 @@
         <v>55</v>
       </c>
       <c r="R8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666699E-2</v>
       </c>
@@ -1195,17 +1186,20 @@
         <v>8</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3349999999999991</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="J9" s="10">
@@ -1215,19 +1209,19 @@
         <v>47</v>
       </c>
       <c r="L9" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8337499999999998</v>
+      </c>
+      <c r="M9" s="10">
         <f t="shared" si="2"/>
         <v>1.8337499999999998</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
         <f t="shared" si="3"/>
-        <v>1.8337499999999998</v>
-      </c>
-      <c r="N9" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P9">
@@ -1237,14 +1231,10 @@
         <v>55</v>
       </c>
       <c r="R9">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -1258,17 +1248,20 @@
         <v>8</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3949999999999996</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="J10" s="10">
@@ -1278,19 +1271,19 @@
         <v>47</v>
       </c>
       <c r="L10" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8487499999999999</v>
+      </c>
+      <c r="M10" s="10">
         <f t="shared" si="2"/>
         <v>1.8487499999999999</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
         <f t="shared" si="3"/>
-        <v>1.8487499999999999</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10">
@@ -1300,14 +1293,10 @@
         <v>55</v>
       </c>
       <c r="R10">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -1321,17 +1310,20 @@
         <v>8</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.4399999999999995</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="H11" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="J11" s="10">
@@ -1341,19 +1333,19 @@
         <v>47</v>
       </c>
       <c r="L11" s="10">
+        <f t="shared" si="1"/>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="M11" s="10">
         <f t="shared" si="2"/>
         <v>1.8599999999999999</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
         <f t="shared" si="3"/>
-        <v>1.8599999999999999</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11">
@@ -1363,14 +1355,10 @@
         <v>55</v>
       </c>
       <c r="R11">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.104166666666667</v>
       </c>
@@ -1384,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.04</v>
       </c>
       <c r="F12" t="s">
@@ -1397,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.29075000000000001</v>
       </c>
       <c r="J12" s="10">
@@ -1407,19 +1395,19 @@
         <v>47</v>
       </c>
       <c r="L12" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9724999999999999</v>
+      </c>
+      <c r="M12" s="10">
         <f t="shared" si="2"/>
-        <v>1.9724999999999999</v>
-      </c>
-      <c r="M12" s="10">
+        <v>5.01</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
         <f t="shared" si="3"/>
-        <v>5.01</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12">
@@ -1429,14 +1417,10 @@
         <v>56</v>
       </c>
       <c r="R12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.114583333333333</v>
       </c>
@@ -1450,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.93</v>
       </c>
       <c r="F13" t="s">
@@ -1463,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.38324999999999998</v>
       </c>
       <c r="J13" s="10">
@@ -1473,19 +1457,19 @@
         <v>47</v>
       </c>
       <c r="L13" s="10">
+        <f t="shared" si="1"/>
+        <v>2.1074999999999999</v>
+      </c>
+      <c r="M13" s="10">
         <f t="shared" si="2"/>
-        <v>2.1074999999999999</v>
-      </c>
-      <c r="M13" s="10">
+        <v>6.7324999999999999</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
         <f t="shared" si="3"/>
-        <v>6.7324999999999999</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13">
@@ -1495,14 +1479,10 @@
         <v>56</v>
       </c>
       <c r="R13">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.3600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -1516,7 +1496,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.810000000000002</v>
       </c>
       <c r="F14" t="s">
@@ -1529,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.49359999999999998</v>
       </c>
       <c r="J14" s="10">
@@ -1539,19 +1519,19 @@
         <v>47</v>
       </c>
       <c r="L14" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="M14" s="10">
         <f t="shared" si="2"/>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="M14" s="10">
+        <v>7.4525000000000006</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
         <f t="shared" si="3"/>
-        <v>7.4525000000000006</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14">
@@ -1561,14 +1541,10 @@
         <v>56</v>
       </c>
       <c r="R14">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.3600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666699</v>
       </c>
@@ -1582,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19.919999999999998</v>
       </c>
       <c r="F15" t="s">
@@ -1595,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.55630000000000002</v>
       </c>
       <c r="J15" s="10">
@@ -1605,19 +1581,19 @@
         <v>47</v>
       </c>
       <c r="L15" s="10">
+        <f t="shared" si="1"/>
+        <v>1.845</v>
+      </c>
+      <c r="M15" s="10">
         <f t="shared" si="2"/>
-        <v>1.845</v>
-      </c>
-      <c r="M15" s="10">
+        <v>4.9799999999999995</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
         <f t="shared" si="3"/>
-        <v>4.9799999999999995</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15">
@@ -1627,14 +1603,10 @@
         <v>56</v>
       </c>
       <c r="R15">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.3600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333301</v>
       </c>
@@ -1648,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.13</v>
       </c>
       <c r="F16" t="s">
@@ -1661,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.62250000000000005</v>
       </c>
       <c r="J16" s="10">
@@ -1671,19 +1643,19 @@
         <v>47</v>
       </c>
       <c r="L16" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9724999999999999</v>
+      </c>
+      <c r="M16" s="10">
         <f t="shared" si="2"/>
-        <v>1.9724999999999999</v>
-      </c>
-      <c r="M16" s="10">
+        <v>5.2824999999999998</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
         <f t="shared" si="3"/>
-        <v>5.2824999999999998</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16">
@@ -1693,14 +1665,10 @@
         <v>56</v>
       </c>
       <c r="R16">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.3600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -1714,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.195</v>
       </c>
       <c r="F17" t="s">
@@ -1727,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.7007500000000001</v>
       </c>
       <c r="J17" s="10">
@@ -1737,19 +1705,19 @@
         <v>47</v>
       </c>
       <c r="L17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.88625</v>
+      </c>
+      <c r="M17" s="10">
         <f t="shared" si="2"/>
-        <v>1.88625</v>
-      </c>
-      <c r="M17" s="10">
+        <v>5.7987500000000001</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
         <f t="shared" si="3"/>
-        <v>5.7987500000000001</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17">
@@ -1759,14 +1727,10 @@
         <v>56</v>
       </c>
       <c r="R17">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666699</v>
       </c>
@@ -1780,7 +1744,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.435000000000002</v>
       </c>
       <c r="F18" t="s">
@@ -1793,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.80930000000000013</v>
       </c>
       <c r="J18" s="10">
@@ -1803,19 +1767,19 @@
         <v>47</v>
       </c>
       <c r="L18" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9312500000000001</v>
+      </c>
+      <c r="M18" s="10">
         <f t="shared" si="2"/>
-        <v>1.9312500000000001</v>
-      </c>
-      <c r="M18" s="10">
+        <v>7.3587500000000006</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
         <f t="shared" si="3"/>
-        <v>7.3587500000000006</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18">
@@ -1825,14 +1789,10 @@
         <v>56</v>
       </c>
       <c r="R18">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333301</v>
       </c>
@@ -1846,7 +1806,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24.965000000000003</v>
       </c>
       <c r="F19" t="s">
@@ -1859,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.89115000000000011</v>
       </c>
       <c r="J19" s="10">
@@ -1869,19 +1829,19 @@
         <v>47</v>
       </c>
       <c r="L19" s="10">
+        <f t="shared" si="1"/>
+        <v>2.1487500000000002</v>
+      </c>
+      <c r="M19" s="10">
         <f t="shared" si="2"/>
-        <v>2.1487500000000002</v>
-      </c>
-      <c r="M19" s="10">
+        <v>6.2412500000000009</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
         <f t="shared" si="3"/>
-        <v>6.2412500000000009</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19">
@@ -1891,14 +1851,10 @@
         <v>56</v>
       </c>
       <c r="R19">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -1912,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.57</v>
       </c>
       <c r="F20" t="s">
@@ -1925,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J20" s="10">
@@ -1935,19 +1891,19 @@
         <v>47</v>
       </c>
       <c r="L20" s="10">
+        <f t="shared" si="1"/>
+        <v>2.1074999999999999</v>
+      </c>
+      <c r="M20" s="10">
         <f t="shared" si="2"/>
-        <v>2.1074999999999999</v>
-      </c>
-      <c r="M20" s="10">
+        <v>5.1425000000000001</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
         <f t="shared" si="3"/>
-        <v>5.1425000000000001</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20">
@@ -1957,14 +1913,10 @@
         <v>56</v>
       </c>
       <c r="R20">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666699</v>
       </c>
@@ -1978,17 +1930,20 @@
         <v>8</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.18</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
       <c r="H21" t="s">
         <v>48</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J21" s="10">
@@ -1998,19 +1953,19 @@
         <v>47</v>
       </c>
       <c r="L21" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="M21" s="10">
         <f t="shared" si="2"/>
         <v>2.2949999999999999</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
         <f t="shared" si="3"/>
-        <v>2.2949999999999999</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21">
@@ -2020,14 +1975,10 @@
         <v>56</v>
       </c>
       <c r="R21">
-        <v>0.04</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333301</v>
       </c>
@@ -2041,17 +1992,20 @@
         <v>8</v>
       </c>
       <c r="E22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.3149999999999995</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
       </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
       <c r="H22" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J22" s="10">
@@ -2061,19 +2015,19 @@
         <v>47</v>
       </c>
       <c r="L22" s="10">
+        <f t="shared" si="1"/>
+        <v>2.3287499999999999</v>
+      </c>
+      <c r="M22" s="10">
         <f t="shared" si="2"/>
         <v>2.3287499999999999</v>
       </c>
-      <c r="M22" s="10">
+      <c r="N22" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
         <f t="shared" si="3"/>
-        <v>2.3287499999999999</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22">
@@ -2083,14 +2037,10 @@
         <v>55</v>
       </c>
       <c r="R22">
-        <v>0.04</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -2104,17 +2054,20 @@
         <v>9</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.785714285714286</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
       </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
       <c r="H23" t="s">
         <v>48</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J23" s="10">
@@ -2124,19 +2077,19 @@
         <v>17</v>
       </c>
       <c r="L23" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M23" s="10">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M23" s="10">
+        <v>2.9464285714285716</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428575E-2</v>
+      </c>
+      <c r="O23" s="10">
         <f t="shared" si="3"/>
-        <v>2.9464285714285716</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="6"/>
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23">
@@ -2146,14 +2099,10 @@
         <v>55</v>
       </c>
       <c r="R23">
-        <v>0.04</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="0"/>
-        <v>0.15306122448979595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666699</v>
       </c>
@@ -2167,17 +2116,20 @@
         <v>9</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.318571428571429</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
       </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
       <c r="H24" t="s">
         <v>48</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J24" s="10">
@@ -2187,19 +2139,19 @@
         <v>17</v>
       </c>
       <c r="L24" s="10">
+        <f t="shared" si="1"/>
+        <v>3.66</v>
+      </c>
+      <c r="M24" s="10">
         <f t="shared" si="2"/>
-        <v>3.66</v>
-      </c>
-      <c r="M24" s="10">
+        <v>3.5796428571428573</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="5"/>
+        <v>8.0357142857142863E-2</v>
+      </c>
+      <c r="O24" s="10">
         <f t="shared" si="3"/>
-        <v>3.5796428571428573</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="6"/>
-        <v>8.0357142857142863E-2</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P24">
@@ -2209,14 +2161,10 @@
         <v>55</v>
       </c>
       <c r="R24">
-        <v>0.04</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="0"/>
-        <v>0.22959183673469391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333301</v>
       </c>
@@ -2230,17 +2178,20 @@
         <v>9</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.694285714285714</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
       <c r="H25" t="s">
         <v>48</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J25" s="10">
@@ -2250,19 +2201,19 @@
         <v>17</v>
       </c>
       <c r="L25" s="10">
+        <f t="shared" si="1"/>
+        <v>4.0575000000000001</v>
+      </c>
+      <c r="M25" s="10">
         <f t="shared" si="2"/>
-        <v>4.0575000000000001</v>
-      </c>
-      <c r="M25" s="10">
+        <v>3.9235714285714285</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="5"/>
+        <v>0.13392857142857142</v>
+      </c>
+      <c r="O25" s="10">
         <f t="shared" si="3"/>
-        <v>3.9235714285714285</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="6"/>
-        <v>0.13392857142857142</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25">
@@ -2272,14 +2223,10 @@
         <v>55</v>
       </c>
       <c r="R25">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="0"/>
-        <v>0.38265306122448983</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.3600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -2293,17 +2240,20 @@
         <v>9</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18.19285714285714</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
       </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
       <c r="H26" t="s">
         <v>48</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J26" s="10">
@@ -2313,19 +2263,19 @@
         <v>17</v>
       </c>
       <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>4.7624999999999993</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="2"/>
-        <v>4.7624999999999993</v>
-      </c>
-      <c r="M26" s="10">
+        <v>4.5482142857142849</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="O26" s="10">
         <f t="shared" si="3"/>
-        <v>4.5482142857142849</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="6"/>
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26">
@@ -2335,14 +2285,10 @@
         <v>55</v>
       </c>
       <c r="R26">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="0"/>
-        <v>0.6122448979591838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666702</v>
       </c>
@@ -2356,17 +2302,20 @@
         <v>9</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.984999999999999</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
       </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
       <c r="H27" t="s">
         <v>48</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J27" s="10">
@@ -2376,19 +2325,19 @@
         <v>17</v>
       </c>
       <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8087499999999999</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="2"/>
-        <v>5.8087499999999999</v>
-      </c>
-      <c r="M27" s="10">
+        <v>5.2462499999999999</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="O27" s="10">
         <f t="shared" si="3"/>
-        <v>5.2462499999999999</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="6"/>
-        <v>0.5625</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27">
@@ -2398,14 +2347,10 @@
         <v>55</v>
       </c>
       <c r="R27">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="0"/>
-        <v>1.6071428571428572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333298</v>
       </c>
@@ -2419,17 +2364,20 @@
         <v>9</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.145</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
       <c r="H28" t="s">
         <v>48</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J28" s="10">
@@ -2439,19 +2387,19 @@
         <v>17</v>
       </c>
       <c r="L28" s="10">
+        <f t="shared" si="1"/>
+        <v>6.7237499999999999</v>
+      </c>
+      <c r="M28" s="10">
         <f t="shared" si="2"/>
-        <v>6.7237499999999999</v>
-      </c>
-      <c r="M28" s="10">
+        <v>5.7862499999999999</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.93750000000000011</v>
+      </c>
+      <c r="O28" s="10">
         <f t="shared" si="3"/>
-        <v>5.7862499999999999</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="6"/>
-        <v>0.93750000000000011</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28">
@@ -2461,14 +2409,10 @@
         <v>55</v>
       </c>
       <c r="R28">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="0"/>
-        <v>2.6785714285714293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.8400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -2482,17 +2426,20 @@
         <v>9</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24.974999999999998</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
       <c r="H29" t="s">
         <v>48</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J29" s="10">
@@ -2502,19 +2449,19 @@
         <v>17</v>
       </c>
       <c r="L29" s="10">
+        <f t="shared" si="1"/>
+        <v>7.5562499999999995</v>
+      </c>
+      <c r="M29" s="10">
         <f t="shared" si="2"/>
-        <v>7.5562499999999995</v>
-      </c>
-      <c r="M29" s="10">
+        <v>6.2437499999999995</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="5"/>
+        <v>1.3125</v>
+      </c>
+      <c r="O29" s="10">
         <f t="shared" si="3"/>
-        <v>6.2437499999999995</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="6"/>
-        <v>1.3125</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29">
@@ -2524,14 +2471,10 @@
         <v>57</v>
       </c>
       <c r="R29">
-        <v>0.05</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="0"/>
-        <v>3.7500000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666702</v>
       </c>
@@ -2545,17 +2488,20 @@
         <v>9</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.447142857142854</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
       <c r="H30" t="s">
         <v>48</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J30" s="10">
@@ -2565,19 +2511,19 @@
         <v>17</v>
       </c>
       <c r="L30" s="10">
+        <f t="shared" si="1"/>
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="M30" s="10">
         <f t="shared" si="2"/>
-        <v>8.4599999999999991</v>
-      </c>
-      <c r="M30" s="10">
+        <v>6.6117857142857135</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="5"/>
+        <v>1.8482142857142858</v>
+      </c>
+      <c r="O30" s="10">
         <f t="shared" si="3"/>
-        <v>6.6117857142857135</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="6"/>
-        <v>1.8482142857142858</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P30">
@@ -2587,14 +2533,10 @@
         <v>57</v>
       </c>
       <c r="R30">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="0"/>
-        <v>5.2806122448979602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333298</v>
       </c>
@@ -2608,17 +2550,20 @@
         <v>9</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30.443571428571428</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
       </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
       <c r="H31" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J31" s="10">
@@ -2628,19 +2573,19 @@
         <v>17</v>
       </c>
       <c r="L31" s="10">
+        <f t="shared" si="1"/>
+        <v>9.9412500000000001</v>
+      </c>
+      <c r="M31" s="10">
         <f t="shared" si="2"/>
-        <v>9.9412500000000001</v>
-      </c>
-      <c r="M31" s="10">
+        <v>7.6108928571428569</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="5"/>
+        <v>2.3303571428571432</v>
+      </c>
+      <c r="O31" s="10">
         <f t="shared" si="3"/>
-        <v>7.6108928571428569</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="6"/>
-        <v>2.3303571428571432</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31">
@@ -2650,14 +2595,10 @@
         <v>57</v>
       </c>
       <c r="R31">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="0"/>
-        <v>6.6581632653061238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -2671,17 +2612,20 @@
         <v>9</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31.68</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
       <c r="H32" t="s">
         <v>48</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J32" s="10">
@@ -2691,19 +2635,19 @@
         <v>17</v>
       </c>
       <c r="L32" s="10">
+        <f t="shared" si="1"/>
+        <v>10.92</v>
+      </c>
+      <c r="M32" s="10">
         <f t="shared" si="2"/>
-        <v>10.92</v>
-      </c>
-      <c r="M32" s="10">
+        <v>7.92</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="O32" s="10">
         <f t="shared" si="3"/>
-        <v>7.92</v>
-      </c>
-      <c r="N32" s="10">
-        <f t="shared" si="6"/>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="O32" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32">
@@ -2713,14 +2657,10 @@
         <v>57</v>
       </c>
       <c r="R32">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="0"/>
-        <v>8.571428571428573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.4800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666702</v>
       </c>
@@ -2734,17 +2674,20 @@
         <v>9</v>
       </c>
       <c r="E33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35.997857142857143</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
       <c r="H33" t="s">
         <v>48</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J33" s="10">
@@ -2754,19 +2697,19 @@
         <v>17</v>
       </c>
       <c r="L33" s="10">
+        <f t="shared" si="1"/>
+        <v>13.151250000000001</v>
+      </c>
+      <c r="M33" s="10">
         <f t="shared" si="2"/>
-        <v>13.151250000000001</v>
-      </c>
-      <c r="M33" s="10">
+        <v>8.9994642857142857</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="5"/>
+        <v>4.1517857142857144</v>
+      </c>
+      <c r="O33" s="10">
         <f t="shared" si="3"/>
-        <v>8.9994642857142857</v>
-      </c>
-      <c r="N33" s="10">
-        <f t="shared" si="6"/>
-        <v>4.1517857142857144</v>
-      </c>
-      <c r="O33" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33">
@@ -2776,14 +2719,10 @@
         <v>57</v>
       </c>
       <c r="R33">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="0"/>
-        <v>11.862244897959185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.6400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333298</v>
       </c>
@@ -2797,17 +2736,20 @@
         <v>9</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.217857142857145</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
       </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
       <c r="H34" t="s">
         <v>48</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J34" s="10">
@@ -2817,19 +2759,19 @@
         <v>17</v>
       </c>
       <c r="L34" s="10">
+        <f t="shared" si="1"/>
+        <v>11.831250000000001</v>
+      </c>
+      <c r="M34" s="10">
         <f t="shared" si="2"/>
-        <v>11.831250000000001</v>
-      </c>
-      <c r="M34" s="10">
+        <v>7.3044642857142863</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="5"/>
+        <v>4.5267857142857144</v>
+      </c>
+      <c r="O34" s="10">
         <f t="shared" si="3"/>
-        <v>7.3044642857142863</v>
-      </c>
-      <c r="N34" s="10">
-        <f t="shared" si="6"/>
-        <v>4.5267857142857144</v>
-      </c>
-      <c r="O34" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34">
@@ -2839,14 +2781,10 @@
         <v>57</v>
       </c>
       <c r="R34">
-        <v>0.06</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="0"/>
-        <v>12.933673469387756</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -2860,17 +2798,20 @@
         <v>9</v>
       </c>
       <c r="E35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.261428571428567</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
       <c r="H35" t="s">
         <v>48</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95185000000000008</v>
       </c>
       <c r="J35" s="10">
@@ -2880,19 +2821,19 @@
         <v>17</v>
       </c>
       <c r="L35" s="10">
+        <f t="shared" si="1"/>
+        <v>13.86</v>
+      </c>
+      <c r="M35" s="10">
         <f t="shared" si="2"/>
-        <v>13.86</v>
-      </c>
-      <c r="M35" s="10">
+        <v>8.3153571428571418</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5446428571428577</v>
+      </c>
+      <c r="O35" s="10">
         <f t="shared" si="3"/>
-        <v>8.3153571428571418</v>
-      </c>
-      <c r="N35" s="10">
-        <f t="shared" si="6"/>
-        <v>5.5446428571428577</v>
-      </c>
-      <c r="O35" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P35">
@@ -2902,14 +2843,10 @@
         <v>57</v>
       </c>
       <c r="R35">
-        <v>6.2E-2</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="0"/>
-        <v>15.84183673469388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.9600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666702</v>
       </c>
@@ -2923,21 +2860,21 @@
         <v>19</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G40" si="7">J36-C36</f>
+        <f t="shared" ref="G36:G40" si="6">J36-C36</f>
         <v>-33.835714285714289</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.78267142857142868</v>
       </c>
       <c r="J36" s="10">
@@ -2947,19 +2884,19 @@
         <v>17</v>
       </c>
       <c r="L36" s="10">
+        <f t="shared" si="1"/>
+        <v>14.700000000000001</v>
+      </c>
+      <c r="M36" s="10">
         <f t="shared" si="2"/>
-        <v>14.700000000000001</v>
-      </c>
-      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="5"/>
+        <v>6.2410714285714297</v>
+      </c>
+      <c r="O36" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="6"/>
-        <v>6.2410714285714297</v>
-      </c>
-      <c r="O36" s="10">
-        <f t="shared" si="4"/>
         <v>8.4589285714285722</v>
       </c>
       <c r="P36">
@@ -2969,14 +2906,10 @@
         <v>58</v>
       </c>
       <c r="R36">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="0"/>
-        <v>17.831632653061227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333298</v>
       </c>
@@ -2990,21 +2923,21 @@
         <v>19</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
       </c>
       <c r="G37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-32.397857142857134</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.62068214285714296</v>
       </c>
       <c r="J37" s="10">
@@ -3014,19 +2947,19 @@
         <v>17</v>
       </c>
       <c r="L37" s="10">
+        <f t="shared" si="1"/>
+        <v>16.001249999999999</v>
+      </c>
+      <c r="M37" s="10">
         <f t="shared" si="2"/>
-        <v>16.001249999999999</v>
-      </c>
-      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="5"/>
+        <v>7.9017857142857144</v>
+      </c>
+      <c r="O37" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="10">
-        <f t="shared" si="6"/>
-        <v>7.9017857142857144</v>
-      </c>
-      <c r="O37" s="10">
-        <f t="shared" si="4"/>
         <v>8.0994642857142836</v>
       </c>
       <c r="P37">
@@ -3036,14 +2969,10 @@
         <v>58</v>
       </c>
       <c r="R37">
-        <v>0.06</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="0"/>
-        <v>22.576530612244898</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -3057,21 +2986,21 @@
         <v>19</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
       </c>
       <c r="G38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-30.02571428571428</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.47055357142857157</v>
       </c>
       <c r="J38" s="10">
@@ -3081,19 +3010,19 @@
         <v>17</v>
       </c>
       <c r="L38" s="10">
+        <f t="shared" si="1"/>
+        <v>16.184999999999999</v>
+      </c>
+      <c r="M38" s="10">
         <f t="shared" si="2"/>
-        <v>16.184999999999999</v>
-      </c>
-      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="5"/>
+        <v>8.6785714285714288</v>
+      </c>
+      <c r="O38" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="10">
-        <f t="shared" si="6"/>
-        <v>8.6785714285714288</v>
-      </c>
-      <c r="O38" s="10">
-        <f t="shared" si="4"/>
         <v>7.5064285714285699</v>
       </c>
       <c r="P38">
@@ -3103,14 +3032,10 @@
         <v>58</v>
       </c>
       <c r="R38">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="0"/>
-        <v>24.795918367346943</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.4800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666702</v>
       </c>
@@ -3124,21 +3049,21 @@
         <v>19</v>
       </c>
       <c r="E39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
       </c>
       <c r="G39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-24.405000000000001</v>
       </c>
       <c r="H39" t="s">
         <v>5</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.34852857142857158</v>
       </c>
       <c r="J39" s="10">
@@ -3148,19 +3073,19 @@
         <v>17</v>
       </c>
       <c r="L39" s="10">
+        <f t="shared" si="1"/>
+        <v>15.66375</v>
+      </c>
+      <c r="M39" s="10">
         <f t="shared" si="2"/>
-        <v>15.66375</v>
-      </c>
-      <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="5"/>
+        <v>9.5625</v>
+      </c>
+      <c r="O39" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="10">
-        <f t="shared" si="6"/>
-        <v>9.5625</v>
-      </c>
-      <c r="O39" s="10">
-        <f t="shared" si="4"/>
         <v>6.1012500000000003</v>
       </c>
       <c r="P39">
@@ -3170,14 +3095,10 @@
         <v>58</v>
       </c>
       <c r="R39">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="0"/>
-        <v>27.321428571428573</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333298</v>
       </c>
@@ -3191,21 +3112,21 @@
         <v>19</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
       </c>
       <c r="G40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-24.867857142857133</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22418928571428592</v>
       </c>
       <c r="J40" s="10">
@@ -3215,19 +3136,19 @@
         <v>17</v>
       </c>
       <c r="L40" s="10">
+        <f t="shared" si="1"/>
+        <v>16.556249999999999</v>
+      </c>
+      <c r="M40" s="10">
         <f t="shared" si="2"/>
-        <v>16.556249999999999</v>
-      </c>
-      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="5"/>
+        <v>10.339285714285715</v>
+      </c>
+      <c r="O40" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" si="6"/>
-        <v>10.339285714285715</v>
-      </c>
-      <c r="O40" s="10">
-        <f t="shared" si="4"/>
         <v>6.2169642857142833</v>
       </c>
       <c r="P40">
@@ -3237,14 +3158,10 @@
         <v>58</v>
       </c>
       <c r="R40">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="0"/>
-        <v>29.540816326530617</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.8400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -3258,17 +3175,20 @@
         <v>9</v>
       </c>
       <c r="E41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.717857142857127</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
       </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
       <c r="H41" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22418928571428592</v>
       </c>
       <c r="J41" s="10">
@@ -3278,19 +3198,19 @@
         <v>17</v>
       </c>
       <c r="L41" s="10">
+        <f t="shared" si="1"/>
+        <v>17.268749999999997</v>
+      </c>
+      <c r="M41" s="10">
         <f t="shared" si="2"/>
-        <v>17.268749999999997</v>
-      </c>
-      <c r="M41" s="10">
+        <v>5.4294642857142819</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="5"/>
+        <v>11.839285714285715</v>
+      </c>
+      <c r="O41" s="10">
         <f t="shared" si="3"/>
-        <v>5.4294642857142819</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="6"/>
-        <v>11.839285714285715</v>
-      </c>
-      <c r="O41" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P41">
@@ -3300,14 +3220,10 @@
         <v>57</v>
       </c>
       <c r="R41">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="0"/>
-        <v>33.826530612244902</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666702</v>
       </c>
@@ -3321,17 +3237,20 @@
         <v>9</v>
       </c>
       <c r="E42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.65071428571428</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
       </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
       <c r="H42" t="s">
         <v>48</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22418928571428592</v>
       </c>
       <c r="J42" s="10">
@@ -3341,19 +3260,19 @@
         <v>17</v>
       </c>
       <c r="L42" s="10">
+        <f t="shared" si="1"/>
+        <v>17.028749999999999</v>
+      </c>
+      <c r="M42" s="10">
         <f t="shared" si="2"/>
-        <v>17.028749999999999</v>
-      </c>
-      <c r="M42" s="10">
+        <v>3.6626785714285699</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="5"/>
+        <v>13.366071428571429</v>
+      </c>
+      <c r="O42" s="10">
         <f t="shared" si="3"/>
-        <v>3.6626785714285699</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="6"/>
-        <v>13.366071428571429</v>
-      </c>
-      <c r="O42" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P42">
@@ -3363,14 +3282,10 @@
         <v>57</v>
       </c>
       <c r="R42">
-        <v>0.04</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="0"/>
-        <v>38.188775510204081</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333298</v>
       </c>
@@ -3384,17 +3299,20 @@
         <v>9</v>
       </c>
       <c r="E43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.391428571428577</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
       </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
       <c r="H43" t="s">
         <v>48</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22418928571428592</v>
       </c>
       <c r="J43" s="10">
@@ -3404,19 +3322,19 @@
         <v>17</v>
       </c>
       <c r="L43" s="10">
+        <f t="shared" si="1"/>
+        <v>17.955000000000002</v>
+      </c>
+      <c r="M43" s="10">
         <f t="shared" si="2"/>
-        <v>17.955000000000002</v>
-      </c>
-      <c r="M43" s="10">
+        <v>5.0978571428571442</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="5"/>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="O43" s="10">
         <f t="shared" si="3"/>
-        <v>5.0978571428571442</v>
-      </c>
-      <c r="N43" s="10">
-        <f t="shared" si="6"/>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="O43" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43">
@@ -3426,14 +3344,10 @@
         <v>57</v>
       </c>
       <c r="R43">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="0"/>
-        <v>36.734693877551024</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -3447,17 +3361,20 @@
         <v>9</v>
       </c>
       <c r="E44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.135714285714279</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
       </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
       <c r="H44" t="s">
         <v>48</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22418928571428592</v>
       </c>
       <c r="J44" s="10">
@@ -3467,19 +3384,19 @@
         <v>17</v>
       </c>
       <c r="L44" s="10">
+        <f t="shared" si="1"/>
+        <v>16.274999999999999</v>
+      </c>
+      <c r="M44" s="10">
         <f t="shared" si="2"/>
-        <v>16.274999999999999</v>
-      </c>
-      <c r="M44" s="10">
+        <v>0.28392857142856975</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="5"/>
+        <v>15.991071428571429</v>
+      </c>
+      <c r="O44" s="10">
         <f t="shared" si="3"/>
-        <v>0.28392857142856975</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="6"/>
-        <v>15.991071428571429</v>
-      </c>
-      <c r="O44" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P44">
@@ -3489,14 +3406,10 @@
         <v>57</v>
       </c>
       <c r="R44">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="0"/>
-        <v>45.688775510204088</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666702</v>
       </c>
@@ -3510,17 +3423,20 @@
         <v>9</v>
       </c>
       <c r="E45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.9749999999999943</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
       </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
       <c r="H45" t="s">
         <v>48</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22418928571428592</v>
       </c>
       <c r="J45" s="10">
@@ -3530,19 +3446,19 @@
         <v>17</v>
       </c>
       <c r="L45" s="10">
+        <f t="shared" si="1"/>
+        <v>18.993749999999999</v>
+      </c>
+      <c r="M45" s="10">
         <f t="shared" si="2"/>
-        <v>18.993749999999999</v>
-      </c>
-      <c r="M45" s="10">
+        <v>1.7437499999999986</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="5"/>
+        <v>17.25</v>
+      </c>
+      <c r="O45" s="10">
         <f t="shared" si="3"/>
-        <v>1.7437499999999986</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="6"/>
-        <v>17.25</v>
-      </c>
-      <c r="O45" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P45">
@@ -3552,14 +3468,10 @@
         <v>55</v>
       </c>
       <c r="R45">
-        <v>0.03</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="0"/>
-        <v>49.285714285714292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333298</v>
       </c>
@@ -3573,17 +3485,20 @@
         <v>9</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.531428571428577</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
       </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
       <c r="H46" t="s">
         <v>48</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22418928571428592</v>
       </c>
       <c r="J46" s="10">
@@ -3593,19 +3508,19 @@
         <v>17</v>
       </c>
       <c r="L46" s="10">
+        <f t="shared" si="1"/>
+        <v>18.990000000000002</v>
+      </c>
+      <c r="M46" s="10">
         <f t="shared" si="2"/>
-        <v>18.990000000000002</v>
-      </c>
-      <c r="M46" s="10">
+        <v>3.8828571428571443</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" si="5"/>
+        <v>15.107142857142858</v>
+      </c>
+      <c r="O46" s="10">
         <f t="shared" si="3"/>
-        <v>3.8828571428571443</v>
-      </c>
-      <c r="N46" s="10">
-        <f t="shared" si="6"/>
-        <v>15.107142857142858</v>
-      </c>
-      <c r="O46" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P46">
@@ -3615,14 +3530,10 @@
         <v>55</v>
       </c>
       <c r="R46">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="0"/>
-        <v>43.163265306122454</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -3649,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.24948928571428591</v>
       </c>
       <c r="J47" s="10">
@@ -3659,19 +3570,19 @@
         <v>17</v>
       </c>
       <c r="L47" s="10">
+        <f t="shared" si="1"/>
+        <v>17.696249999999999</v>
+      </c>
+      <c r="M47" s="10">
         <f t="shared" si="2"/>
-        <v>17.696249999999999</v>
-      </c>
-      <c r="M47" s="10">
+        <v>-2.9821428571427999E-2</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" si="5"/>
+        <v>18.991071428571427</v>
+      </c>
+      <c r="O47" s="10">
         <f t="shared" si="3"/>
-        <v>-2.9821428571427999E-2</v>
-      </c>
-      <c r="N47" s="10">
-        <f t="shared" si="6"/>
-        <v>18.991071428571427</v>
-      </c>
-      <c r="O47" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P47">
@@ -3681,14 +3592,10 @@
         <v>56</v>
       </c>
       <c r="R47">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="0"/>
-        <v>54.260204081632651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666702</v>
       </c>
@@ -3702,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.380000000000015</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3715,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.29883928571428592</v>
       </c>
       <c r="J48" s="10">
@@ -3725,19 +3632,19 @@
         <v>17</v>
       </c>
       <c r="L48" s="10">
+        <f t="shared" si="1"/>
+        <v>18.375</v>
+      </c>
+      <c r="M48" s="10">
         <f t="shared" si="2"/>
-        <v>18.375</v>
-      </c>
-      <c r="M48" s="10">
+        <v>-0.34500000000000375</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="5"/>
+        <v>21.187500000000004</v>
+      </c>
+      <c r="O48" s="10">
         <f t="shared" si="3"/>
-        <v>-0.34500000000000375</v>
-      </c>
-      <c r="N48" s="10">
-        <f t="shared" si="6"/>
-        <v>21.187500000000004</v>
-      </c>
-      <c r="O48" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P48">
@@ -3747,14 +3654,10 @@
         <v>56</v>
       </c>
       <c r="R48">
-        <v>2.4E-2</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="0"/>
-        <v>60.535714285714299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333298</v>
       </c>
@@ -3768,7 +3671,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.89857142857143479</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -3781,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.35708928571428594</v>
       </c>
       <c r="J49" s="10">
@@ -3791,19 +3694,19 @@
         <v>17</v>
       </c>
       <c r="L49" s="10">
+        <f t="shared" si="1"/>
+        <v>17.97</v>
+      </c>
+      <c r="M49" s="10">
         <f t="shared" si="2"/>
-        <v>17.97</v>
-      </c>
-      <c r="M49" s="10">
+        <v>-0.2246428571428587</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" si="5"/>
+        <v>21.107142857142858</v>
+      </c>
+      <c r="O49" s="10">
         <f t="shared" si="3"/>
-        <v>-0.2246428571428587</v>
-      </c>
-      <c r="N49" s="10">
-        <f t="shared" si="6"/>
-        <v>21.107142857142858</v>
-      </c>
-      <c r="O49" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P49">
@@ -3813,14 +3716,10 @@
         <v>56</v>
       </c>
       <c r="R49">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="0"/>
-        <v>60.3061224489796</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -3834,7 +3733,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.73000000000000043</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -3847,7 +3746,7 @@
         <v>4</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.46413928571428598</v>
       </c>
       <c r="J50" s="10">
@@ -3857,19 +3756,19 @@
         <v>17</v>
       </c>
       <c r="L50" s="10">
+        <f t="shared" si="1"/>
+        <v>17.34</v>
+      </c>
+      <c r="M50" s="10">
         <f t="shared" si="2"/>
-        <v>17.34</v>
-      </c>
-      <c r="M50" s="10">
+        <v>-0.18250000000000011</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="5"/>
+        <v>22.875</v>
+      </c>
+      <c r="O50" s="10">
         <f t="shared" si="3"/>
-        <v>-0.18250000000000011</v>
-      </c>
-      <c r="N50" s="10">
-        <f t="shared" si="6"/>
-        <v>22.875</v>
-      </c>
-      <c r="O50" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P50">
@@ -3879,14 +3778,10 @@
         <v>56</v>
       </c>
       <c r="R50">
-        <v>0.02</v>
-      </c>
-      <c r="U50">
-        <f>J50/1.4</f>
-        <v>65.357142857142861</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666696</v>
       </c>
@@ -3900,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.77071428571429124</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -3923,19 +3818,19 @@
         <v>17</v>
       </c>
       <c r="L51" s="10">
+        <f t="shared" si="1"/>
+        <v>17.91375</v>
+      </c>
+      <c r="M51" s="10">
         <f t="shared" si="2"/>
-        <v>17.91375</v>
-      </c>
-      <c r="M51" s="10">
+        <v>-0.19267857142857281</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="5"/>
+        <v>23.196428571428573</v>
+      </c>
+      <c r="O51" s="10">
         <f t="shared" si="3"/>
-        <v>-0.19267857142857281</v>
-      </c>
-      <c r="N51" s="10">
-        <f t="shared" si="6"/>
-        <v>23.196428571428573</v>
-      </c>
-      <c r="O51" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P51">
@@ -3945,14 +3840,10 @@
         <v>56</v>
       </c>
       <c r="R51">
-        <v>0.02</v>
-      </c>
-      <c r="U51">
-        <f t="shared" ref="U51:U97" si="8">J51/1.4</f>
-        <v>66.275510204081641</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333304</v>
       </c>
@@ -3966,7 +3857,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.87357142857142911</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -3979,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" ref="I52:I58" si="9">I51+G52*0.25%</f>
+        <f t="shared" ref="I52:I58" si="7">I51+G52*0.25%</f>
         <v>0.53916428571428598</v>
       </c>
       <c r="J52" s="10">
@@ -3989,19 +3880,19 @@
         <v>17</v>
       </c>
       <c r="L52" s="10">
+        <f t="shared" si="1"/>
+        <v>18.47625</v>
+      </c>
+      <c r="M52" s="10">
         <f t="shared" si="2"/>
-        <v>18.47625</v>
-      </c>
-      <c r="M52" s="10">
+        <v>-0.21839285714285728</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="5"/>
+        <v>21.107142857142858</v>
+      </c>
+      <c r="O52" s="10">
         <f t="shared" si="3"/>
-        <v>-0.21839285714285728</v>
-      </c>
-      <c r="N52" s="10">
-        <f t="shared" si="6"/>
-        <v>21.107142857142858</v>
-      </c>
-      <c r="O52" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P52">
@@ -4011,14 +3902,10 @@
         <v>56</v>
       </c>
       <c r="R52">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="8"/>
-        <v>60.3061224489796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -4032,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.3000000000000043</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -4045,7 +3932,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.56996428571428603</v>
       </c>
       <c r="J53" s="10">
@@ -4055,19 +3942,19 @@
         <v>17</v>
       </c>
       <c r="L53" s="10">
+        <f t="shared" si="1"/>
+        <v>17.407499999999999</v>
+      </c>
+      <c r="M53" s="10">
         <f t="shared" si="2"/>
-        <v>17.407499999999999</v>
-      </c>
-      <c r="M53" s="10">
+        <v>-0.32500000000000107</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="5"/>
+        <v>20.8125</v>
+      </c>
+      <c r="O53" s="10">
         <f t="shared" si="3"/>
-        <v>-0.32500000000000107</v>
-      </c>
-      <c r="N53" s="10">
-        <f t="shared" si="6"/>
-        <v>20.8125</v>
-      </c>
-      <c r="O53" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P53">
@@ -4077,14 +3964,10 @@
         <v>56</v>
       </c>
       <c r="R53">
-        <v>2.4E-2</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="8"/>
-        <v>59.464285714285715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666696</v>
       </c>
@@ -4098,7 +3981,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.1364285714285849</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -4111,7 +3994,7 @@
         <v>4</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.61901428571428607</v>
       </c>
       <c r="J54" s="10">
@@ -4121,19 +4004,19 @@
         <v>17</v>
       </c>
       <c r="L54" s="10">
+        <f t="shared" si="1"/>
+        <v>17.328749999999999</v>
+      </c>
+      <c r="M54" s="10">
         <f t="shared" si="2"/>
-        <v>17.328749999999999</v>
-      </c>
-      <c r="M54" s="10">
+        <v>-0.53410714285714622</v>
+      </c>
+      <c r="N54" s="10">
+        <f t="shared" si="5"/>
+        <v>22.767857142857146</v>
+      </c>
+      <c r="O54" s="10">
         <f t="shared" si="3"/>
-        <v>-0.53410714285714622</v>
-      </c>
-      <c r="N54" s="10">
-        <f t="shared" si="6"/>
-        <v>22.767857142857146</v>
-      </c>
-      <c r="O54" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P54">
@@ -4143,14 +4026,10 @@
         <v>56</v>
       </c>
       <c r="R54">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="8"/>
-        <v>65.051020408163282</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333304</v>
       </c>
@@ -4164,7 +4043,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.7807142857142892</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -4177,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.66536428571428607</v>
       </c>
       <c r="J55" s="10">
@@ -4187,19 +4066,19 @@
         <v>17</v>
       </c>
       <c r="L55" s="10">
+        <f t="shared" si="1"/>
+        <v>17.366250000000001</v>
+      </c>
+      <c r="M55" s="10">
         <f t="shared" si="2"/>
-        <v>17.366250000000001</v>
-      </c>
-      <c r="M55" s="10">
+        <v>-0.44517857142857231</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="5"/>
+        <v>22.446428571428573</v>
+      </c>
+      <c r="O55" s="10">
         <f t="shared" si="3"/>
-        <v>-0.44517857142857231</v>
-      </c>
-      <c r="N55" s="10">
-        <f t="shared" si="6"/>
-        <v>22.446428571428573</v>
-      </c>
-      <c r="O55" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P55">
@@ -4209,14 +4088,10 @@
         <v>56</v>
       </c>
       <c r="R55">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="8"/>
-        <v>64.132653061224502</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -4230,7 +4105,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.66071428571429003</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -4243,7 +4118,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.69208928571428607</v>
       </c>
       <c r="J56" s="10">
@@ -4253,19 +4128,19 @@
         <v>17</v>
       </c>
       <c r="L56" s="10">
+        <f t="shared" si="1"/>
+        <v>17.546250000000001</v>
+      </c>
+      <c r="M56" s="10">
         <f t="shared" si="2"/>
-        <v>17.546250000000001</v>
-      </c>
-      <c r="M56" s="10">
+        <v>-0.16517857142857251</v>
+      </c>
+      <c r="N56" s="10">
+        <f t="shared" si="5"/>
+        <v>20.383928571428573</v>
+      </c>
+      <c r="O56" s="10">
         <f t="shared" si="3"/>
-        <v>-0.16517857142857251</v>
-      </c>
-      <c r="N56" s="10">
-        <f t="shared" si="6"/>
-        <v>20.383928571428573</v>
-      </c>
-      <c r="O56" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P56">
@@ -4275,14 +4150,10 @@
         <v>56</v>
       </c>
       <c r="R56">
-        <v>0.03</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="8"/>
-        <v>58.239795918367356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666696</v>
       </c>
@@ -4296,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3.8457142857142994</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -4309,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.71621428571428603</v>
       </c>
       <c r="J57" s="10">
@@ -4319,19 +4190,19 @@
         <v>17</v>
       </c>
       <c r="L57" s="10">
+        <f t="shared" si="1"/>
+        <v>17.947499999999998</v>
+      </c>
+      <c r="M57" s="10">
         <f t="shared" si="2"/>
-        <v>17.947499999999998</v>
-      </c>
-      <c r="M57" s="10">
+        <v>-0.96142857142857485</v>
+      </c>
+      <c r="N57" s="10">
+        <f t="shared" si="5"/>
+        <v>21.321428571428573</v>
+      </c>
+      <c r="O57" s="10">
         <f t="shared" si="3"/>
-        <v>-0.96142857142857485</v>
-      </c>
-      <c r="N57" s="10">
-        <f t="shared" si="6"/>
-        <v>21.321428571428573</v>
-      </c>
-      <c r="O57" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P57">
@@ -4341,14 +4212,10 @@
         <v>56</v>
       </c>
       <c r="R57">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="8"/>
-        <v>60.918367346938787</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333304</v>
       </c>
@@ -4362,7 +4229,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.3650000000000198</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -4375,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.761814285714286</v>
       </c>
       <c r="J58" s="10">
@@ -4385,19 +4252,19 @@
         <v>17</v>
       </c>
       <c r="L58" s="10">
+        <f t="shared" si="1"/>
+        <v>16.473749999999999</v>
+      </c>
+      <c r="M58" s="10">
         <f t="shared" si="2"/>
-        <v>16.473749999999999</v>
-      </c>
-      <c r="M58" s="10">
+        <v>-0.34125000000000494</v>
+      </c>
+      <c r="N58" s="10">
+        <f t="shared" si="5"/>
+        <v>21.375000000000004</v>
+      </c>
+      <c r="O58" s="10">
         <f t="shared" si="3"/>
-        <v>-0.34125000000000494</v>
-      </c>
-      <c r="N58" s="10">
-        <f t="shared" si="6"/>
-        <v>21.375000000000004</v>
-      </c>
-      <c r="O58" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P58">
@@ -4407,14 +4274,10 @@
         <v>56</v>
       </c>
       <c r="R58">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="8"/>
-        <v>61.071428571428584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.7200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -4428,7 +4291,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.4500000000000135</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -4441,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" ref="I59:I97" si="10">I58+G59*0.25%</f>
+        <f t="shared" ref="I59:I97" si="8">I58+G59*0.25%</f>
         <v>0.78936428571428596</v>
       </c>
       <c r="J59" s="10">
@@ -4451,19 +4314,19 @@
         <v>17</v>
       </c>
       <c r="L59" s="10">
+        <f t="shared" si="1"/>
+        <v>17.07</v>
+      </c>
+      <c r="M59" s="10">
         <f t="shared" si="2"/>
-        <v>17.07</v>
-      </c>
-      <c r="M59" s="10">
+        <v>-0.61250000000000338</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="5"/>
+        <v>20.437500000000004</v>
+      </c>
+      <c r="O59" s="10">
         <f t="shared" si="3"/>
-        <v>-0.61250000000000338</v>
-      </c>
-      <c r="N59" s="10">
-        <f t="shared" si="6"/>
-        <v>20.437500000000004</v>
-      </c>
-      <c r="O59" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P59">
@@ -4473,14 +4336,10 @@
         <v>56</v>
       </c>
       <c r="R59">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="8"/>
-        <v>58.39285714285716</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666696</v>
       </c>
@@ -4494,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.9949999999999974</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -4507,7 +4366,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.81613928571428596</v>
       </c>
       <c r="J60" s="10">
@@ -4517,19 +4376,19 @@
         <v>17</v>
       </c>
       <c r="L60" s="10">
+        <f t="shared" si="1"/>
+        <v>16.69875</v>
+      </c>
+      <c r="M60" s="10">
         <f t="shared" si="2"/>
-        <v>16.69875</v>
-      </c>
-      <c r="M60" s="10">
+        <v>-0.49874999999999936</v>
+      </c>
+      <c r="N60" s="10">
+        <f t="shared" si="5"/>
+        <v>19.875</v>
+      </c>
+      <c r="O60" s="10">
         <f t="shared" si="3"/>
-        <v>-0.49874999999999936</v>
-      </c>
-      <c r="N60" s="10">
-        <f t="shared" si="6"/>
-        <v>19.875</v>
-      </c>
-      <c r="O60" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P60">
@@ -4539,14 +4398,10 @@
         <v>55</v>
       </c>
       <c r="R60">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="8"/>
-        <v>56.785714285714292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333304</v>
       </c>
@@ -4560,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.51428571428572578</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -4573,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J61" s="10">
@@ -4583,19 +4438,19 @@
         <v>17</v>
       </c>
       <c r="L61" s="10">
+        <f t="shared" si="1"/>
+        <v>15.164999999999999</v>
+      </c>
+      <c r="M61" s="10">
         <f t="shared" si="2"/>
-        <v>15.164999999999999</v>
-      </c>
-      <c r="M61" s="10">
+        <v>-0.12857142857143145</v>
+      </c>
+      <c r="N61" s="10">
+        <f t="shared" si="5"/>
+        <v>16.928571428571431</v>
+      </c>
+      <c r="O61" s="10">
         <f t="shared" si="3"/>
-        <v>-0.12857142857143145</v>
-      </c>
-      <c r="N61" s="10">
-        <f t="shared" si="6"/>
-        <v>16.928571428571431</v>
-      </c>
-      <c r="O61" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P61">
@@ -4605,14 +4460,10 @@
         <v>55</v>
       </c>
       <c r="R61">
-        <v>0.04</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="8"/>
-        <v>48.367346938775519</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -4626,17 +4477,20 @@
         <v>9</v>
       </c>
       <c r="E62" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.52071428571429124</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
         <v>48</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J62" s="10">
@@ -4646,19 +4500,19 @@
         <v>17</v>
       </c>
       <c r="L62" s="10">
+        <f t="shared" si="1"/>
+        <v>15.94125</v>
+      </c>
+      <c r="M62" s="10">
         <f t="shared" si="2"/>
-        <v>15.94125</v>
-      </c>
-      <c r="M62" s="10">
+        <v>-0.13017857142857281</v>
+      </c>
+      <c r="N62" s="10">
+        <f t="shared" si="5"/>
+        <v>16.071428571428573</v>
+      </c>
+      <c r="O62" s="10">
         <f t="shared" si="3"/>
-        <v>-0.13017857142857281</v>
-      </c>
-      <c r="N62" s="10">
-        <f t="shared" si="6"/>
-        <v>16.071428571428573</v>
-      </c>
-      <c r="O62" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P62">
@@ -4668,14 +4522,10 @@
         <v>55</v>
       </c>
       <c r="R62">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="8"/>
-        <v>45.91836734693878</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.3600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666696</v>
       </c>
@@ -4689,17 +4539,20 @@
         <v>9</v>
       </c>
       <c r="E63" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8728571428571428</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
       <c r="H63" t="s">
         <v>48</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J63" s="10">
@@ -4709,19 +4562,19 @@
         <v>17</v>
       </c>
       <c r="L63" s="10">
+        <f t="shared" si="1"/>
+        <v>15.870000000000001</v>
+      </c>
+      <c r="M63" s="10">
         <f t="shared" si="2"/>
-        <v>15.870000000000001</v>
-      </c>
-      <c r="M63" s="10">
+        <v>0.46821428571428569</v>
+      </c>
+      <c r="N63" s="10">
+        <f t="shared" si="5"/>
+        <v>15.401785714285715</v>
+      </c>
+      <c r="O63" s="10">
         <f t="shared" si="3"/>
-        <v>0.46821428571428569</v>
-      </c>
-      <c r="N63" s="10">
-        <f t="shared" si="6"/>
-        <v>15.401785714285715</v>
-      </c>
-      <c r="O63" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P63">
@@ -4731,14 +4584,10 @@
         <v>55</v>
       </c>
       <c r="R63">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="8"/>
-        <v>44.005102040816332</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333304</v>
       </c>
@@ -4752,17 +4601,20 @@
         <v>9</v>
       </c>
       <c r="E64" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5985714285714252</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
       <c r="H64" t="s">
         <v>48</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J64" s="10">
@@ -4772,19 +4624,19 @@
         <v>17</v>
       </c>
       <c r="L64" s="10">
+        <f t="shared" si="1"/>
+        <v>15.6675</v>
+      </c>
+      <c r="M64" s="10">
         <f t="shared" si="2"/>
-        <v>15.6675</v>
-      </c>
-      <c r="M64" s="10">
+        <v>0.3996428571428563</v>
+      </c>
+      <c r="N64" s="10">
+        <f t="shared" si="5"/>
+        <v>15.267857142857144</v>
+      </c>
+      <c r="O64" s="10">
         <f t="shared" si="3"/>
-        <v>0.3996428571428563</v>
-      </c>
-      <c r="N64" s="10">
-        <f t="shared" si="6"/>
-        <v>15.267857142857144</v>
-      </c>
-      <c r="O64" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P64">
@@ -4794,14 +4646,10 @@
         <v>55</v>
       </c>
       <c r="R64">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="8"/>
-        <v>43.622448979591844</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -4815,17 +4663,20 @@
         <v>9</v>
       </c>
       <c r="E65" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2999999999999972</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
       <c r="H65" t="s">
         <v>48</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J65" s="10">
@@ -4835,19 +4686,19 @@
         <v>17</v>
       </c>
       <c r="L65" s="10">
+        <f t="shared" si="1"/>
+        <v>15.637500000000001</v>
+      </c>
+      <c r="M65" s="10">
         <f t="shared" si="2"/>
-        <v>15.637500000000001</v>
-      </c>
-      <c r="M65" s="10">
+        <v>0.82499999999999929</v>
+      </c>
+      <c r="N65" s="10">
+        <f t="shared" si="5"/>
+        <v>14.812500000000002</v>
+      </c>
+      <c r="O65" s="10">
         <f t="shared" si="3"/>
-        <v>0.82499999999999929</v>
-      </c>
-      <c r="N65" s="10">
-        <f t="shared" si="6"/>
-        <v>14.812500000000002</v>
-      </c>
-      <c r="O65" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P65">
@@ -4857,14 +4708,10 @@
         <v>57</v>
       </c>
       <c r="R65">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="8"/>
-        <v>42.321428571428577</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.8400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666696</v>
       </c>
@@ -4878,17 +4725,20 @@
         <v>9</v>
       </c>
       <c r="E66" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1478571428571414</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
       <c r="H66" t="s">
         <v>48</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J66" s="10">
@@ -4898,19 +4748,19 @@
         <v>17</v>
       </c>
       <c r="L66" s="10">
+        <f t="shared" si="1"/>
+        <v>13.938750000000001</v>
+      </c>
+      <c r="M66" s="10">
         <f t="shared" si="2"/>
-        <v>13.938750000000001</v>
-      </c>
-      <c r="M66" s="10">
+        <v>0.78696428571428534</v>
+      </c>
+      <c r="N66" s="10">
+        <f t="shared" si="5"/>
+        <v>13.151785714285715</v>
+      </c>
+      <c r="O66" s="10">
         <f t="shared" si="3"/>
-        <v>0.78696428571428534</v>
-      </c>
-      <c r="N66" s="10">
-        <f t="shared" si="6"/>
-        <v>13.151785714285715</v>
-      </c>
-      <c r="O66" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P66">
@@ -4920,14 +4770,10 @@
         <v>57</v>
       </c>
       <c r="R66">
-        <v>0.05</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="8"/>
-        <v>37.576530612244902</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333304</v>
       </c>
@@ -4941,17 +4787,20 @@
         <v>9</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E97" si="11">C67-J67+G67</f>
+        <f t="shared" ref="E67:E97" si="9">C67-J67+G67</f>
         <v>14.001428571428562</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
       <c r="H67" t="s">
         <v>48</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J67" s="10">
@@ -4961,19 +4810,19 @@
         <v>17</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" ref="L67:L97" si="12">C67*0.25</f>
+        <f t="shared" ref="L67:L97" si="10">C67*0.25</f>
         <v>14.857499999999998</v>
       </c>
       <c r="M67" s="10">
-        <f t="shared" ref="M67:M97" si="13">E67*0.25</f>
+        <f t="shared" ref="M67:M97" si="11">E67*0.25</f>
         <v>3.5003571428571405</v>
       </c>
       <c r="N67" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11.357142857142858</v>
       </c>
       <c r="O67" s="10">
-        <f t="shared" ref="O67:O97" si="14">IF(G67&lt;0,ABS(G67)*0.25,0)</f>
+        <f t="shared" ref="O67:O97" si="12">IF(G67&lt;0,ABS(G67)*0.25,0)</f>
         <v>0</v>
       </c>
       <c r="P67">
@@ -4983,14 +4832,10 @@
         <v>57</v>
       </c>
       <c r="R67">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="U67">
-        <f t="shared" si="8"/>
-        <v>32.448979591836739</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -5004,17 +4849,20 @@
         <v>9</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>16.298571428571421</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
       <c r="H68" t="s">
         <v>48</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J68" s="10">
@@ -5024,19 +4872,19 @@
         <v>17</v>
       </c>
       <c r="L68" s="10">
+        <f t="shared" si="10"/>
+        <v>14.092499999999999</v>
+      </c>
+      <c r="M68" s="10">
+        <f t="shared" si="11"/>
+        <v>4.0746428571428552</v>
+      </c>
+      <c r="N68" s="10">
+        <f t="shared" ref="N68:N97" si="13">J68*0.25</f>
+        <v>10.017857142857144</v>
+      </c>
+      <c r="O68" s="10">
         <f t="shared" si="12"/>
-        <v>14.092499999999999</v>
-      </c>
-      <c r="M68" s="10">
-        <f t="shared" si="13"/>
-        <v>4.0746428571428552</v>
-      </c>
-      <c r="N68" s="10">
-        <f t="shared" ref="N68:N97" si="15">J68*0.25</f>
-        <v>10.017857142857144</v>
-      </c>
-      <c r="O68" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P68">
@@ -5046,14 +4894,10 @@
         <v>57</v>
       </c>
       <c r="R68">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="8"/>
-        <v>28.622448979591841</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666696</v>
       </c>
@@ -5067,17 +4911,20 @@
         <v>9</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>22.238571428571429</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
       <c r="H69" t="s">
         <v>48</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J69" s="10">
@@ -5087,19 +4934,19 @@
         <v>17</v>
       </c>
       <c r="L69" s="10">
+        <f t="shared" si="10"/>
+        <v>13.327500000000001</v>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" si="11"/>
+        <v>5.5596428571428573</v>
+      </c>
+      <c r="N69" s="10">
+        <f t="shared" si="13"/>
+        <v>7.7678571428571432</v>
+      </c>
+      <c r="O69" s="10">
         <f t="shared" si="12"/>
-        <v>13.327500000000001</v>
-      </c>
-      <c r="M69" s="10">
-        <f t="shared" si="13"/>
-        <v>5.5596428571428573</v>
-      </c>
-      <c r="N69" s="10">
-        <f t="shared" si="15"/>
-        <v>7.7678571428571432</v>
-      </c>
-      <c r="O69" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P69">
@@ -5109,14 +4956,10 @@
         <v>57</v>
       </c>
       <c r="R69">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="8"/>
-        <v>22.19387755102041</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.4800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333304</v>
       </c>
@@ -5130,17 +4973,20 @@
         <v>9</v>
       </c>
       <c r="E70" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>29.125714285714288</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
       <c r="H70" t="s">
         <v>48</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J70" s="10">
@@ -5150,19 +4996,19 @@
         <v>17</v>
       </c>
       <c r="L70" s="10">
+        <f t="shared" si="10"/>
+        <v>14.085000000000001</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" si="11"/>
+        <v>7.281428571428572</v>
+      </c>
+      <c r="N70" s="10">
+        <f t="shared" si="13"/>
+        <v>6.8035714285714288</v>
+      </c>
+      <c r="O70" s="10">
         <f t="shared" si="12"/>
-        <v>14.085000000000001</v>
-      </c>
-      <c r="M70" s="10">
-        <f t="shared" si="13"/>
-        <v>7.281428571428572</v>
-      </c>
-      <c r="N70" s="10">
-        <f t="shared" si="15"/>
-        <v>6.8035714285714288</v>
-      </c>
-      <c r="O70" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P70">
@@ -5172,14 +5018,10 @@
         <v>57</v>
       </c>
       <c r="R70">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="8"/>
-        <v>19.438775510204085</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.6400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -5193,17 +5035,20 @@
         <v>9</v>
       </c>
       <c r="E71" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>29.687142857142852</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
       <c r="H71" t="s">
         <v>48</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J71" s="10">
@@ -5213,19 +5058,19 @@
         <v>17</v>
       </c>
       <c r="L71" s="10">
+        <f t="shared" si="10"/>
+        <v>13.5825</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" si="11"/>
+        <v>7.4217857142857131</v>
+      </c>
+      <c r="N71" s="10">
+        <f t="shared" si="13"/>
+        <v>6.1607142857142865</v>
+      </c>
+      <c r="O71" s="10">
         <f t="shared" si="12"/>
-        <v>13.5825</v>
-      </c>
-      <c r="M71" s="10">
-        <f t="shared" si="13"/>
-        <v>7.4217857142857131</v>
-      </c>
-      <c r="N71" s="10">
-        <f t="shared" si="15"/>
-        <v>6.1607142857142865</v>
-      </c>
-      <c r="O71" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P71">
@@ -5235,14 +5080,10 @@
         <v>58</v>
       </c>
       <c r="R71">
-        <v>0.06</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="8"/>
-        <v>17.602040816326532</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666696</v>
       </c>
@@ -5256,17 +5097,20 @@
         <v>9</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>29.871428571428574</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
       <c r="H72" t="s">
         <v>48</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J72" s="10">
@@ -5276,19 +5120,19 @@
         <v>17</v>
       </c>
       <c r="L72" s="10">
+        <f t="shared" si="10"/>
+        <v>12.262500000000001</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" si="11"/>
+        <v>7.4678571428571434</v>
+      </c>
+      <c r="N72" s="10">
+        <f t="shared" si="13"/>
+        <v>4.7946428571428577</v>
+      </c>
+      <c r="O72" s="10">
         <f t="shared" si="12"/>
-        <v>12.262500000000001</v>
-      </c>
-      <c r="M72" s="10">
-        <f t="shared" si="13"/>
-        <v>7.4678571428571434</v>
-      </c>
-      <c r="N72" s="10">
-        <f t="shared" si="15"/>
-        <v>4.7946428571428577</v>
-      </c>
-      <c r="O72" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P72">
@@ -5298,14 +5142,10 @@
         <v>58</v>
       </c>
       <c r="R72">
-        <v>6.2E-2</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="8"/>
-        <v>13.698979591836737</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.9600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333304</v>
       </c>
@@ -5319,17 +5159,20 @@
         <v>9</v>
       </c>
       <c r="E73" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>33.488571428571433</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
       <c r="H73" t="s">
         <v>48</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J73" s="10">
@@ -5339,19 +5182,19 @@
         <v>17</v>
       </c>
       <c r="L73" s="10">
+        <f t="shared" si="10"/>
+        <v>12.39</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="11"/>
+        <v>8.3721428571428582</v>
+      </c>
+      <c r="N73" s="10">
+        <f t="shared" si="13"/>
+        <v>4.0178571428571432</v>
+      </c>
+      <c r="O73" s="10">
         <f t="shared" si="12"/>
-        <v>12.39</v>
-      </c>
-      <c r="M73" s="10">
-        <f t="shared" si="13"/>
-        <v>8.3721428571428582</v>
-      </c>
-      <c r="N73" s="10">
-        <f t="shared" si="15"/>
-        <v>4.0178571428571432</v>
-      </c>
-      <c r="O73" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P73">
@@ -5361,14 +5204,10 @@
         <v>58</v>
       </c>
       <c r="R73">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="8"/>
-        <v>11.479591836734695</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -5382,17 +5221,20 @@
         <v>9</v>
       </c>
       <c r="E74" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>31.442142857142855</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
       <c r="H74" t="s">
         <v>48</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.83248928571428593</v>
       </c>
       <c r="J74" s="10">
@@ -5402,19 +5244,19 @@
         <v>17</v>
       </c>
       <c r="L74" s="10">
+        <f t="shared" si="10"/>
+        <v>11.20875</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" si="11"/>
+        <v>7.8605357142857137</v>
+      </c>
+      <c r="N74" s="10">
+        <f t="shared" si="13"/>
+        <v>3.348214285714286</v>
+      </c>
+      <c r="O74" s="10">
         <f t="shared" si="12"/>
-        <v>11.20875</v>
-      </c>
-      <c r="M74" s="10">
-        <f t="shared" si="13"/>
-        <v>7.8605357142857137</v>
-      </c>
-      <c r="N74" s="10">
-        <f t="shared" si="15"/>
-        <v>3.348214285714286</v>
-      </c>
-      <c r="O74" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P74">
@@ -5424,14 +5266,10 @@
         <v>58</v>
       </c>
       <c r="R74">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="8"/>
-        <v>9.5663265306122458</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.2800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666696</v>
       </c>
@@ -5445,19 +5283,19 @@
         <v>19</v>
       </c>
       <c r="E75" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75">
-        <f t="shared" ref="G75:G77" si="16">J75-C75</f>
+        <f t="shared" ref="G75:G77" si="14">J75-C75</f>
         <v>-33.158571428571435</v>
       </c>
       <c r="H75" t="s">
         <v>5</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.74959285714285739</v>
       </c>
       <c r="J75" s="10">
@@ -5467,19 +5305,19 @@
         <v>17</v>
       </c>
       <c r="L75" s="10">
+        <f t="shared" si="10"/>
+        <v>10.807500000000001</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="10">
+        <f t="shared" si="13"/>
+        <v>2.5178571428571428</v>
+      </c>
+      <c r="O75" s="10">
         <f t="shared" si="12"/>
-        <v>10.807500000000001</v>
-      </c>
-      <c r="M75" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="10">
-        <f t="shared" si="15"/>
-        <v>2.5178571428571428</v>
-      </c>
-      <c r="O75" s="10">
-        <f t="shared" si="14"/>
         <v>8.2896428571428586</v>
       </c>
       <c r="P75">
@@ -5489,14 +5327,10 @@
         <v>58</v>
       </c>
       <c r="R75">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="8"/>
-        <v>7.1938775510204085</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.4400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333304</v>
       </c>
@@ -5510,19 +5344,19 @@
         <v>19</v>
       </c>
       <c r="E76" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-30.981428571428573</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.67213928571428594</v>
       </c>
       <c r="J76" s="10">
@@ -5532,19 +5366,19 @@
         <v>17</v>
       </c>
       <c r="L76" s="10">
+        <f t="shared" si="10"/>
+        <v>9.7275000000000009</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="10">
+        <f t="shared" si="13"/>
+        <v>1.9821428571428572</v>
+      </c>
+      <c r="O76" s="10">
         <f t="shared" si="12"/>
-        <v>9.7275000000000009</v>
-      </c>
-      <c r="M76" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="10">
-        <f t="shared" si="15"/>
-        <v>1.9821428571428572</v>
-      </c>
-      <c r="O76" s="10">
-        <f t="shared" si="14"/>
         <v>7.7453571428571433</v>
       </c>
       <c r="P76">
@@ -5554,14 +5388,10 @@
         <v>58</v>
       </c>
       <c r="R76">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="8"/>
-        <v>5.6632653061224492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.6000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -5575,19 +5405,19 @@
         <v>19</v>
       </c>
       <c r="E77" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-35.46</v>
       </c>
       <c r="H77" t="s">
         <v>5</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.58348928571428593</v>
       </c>
       <c r="J77" s="10">
@@ -5597,19 +5427,19 @@
         <v>17</v>
       </c>
       <c r="L77" s="10">
+        <f t="shared" si="10"/>
+        <v>10.1775</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="10">
+        <f t="shared" si="13"/>
+        <v>1.3125</v>
+      </c>
+      <c r="O77" s="10">
         <f t="shared" si="12"/>
-        <v>10.1775</v>
-      </c>
-      <c r="M77" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="10">
-        <f t="shared" si="15"/>
-        <v>1.3125</v>
-      </c>
-      <c r="O77" s="10">
-        <f t="shared" si="14"/>
         <v>8.8650000000000002</v>
       </c>
       <c r="P77">
@@ -5619,14 +5449,10 @@
         <v>58</v>
       </c>
       <c r="R77">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="8"/>
-        <v>3.7500000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666696</v>
       </c>
@@ -5640,7 +5466,7 @@
         <v>19</v>
       </c>
       <c r="E78" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F78" s="1"/>
@@ -5652,7 +5478,7 @@
         <v>5</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.5092446428571431</v>
       </c>
       <c r="J78" s="10">
@@ -5662,19 +5488,19 @@
         <v>17</v>
       </c>
       <c r="L78" s="10">
+        <f t="shared" si="10"/>
+        <v>8.0137499999999999</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="10">
+        <f t="shared" si="13"/>
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="O78" s="10">
         <f t="shared" si="12"/>
-        <v>8.0137499999999999</v>
-      </c>
-      <c r="M78" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="10">
-        <f t="shared" si="15"/>
-        <v>0.5892857142857143</v>
-      </c>
-      <c r="O78" s="10">
-        <f t="shared" si="14"/>
         <v>7.4244642857142855</v>
       </c>
       <c r="P78">
@@ -5684,14 +5510,10 @@
         <v>58</v>
       </c>
       <c r="R78">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="8"/>
-        <v>1.6836734693877553</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333304</v>
       </c>
@@ -5705,19 +5527,19 @@
         <v>19</v>
       </c>
       <c r="E79" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79">
-        <f t="shared" ref="G79:G84" si="17">J79-C79</f>
+        <f t="shared" ref="G79:G82" si="15">J79-C79</f>
         <v>-31.960714285714282</v>
       </c>
       <c r="H79" t="s">
         <v>5</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.42934285714285741</v>
       </c>
       <c r="J79" s="10">
@@ -5727,19 +5549,19 @@
         <v>17</v>
       </c>
       <c r="L79" s="10">
+        <f t="shared" si="10"/>
+        <v>8.4187499999999993</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="10">
+        <f t="shared" si="13"/>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="O79" s="10">
         <f t="shared" si="12"/>
-        <v>8.4187499999999993</v>
-      </c>
-      <c r="M79" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="10">
-        <f t="shared" si="15"/>
-        <v>0.4285714285714286</v>
-      </c>
-      <c r="O79" s="10">
-        <f t="shared" si="14"/>
         <v>7.9901785714285705</v>
       </c>
       <c r="P79">
@@ -5749,14 +5571,10 @@
         <v>58</v>
       </c>
       <c r="R79">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="8"/>
-        <v>1.2244897959183676</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.08E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -5770,19 +5588,19 @@
         <v>19</v>
       </c>
       <c r="E80" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-31.538571428571426</v>
       </c>
       <c r="H80" t="s">
         <v>5</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.35049642857142882</v>
       </c>
       <c r="J80" s="10">
@@ -5792,19 +5610,19 @@
         <v>17</v>
       </c>
       <c r="L80" s="10">
+        <f t="shared" si="10"/>
+        <v>8.1524999999999999</v>
+      </c>
+      <c r="M80" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="10">
+        <f t="shared" si="13"/>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="O80" s="10">
         <f t="shared" si="12"/>
-        <v>8.1524999999999999</v>
-      </c>
-      <c r="M80" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="10">
-        <f t="shared" si="15"/>
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="O80" s="10">
-        <f t="shared" si="14"/>
         <v>7.8846428571428566</v>
       </c>
       <c r="P80">
@@ -5814,14 +5632,10 @@
         <v>58</v>
       </c>
       <c r="R80">
-        <v>7.8E-2</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="8"/>
-        <v>0.76530612244897966</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.2400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666696</v>
       </c>
@@ -5835,19 +5649,19 @@
         <v>19</v>
       </c>
       <c r="E81" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-26.61214285714286</v>
       </c>
       <c r="H81" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.28396607142857166</v>
       </c>
       <c r="J81" s="10">
@@ -5857,19 +5671,19 @@
         <v>17</v>
       </c>
       <c r="L81" s="10">
+        <f t="shared" si="10"/>
+        <v>6.8137500000000006</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="10">
+        <f t="shared" si="13"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="O81" s="10">
         <f t="shared" si="12"/>
-        <v>6.8137500000000006</v>
-      </c>
-      <c r="M81" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="10">
-        <f t="shared" si="15"/>
-        <v>0.16071428571428573</v>
-      </c>
-      <c r="O81" s="10">
-        <f t="shared" si="14"/>
         <v>6.6530357142857151</v>
       </c>
       <c r="P81">
@@ -5879,14 +5693,10 @@
         <v>58</v>
       </c>
       <c r="R81">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="8"/>
-        <v>0.45918367346938782</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.6000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333304</v>
       </c>
@@ -5900,19 +5710,19 @@
         <v>7</v>
       </c>
       <c r="E82" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-27.39</v>
       </c>
       <c r="H82" t="s">
         <v>5</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.21549107142857166</v>
       </c>
       <c r="J82" s="10">
@@ -5922,21 +5732,21 @@
         <v>47</v>
       </c>
       <c r="L82" s="10">
+        <f t="shared" si="10"/>
+        <v>6.8475000000000001</v>
+      </c>
+      <c r="M82" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="10">
         <f t="shared" si="12"/>
         <v>6.8475000000000001</v>
       </c>
-      <c r="M82" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O82" s="10">
-        <f t="shared" si="14"/>
-        <v>6.8475000000000001</v>
-      </c>
       <c r="P82">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -5944,14 +5754,10 @@
         <v>58</v>
       </c>
       <c r="R82">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -5965,7 +5771,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>14.900000000000002</v>
       </c>
       <c r="F83" s="1"/>
@@ -5976,7 +5782,7 @@
         <v>5</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J83" s="10">
@@ -5986,19 +5792,19 @@
         <v>47</v>
       </c>
       <c r="L83" s="10">
+        <f t="shared" si="10"/>
+        <v>6.5325000000000006</v>
+      </c>
+      <c r="M83" s="10">
+        <f t="shared" si="11"/>
+        <v>3.7250000000000005</v>
+      </c>
+      <c r="N83" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="10">
         <f t="shared" si="12"/>
-        <v>6.5325000000000006</v>
-      </c>
-      <c r="M83" s="10">
-        <f t="shared" si="13"/>
-        <v>3.7250000000000005</v>
-      </c>
-      <c r="N83" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O83" s="10">
-        <f t="shared" si="14"/>
         <v>2.8075000000000001</v>
       </c>
       <c r="P83">
@@ -6008,14 +5814,10 @@
         <v>58</v>
       </c>
       <c r="R83">
-        <v>0.06</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666696</v>
       </c>
@@ -6029,17 +5831,20 @@
         <v>8</v>
       </c>
       <c r="E84" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>25.650000000000002</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
       <c r="H84" t="s">
         <v>48</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J84" s="10">
@@ -6049,19 +5854,19 @@
         <v>47</v>
       </c>
       <c r="L84" s="10">
+        <f t="shared" si="10"/>
+        <v>6.4125000000000005</v>
+      </c>
+      <c r="M84" s="10">
+        <f t="shared" si="11"/>
+        <v>6.4125000000000005</v>
+      </c>
+      <c r="N84" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="10">
         <f t="shared" si="12"/>
-        <v>6.4125000000000005</v>
-      </c>
-      <c r="M84" s="10">
-        <f t="shared" si="13"/>
-        <v>6.4125000000000005</v>
-      </c>
-      <c r="N84" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O84" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P84">
@@ -6071,14 +5876,10 @@
         <v>58</v>
       </c>
       <c r="R84">
-        <v>5.5E-2</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333304</v>
       </c>
@@ -6092,17 +5893,20 @@
         <v>8</v>
       </c>
       <c r="E85" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>24.630000000000003</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
       <c r="H85" t="s">
         <v>48</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J85" s="10">
@@ -6112,19 +5916,19 @@
         <v>47</v>
       </c>
       <c r="L85" s="10">
+        <f t="shared" si="10"/>
+        <v>6.1575000000000006</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="11"/>
+        <v>6.1575000000000006</v>
+      </c>
+      <c r="N85" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="10">
         <f t="shared" si="12"/>
-        <v>6.1575000000000006</v>
-      </c>
-      <c r="M85" s="10">
-        <f t="shared" si="13"/>
-        <v>6.1575000000000006</v>
-      </c>
-      <c r="N85" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O85" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P85">
@@ -6134,14 +5938,10 @@
         <v>58</v>
       </c>
       <c r="R85">
-        <v>0.05</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -6155,17 +5955,20 @@
         <v>8</v>
       </c>
       <c r="E86" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>21.72</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
       <c r="H86" t="s">
         <v>48</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J86" s="10">
@@ -6175,19 +5978,19 @@
         <v>47</v>
       </c>
       <c r="L86" s="10">
+        <f t="shared" si="10"/>
+        <v>5.43</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" si="11"/>
+        <v>5.43</v>
+      </c>
+      <c r="N86" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="10">
         <f t="shared" si="12"/>
-        <v>5.43</v>
-      </c>
-      <c r="M86" s="10">
-        <f t="shared" si="13"/>
-        <v>5.43</v>
-      </c>
-      <c r="N86" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O86" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P86">
@@ -6197,14 +6000,10 @@
         <v>58</v>
       </c>
       <c r="R86">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.8400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666696</v>
       </c>
@@ -6218,17 +6017,20 @@
         <v>8</v>
       </c>
       <c r="E87" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>18.240000000000002</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
       <c r="H87" t="s">
         <v>48</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J87" s="10">
@@ -6238,19 +6040,19 @@
         <v>47</v>
       </c>
       <c r="L87" s="10">
+        <f t="shared" si="10"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" si="11"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="N87" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="10">
         <f t="shared" si="12"/>
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="M87" s="10">
-        <f t="shared" si="13"/>
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="N87" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O87" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P87">
@@ -6260,14 +6062,10 @@
         <v>58</v>
       </c>
       <c r="R87">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333304</v>
       </c>
@@ -6281,17 +6079,20 @@
         <v>8</v>
       </c>
       <c r="E88" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>17.46</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
       <c r="H88" t="s">
         <v>48</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J88" s="10">
@@ -6301,19 +6102,19 @@
         <v>47</v>
       </c>
       <c r="L88" s="10">
+        <f t="shared" si="10"/>
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="N88" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="10">
         <f t="shared" si="12"/>
-        <v>4.3650000000000002</v>
-      </c>
-      <c r="M88" s="10">
-        <f t="shared" si="13"/>
-        <v>4.3650000000000002</v>
-      </c>
-      <c r="N88" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P88">
@@ -6323,14 +6124,10 @@
         <v>57</v>
       </c>
       <c r="R88">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -6344,17 +6141,20 @@
         <v>8</v>
       </c>
       <c r="E89" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>14.475000000000001</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
       <c r="H89" t="s">
         <v>48</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J89" s="10">
@@ -6364,19 +6164,19 @@
         <v>47</v>
       </c>
       <c r="L89" s="10">
+        <f t="shared" si="10"/>
+        <v>3.6187500000000004</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" si="11"/>
+        <v>3.6187500000000004</v>
+      </c>
+      <c r="N89" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="10">
         <f t="shared" si="12"/>
-        <v>3.6187500000000004</v>
-      </c>
-      <c r="M89" s="10">
-        <f t="shared" si="13"/>
-        <v>3.6187500000000004</v>
-      </c>
-      <c r="N89" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P89">
@@ -6386,14 +6186,10 @@
         <v>57</v>
       </c>
       <c r="R89">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666696</v>
       </c>
@@ -6407,17 +6203,20 @@
         <v>8</v>
       </c>
       <c r="E90" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10.83</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
       <c r="H90" t="s">
         <v>48</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J90" s="10">
@@ -6427,19 +6226,19 @@
         <v>47</v>
       </c>
       <c r="L90" s="10">
+        <f t="shared" si="10"/>
+        <v>2.7075</v>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" si="11"/>
+        <v>2.7075</v>
+      </c>
+      <c r="N90" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="10">
         <f t="shared" si="12"/>
-        <v>2.7075</v>
-      </c>
-      <c r="M90" s="10">
-        <f t="shared" si="13"/>
-        <v>2.7075</v>
-      </c>
-      <c r="N90" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P90">
@@ -6449,14 +6248,10 @@
         <v>57</v>
       </c>
       <c r="R90">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333304</v>
       </c>
@@ -6470,17 +6265,20 @@
         <v>8</v>
       </c>
       <c r="E91" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10.845000000000001</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
       <c r="H91" t="s">
         <v>48</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J91" s="10">
@@ -6490,19 +6288,19 @@
         <v>47</v>
       </c>
       <c r="L91" s="10">
+        <f t="shared" si="10"/>
+        <v>2.7112500000000002</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" si="11"/>
+        <v>2.7112500000000002</v>
+      </c>
+      <c r="N91" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="10">
         <f t="shared" si="12"/>
-        <v>2.7112500000000002</v>
-      </c>
-      <c r="M91" s="10">
-        <f t="shared" si="13"/>
-        <v>2.7112500000000002</v>
-      </c>
-      <c r="N91" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O91" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P91">
@@ -6512,14 +6310,10 @@
         <v>57</v>
       </c>
       <c r="R91">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -6533,17 +6327,20 @@
         <v>8</v>
       </c>
       <c r="E92" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10.5</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
       <c r="H92" t="s">
         <v>48</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J92" s="10">
@@ -6553,19 +6350,19 @@
         <v>47</v>
       </c>
       <c r="L92" s="10">
+        <f t="shared" si="10"/>
+        <v>2.625</v>
+      </c>
+      <c r="M92" s="10">
+        <f t="shared" si="11"/>
+        <v>2.625</v>
+      </c>
+      <c r="N92" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="10">
         <f t="shared" si="12"/>
-        <v>2.625</v>
-      </c>
-      <c r="M92" s="10">
-        <f t="shared" si="13"/>
-        <v>2.625</v>
-      </c>
-      <c r="N92" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O92" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P92">
@@ -6575,14 +6372,10 @@
         <v>55</v>
       </c>
       <c r="R92">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666696</v>
       </c>
@@ -6596,17 +6389,20 @@
         <v>8</v>
       </c>
       <c r="E93" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10.23</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
       <c r="H93" t="s">
         <v>48</v>
       </c>
       <c r="I93" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J93" s="10">
@@ -6616,19 +6412,19 @@
         <v>47</v>
       </c>
       <c r="L93" s="10">
+        <f t="shared" si="10"/>
+        <v>2.5575000000000001</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" si="11"/>
+        <v>2.5575000000000001</v>
+      </c>
+      <c r="N93" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="10">
         <f t="shared" si="12"/>
-        <v>2.5575000000000001</v>
-      </c>
-      <c r="M93" s="10">
-        <f t="shared" si="13"/>
-        <v>2.5575000000000001</v>
-      </c>
-      <c r="N93" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O93" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P93">
@@ -6638,14 +6434,10 @@
         <v>55</v>
       </c>
       <c r="R93">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -6659,17 +6451,20 @@
         <v>8</v>
       </c>
       <c r="E94" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.7349999999999994</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
       <c r="H94" t="s">
         <v>48</v>
       </c>
       <c r="I94" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J94" s="10">
@@ -6679,19 +6474,19 @@
         <v>47</v>
       </c>
       <c r="L94" s="10">
+        <f t="shared" si="10"/>
+        <v>2.4337499999999999</v>
+      </c>
+      <c r="M94" s="10">
+        <f t="shared" si="11"/>
+        <v>2.4337499999999999</v>
+      </c>
+      <c r="N94" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="10">
         <f t="shared" si="12"/>
-        <v>2.4337499999999999</v>
-      </c>
-      <c r="M94" s="10">
-        <f t="shared" si="13"/>
-        <v>2.4337499999999999</v>
-      </c>
-      <c r="N94" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O94" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P94">
@@ -6701,14 +6496,10 @@
         <v>55</v>
       </c>
       <c r="R94">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -6722,17 +6513,20 @@
         <v>8</v>
       </c>
       <c r="E95" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.69</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
       <c r="H95" t="s">
         <v>48</v>
       </c>
       <c r="I95" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J95" s="10">
@@ -6742,19 +6536,19 @@
         <v>47</v>
       </c>
       <c r="L95" s="10">
+        <f t="shared" si="10"/>
+        <v>2.4224999999999999</v>
+      </c>
+      <c r="M95" s="10">
+        <f t="shared" si="11"/>
+        <v>2.4224999999999999</v>
+      </c>
+      <c r="N95" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="10">
         <f t="shared" si="12"/>
-        <v>2.4224999999999999</v>
-      </c>
-      <c r="M95" s="10">
-        <f t="shared" si="13"/>
-        <v>2.4224999999999999</v>
-      </c>
-      <c r="N95" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O95" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P95">
@@ -6764,14 +6558,10 @@
         <v>55</v>
       </c>
       <c r="R95">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666696</v>
       </c>
@@ -6785,17 +6575,20 @@
         <v>8</v>
       </c>
       <c r="E96" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8.0849999999999991</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
       <c r="H96" t="s">
         <v>48</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J96" s="10">
@@ -6805,19 +6598,19 @@
         <v>47</v>
       </c>
       <c r="L96" s="10">
+        <f t="shared" si="10"/>
+        <v>2.0212499999999998</v>
+      </c>
+      <c r="M96" s="10">
+        <f t="shared" si="11"/>
+        <v>2.0212499999999998</v>
+      </c>
+      <c r="N96" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="10">
         <f t="shared" si="12"/>
-        <v>2.0212499999999998</v>
-      </c>
-      <c r="M96" s="10">
-        <f t="shared" si="13"/>
-        <v>2.0212499999999998</v>
-      </c>
-      <c r="N96" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O96" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P96">
@@ -6827,14 +6620,10 @@
         <v>55</v>
       </c>
       <c r="R96">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333304</v>
       </c>
@@ -6848,17 +6637,20 @@
         <v>8</v>
       </c>
       <c r="E97" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
       <c r="H97" t="s">
         <v>48</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18741607142857164</v>
       </c>
       <c r="J97" s="10">
@@ -6868,19 +6660,19 @@
         <v>47</v>
       </c>
       <c r="L97" s="10">
+        <f t="shared" si="10"/>
+        <v>2.1375000000000002</v>
+      </c>
+      <c r="M97" s="10">
+        <f t="shared" si="11"/>
+        <v>2.1375000000000002</v>
+      </c>
+      <c r="N97" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="10">
         <f t="shared" si="12"/>
-        <v>2.1375000000000002</v>
-      </c>
-      <c r="M97" s="10">
-        <f t="shared" si="13"/>
-        <v>2.1375000000000002</v>
-      </c>
-      <c r="N97" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O97" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P97">
@@ -6890,14 +6682,10 @@
         <v>55</v>
       </c>
       <c r="R97">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F98" s="1"/>
     </row>
   </sheetData>

--- a/Consumption.xlsx
+++ b/Consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\EnergySite\energy_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51531D2B-23EB-4A84-88A3-7D8F7BD38DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6E4AE4-4A62-475A-9D32-C5D46C28016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
+    <workbookView xWindow="32595" yWindow="915" windowWidth="21600" windowHeight="13215" xr2:uid="{DBB553FB-9E8C-47FF-81A1-BDC0FE81551A}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="66">
   <si>
     <t>Exporting</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>grid</t>
-  </si>
-  <si>
-    <t>gridMeter</t>
   </si>
   <si>
     <t>inverter</t>
@@ -233,6 +230,12 @@
   </si>
   <si>
     <t>SOLAR PRODUCTION</t>
+  </si>
+  <si>
+    <t>gateway</t>
+  </si>
+  <si>
+    <t>GATEWAY</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
@@ -718,25 +721,25 @@
         <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>7.6050000000000004</v>
@@ -763,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="5">
         <v>0.23</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="10">
         <f>C2*0.25</f>
@@ -794,7 +797,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R2">
         <v>3.5999999999999997E-2</v>
@@ -805,7 +808,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>7.7099999999999991</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="5">
         <f>I2+G3*0.5%</f>
@@ -834,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="10">
         <f t="shared" ref="L3:L66" si="1">C3*0.25</f>
@@ -856,7 +859,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R3">
         <v>3.5999999999999997E-2</v>
@@ -867,7 +870,7 @@
         <v>2.0833333333333301E-2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>7.0649999999999995</v>
@@ -886,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ref="I4:I50" si="4">I3+G4*0.5%</f>
@@ -896,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" si="1"/>
@@ -918,7 +921,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R4">
         <v>3.5999999999999997E-2</v>
@@ -929,7 +932,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>8.2349999999999994</v>
@@ -948,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="4"/>
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="1"/>
@@ -980,7 +983,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5">
         <v>3.5200000000000002E-2</v>
@@ -991,7 +994,7 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>7.17</v>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="4"/>
@@ -1020,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="1"/>
@@ -1042,7 +1045,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6">
         <v>3.5200000000000002E-2</v>
@@ -1053,7 +1056,7 @@
         <v>5.2083333333333301E-2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>7.4700000000000006</v>
@@ -1072,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="4"/>
@@ -1082,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="1"/>
@@ -1104,7 +1107,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R7">
         <v>3.5200000000000002E-2</v>
@@ -1115,7 +1118,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>7.875</v>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="4"/>
@@ -1144,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="1"/>
@@ -1166,7 +1169,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8">
         <v>3.5200000000000002E-2</v>
@@ -1177,7 +1180,7 @@
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>7.3349999999999991</v>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="4"/>
@@ -1206,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="1"/>
@@ -1228,7 +1231,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R9">
         <v>3.44E-2</v>
@@ -1239,7 +1242,7 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>7.3949999999999996</v>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="4"/>
@@ -1268,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="1"/>
@@ -1290,7 +1293,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10">
         <v>3.44E-2</v>
@@ -1301,7 +1304,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>7.4399999999999995</v>
@@ -1320,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="4"/>
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="1"/>
@@ -1352,7 +1355,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R11">
         <v>3.44E-2</v>
@@ -1363,7 +1366,7 @@
         <v>0.104166666666667</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>7.89</v>
@@ -1392,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="1"/>
@@ -1414,7 +1417,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R12">
         <v>3.44E-2</v>
@@ -1425,7 +1428,7 @@
         <v>0.114583333333333</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>8.43</v>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="1"/>
@@ -1476,7 +1479,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R13">
         <v>3.3600000000000005E-2</v>
@@ -1487,7 +1490,7 @@
         <v>0.125</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>7.74</v>
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="1"/>
@@ -1538,7 +1541,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R14">
         <v>3.3600000000000005E-2</v>
@@ -1549,7 +1552,7 @@
         <v>0.13541666666666699</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>7.38</v>
@@ -1578,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="1"/>
@@ -1600,7 +1603,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R15">
         <v>3.3600000000000005E-2</v>
@@ -1611,7 +1614,7 @@
         <v>0.14583333333333301</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>7.89</v>
@@ -1640,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="1"/>
@@ -1662,7 +1665,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R16">
         <v>3.3600000000000005E-2</v>
@@ -1673,7 +1676,7 @@
         <v>0.15625</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>7.5449999999999999</v>
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="1"/>
@@ -1724,7 +1727,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R17">
         <v>3.2800000000000003E-2</v>
@@ -1735,7 +1738,7 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>7.7250000000000005</v>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="1"/>
@@ -1786,7 +1789,7 @@
         <v>0.04</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R18">
         <v>3.2800000000000003E-2</v>
@@ -1797,7 +1800,7 @@
         <v>0.17708333333333301</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>8.5950000000000006</v>
@@ -1826,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="1"/>
@@ -1848,7 +1851,7 @@
         <v>0.04</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R19">
         <v>3.2800000000000003E-2</v>
@@ -1859,7 +1862,7 @@
         <v>0.1875</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>8.43</v>
@@ -1888,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="1"/>
@@ -1910,7 +1913,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R20">
         <v>3.2800000000000003E-2</v>
@@ -1921,7 +1924,7 @@
         <v>0.19791666666666699</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>9.18</v>
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="4"/>
@@ -1950,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="1"/>
@@ -1972,7 +1975,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R21">
         <v>3.2000000000000001E-2</v>
@@ -1983,7 +1986,7 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>9.3149999999999995</v>
@@ -2002,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="4"/>
@@ -2012,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="1"/>
@@ -2034,7 +2037,7 @@
         <v>0.04</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R22">
         <v>3.2000000000000001E-2</v>
@@ -2045,7 +2048,7 @@
         <v>0.21875</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -2064,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="4"/>
@@ -2096,7 +2099,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R23">
         <v>3.2000000000000001E-2</v>
@@ -2107,7 +2110,7 @@
         <v>0.22916666666666699</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>14.64</v>
@@ -2126,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="4"/>
@@ -2158,7 +2161,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R24">
         <v>3.2000000000000001E-2</v>
@@ -2169,7 +2172,7 @@
         <v>0.23958333333333301</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>16.23</v>
@@ -2188,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="4"/>
@@ -2220,7 +2223,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R25">
         <v>3.3600000000000005E-2</v>
@@ -2231,7 +2234,7 @@
         <v>0.25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>19.049999999999997</v>
@@ -2250,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="4"/>
@@ -2282,7 +2285,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R26">
         <v>3.5200000000000002E-2</v>
@@ -2293,7 +2296,7 @@
         <v>0.26041666666666702</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>23.234999999999999</v>
@@ -2312,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="4"/>
@@ -2344,7 +2347,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R27">
         <v>3.6799999999999999E-2</v>
@@ -2355,7 +2358,7 @@
         <v>0.27083333333333298</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>26.895</v>
@@ -2374,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="4"/>
@@ -2406,7 +2409,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R28">
         <v>3.8400000000000004E-2</v>
@@ -2417,7 +2420,7 @@
         <v>0.28125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>30.224999999999998</v>
@@ -2436,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="4"/>
@@ -2468,7 +2471,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R29">
         <v>4.0000000000000008E-2</v>
@@ -2479,7 +2482,7 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>33.839999999999996</v>
@@ -2498,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="4"/>
@@ -2530,7 +2533,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R30">
         <v>4.1599999999999998E-2</v>
@@ -2541,7 +2544,7 @@
         <v>0.30208333333333298</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>39.765000000000001</v>
@@ -2560,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="4"/>
@@ -2592,7 +2595,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R31">
         <v>4.3200000000000002E-2</v>
@@ -2603,7 +2606,7 @@
         <v>0.3125</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>43.68</v>
@@ -2622,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="4"/>
@@ -2654,7 +2657,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R32">
         <v>4.4800000000000006E-2</v>
@@ -2665,7 +2668,7 @@
         <v>0.32291666666666702</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>52.605000000000004</v>
@@ -2684,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="4"/>
@@ -2716,7 +2719,7 @@
         <v>0.06</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R33">
         <v>4.6400000000000004E-2</v>
@@ -2727,7 +2730,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>47.325000000000003</v>
@@ -2746,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="4"/>
@@ -2778,7 +2781,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R34">
         <v>4.8000000000000001E-2</v>
@@ -2789,7 +2792,7 @@
         <v>0.34375</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>55.44</v>
@@ -2808,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="4"/>
@@ -2840,7 +2843,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R35">
         <v>4.9600000000000005E-2</v>
@@ -2851,7 +2854,7 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>58.800000000000004</v>
@@ -2903,7 +2906,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R36">
         <v>5.1200000000000002E-2</v>
@@ -2914,7 +2917,7 @@
         <v>0.36458333333333298</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>64.004999999999995</v>
@@ -2966,7 +2969,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R37">
         <v>4.8000000000000001E-2</v>
@@ -2977,7 +2980,7 @@
         <v>0.375</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>64.739999999999995</v>
@@ -3029,7 +3032,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R38">
         <v>4.4800000000000006E-2</v>
@@ -3040,7 +3043,7 @@
         <v>0.38541666666666702</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>62.655000000000001</v>
@@ -3092,7 +3095,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R39">
         <v>4.1599999999999998E-2</v>
@@ -3103,7 +3106,7 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>66.224999999999994</v>
@@ -3155,7 +3158,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R40">
         <v>3.8400000000000004E-2</v>
@@ -3166,7 +3169,7 @@
         <v>0.40625</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>69.074999999999989</v>
@@ -3185,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="4"/>
@@ -3217,7 +3220,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R41">
         <v>3.5200000000000002E-2</v>
@@ -3228,7 +3231,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>68.114999999999995</v>
@@ -3247,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="4"/>
@@ -3279,7 +3282,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R42">
         <v>3.2000000000000001E-2</v>
@@ -3290,7 +3293,7 @@
         <v>0.42708333333333298</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>71.820000000000007</v>
@@ -3309,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="4"/>
@@ -3341,7 +3344,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R43">
         <v>2.8799999999999999E-2</v>
@@ -3352,7 +3355,7 @@
         <v>0.4375</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44">
         <v>65.099999999999994</v>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="4"/>
@@ -3403,7 +3406,7 @@
         <v>0.05</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R44">
         <v>2.5600000000000001E-2</v>
@@ -3414,7 +3417,7 @@
         <v>0.44791666666666702</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>75.974999999999994</v>
@@ -3433,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="4"/>
@@ -3465,7 +3468,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R45">
         <v>2.4E-2</v>
@@ -3476,7 +3479,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46">
         <v>75.960000000000008</v>
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="4"/>
@@ -3527,7 +3530,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R46">
         <v>2.2400000000000003E-2</v>
@@ -3538,7 +3541,7 @@
         <v>0.46875</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>70.784999999999997</v>
@@ -3589,7 +3592,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R47">
         <v>2.0799999999999999E-2</v>
@@ -3600,7 +3603,7 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>73.5</v>
@@ -3651,7 +3654,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R48">
         <v>1.9200000000000002E-2</v>
@@ -3662,7 +3665,7 @@
         <v>0.48958333333333298</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49">
         <v>71.88</v>
@@ -3713,7 +3716,7 @@
         <v>0.03</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R49">
         <v>1.7600000000000001E-2</v>
@@ -3724,7 +3727,7 @@
         <v>0.5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>69.36</v>
@@ -3775,7 +3778,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R50">
         <v>1.6E-2</v>
@@ -3786,7 +3789,7 @@
         <v>0.51041666666666696</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>71.655000000000001</v>
@@ -3837,7 +3840,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R51">
         <v>1.6E-2</v>
@@ -3848,7 +3851,7 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>73.905000000000001</v>
@@ -3899,7 +3902,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R52">
         <v>1.7600000000000001E-2</v>
@@ -3910,7 +3913,7 @@
         <v>0.53125</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53">
         <v>69.63</v>
@@ -3961,7 +3964,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R53">
         <v>1.9200000000000002E-2</v>
@@ -3972,7 +3975,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54">
         <v>69.314999999999998</v>
@@ -4023,7 +4026,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R54">
         <v>2.0799999999999999E-2</v>
@@ -4034,7 +4037,7 @@
         <v>0.55208333333333304</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55">
         <v>69.465000000000003</v>
@@ -4085,7 +4088,7 @@
         <v>0.03</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R55">
         <v>2.2400000000000003E-2</v>
@@ -4096,7 +4099,7 @@
         <v>0.5625</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56">
         <v>70.185000000000002</v>
@@ -4147,7 +4150,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R56">
         <v>2.4E-2</v>
@@ -4158,7 +4161,7 @@
         <v>0.57291666666666696</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>71.789999999999992</v>
@@ -4209,7 +4212,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R57">
         <v>2.5600000000000001E-2</v>
@@ -4220,7 +4223,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58">
         <v>65.894999999999996</v>
@@ -4271,7 +4274,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R58">
         <v>2.7200000000000002E-2</v>
@@ -4282,7 +4285,7 @@
         <v>0.59375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>68.28</v>
@@ -4333,7 +4336,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R59">
         <v>2.8799999999999999E-2</v>
@@ -4344,7 +4347,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>66.795000000000002</v>
@@ -4395,7 +4398,7 @@
         <v>0.04</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R60">
         <v>3.04E-2</v>
@@ -4406,7 +4409,7 @@
         <v>0.61458333333333304</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61">
         <v>60.66</v>
@@ -4457,7 +4460,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R61">
         <v>3.2000000000000001E-2</v>
@@ -4468,7 +4471,7 @@
         <v>0.625</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>63.765000000000001</v>
@@ -4487,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" s="5">
         <f t="shared" si="8"/>
@@ -4519,7 +4522,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R62">
         <v>3.3600000000000005E-2</v>
@@ -4530,7 +4533,7 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>63.480000000000004</v>
@@ -4549,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" s="5">
         <f t="shared" si="8"/>
@@ -4581,7 +4584,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R63">
         <v>3.5200000000000002E-2</v>
@@ -4592,7 +4595,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>62.67</v>
@@ -4611,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" s="5">
         <f t="shared" si="8"/>
@@ -4643,7 +4646,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R64">
         <v>3.6799999999999999E-2</v>
@@ -4654,7 +4657,7 @@
         <v>0.65625</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <v>62.550000000000004</v>
@@ -4673,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" si="8"/>
@@ -4705,7 +4708,7 @@
         <v>0.05</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R65">
         <v>3.8400000000000004E-2</v>
@@ -4716,7 +4719,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>55.755000000000003</v>
@@ -4735,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" si="8"/>
@@ -4767,7 +4770,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R66">
         <v>4.0000000000000008E-2</v>
@@ -4778,7 +4781,7 @@
         <v>0.67708333333333304</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>59.429999999999993</v>
@@ -4797,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="8"/>
@@ -4829,7 +4832,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R67">
         <v>4.1599999999999998E-2</v>
@@ -4840,7 +4843,7 @@
         <v>0.6875</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C68">
         <v>56.37</v>
@@ -4859,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="8"/>
@@ -4891,7 +4894,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R68">
         <v>4.3200000000000002E-2</v>
@@ -4902,7 +4905,7 @@
         <v>0.69791666666666696</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69">
         <v>53.31</v>
@@ -4921,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" s="5">
         <f t="shared" si="8"/>
@@ -4953,7 +4956,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R69">
         <v>4.4800000000000006E-2</v>
@@ -4964,7 +4967,7 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>56.34</v>
@@ -4983,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="8"/>
@@ -5015,7 +5018,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R70">
         <v>4.6400000000000004E-2</v>
@@ -5026,7 +5029,7 @@
         <v>0.71875</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>54.33</v>
@@ -5045,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" s="5">
         <f t="shared" si="8"/>
@@ -5077,7 +5080,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R71">
         <v>4.8000000000000001E-2</v>
@@ -5088,7 +5091,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72">
         <v>49.050000000000004</v>
@@ -5107,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" si="8"/>
@@ -5139,7 +5142,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R72">
         <v>4.9600000000000005E-2</v>
@@ -5150,7 +5153,7 @@
         <v>0.73958333333333304</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73">
         <v>49.56</v>
@@ -5169,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" s="5">
         <f t="shared" si="8"/>
@@ -5201,7 +5204,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R73">
         <v>5.1200000000000002E-2</v>
@@ -5212,7 +5215,7 @@
         <v>0.75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74">
         <v>44.835000000000001</v>
@@ -5231,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" si="8"/>
@@ -5263,7 +5266,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R74">
         <v>5.2800000000000007E-2</v>
@@ -5274,7 +5277,7 @@
         <v>0.76041666666666696</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75">
         <v>43.230000000000004</v>
@@ -5324,7 +5327,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R75">
         <v>5.4400000000000004E-2</v>
@@ -5335,7 +5338,7 @@
         <v>0.77083333333333304</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>38.910000000000004</v>
@@ -5385,7 +5388,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R76">
         <v>5.6000000000000008E-2</v>
@@ -5396,7 +5399,7 @@
         <v>0.78125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>40.71</v>
@@ -5446,7 +5449,7 @@
         <v>0.09</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R77">
         <v>5.7599999999999998E-2</v>
@@ -5457,7 +5460,7 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78">
         <v>32.055</v>
@@ -5507,7 +5510,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R78">
         <v>5.9200000000000003E-2</v>
@@ -5518,7 +5521,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79">
         <v>33.674999999999997</v>
@@ -5568,7 +5571,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R79">
         <v>6.08E-2</v>
@@ -5579,7 +5582,7 @@
         <v>0.8125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80">
         <v>32.61</v>
@@ -5629,7 +5632,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R80">
         <v>6.2400000000000004E-2</v>
@@ -5640,7 +5643,7 @@
         <v>0.82291666666666696</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81">
         <v>27.255000000000003</v>
@@ -5690,7 +5693,7 @@
         <v>0.1</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R81">
         <v>5.6000000000000008E-2</v>
@@ -5701,7 +5704,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C82">
         <v>27.39</v>
@@ -5729,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L82" s="10">
         <f t="shared" si="10"/>
@@ -5751,7 +5754,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R82">
         <v>5.2000000000000005E-2</v>
@@ -5762,7 +5765,7 @@
         <v>0.84375</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83">
         <v>26.130000000000003</v>
@@ -5789,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L83" s="10">
         <f t="shared" si="10"/>
@@ -5811,7 +5814,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R83">
         <v>4.8000000000000001E-2</v>
@@ -5822,7 +5825,7 @@
         <v>0.85416666666666696</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84">
         <v>25.650000000000002</v>
@@ -5841,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="8"/>
@@ -5851,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L84" s="10">
         <f t="shared" si="10"/>
@@ -5873,7 +5876,7 @@
         <v>0.08</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R84">
         <v>4.4000000000000004E-2</v>
@@ -5884,7 +5887,7 @@
         <v>0.86458333333333304</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>24.630000000000003</v>
@@ -5903,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="8"/>
@@ -5913,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L85" s="10">
         <f t="shared" si="10"/>
@@ -5935,7 +5938,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R85">
         <v>4.0000000000000008E-2</v>
@@ -5946,7 +5949,7 @@
         <v>0.875</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86">
         <v>21.72</v>
@@ -5965,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" si="8"/>
@@ -5975,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L86" s="10">
         <f t="shared" si="10"/>
@@ -5997,7 +6000,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R86">
         <v>3.8400000000000004E-2</v>
@@ -6008,7 +6011,7 @@
         <v>0.88541666666666696</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87">
         <v>18.240000000000002</v>
@@ -6027,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" si="8"/>
@@ -6037,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L87" s="10">
         <f t="shared" si="10"/>
@@ -6059,7 +6062,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R87">
         <v>3.6799999999999999E-2</v>
@@ -6070,7 +6073,7 @@
         <v>0.89583333333333304</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88">
         <v>17.46</v>
@@ -6089,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="8"/>
@@ -6099,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L88" s="10">
         <f t="shared" si="10"/>
@@ -6121,7 +6124,7 @@
         <v>0.06</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R88">
         <v>3.5200000000000002E-2</v>
@@ -6132,7 +6135,7 @@
         <v>0.90625</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C89">
         <v>14.475000000000001</v>
@@ -6151,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" si="8"/>
@@ -6161,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L89" s="10">
         <f t="shared" si="10"/>
@@ -6183,7 +6186,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R89">
         <v>3.44E-2</v>
@@ -6194,7 +6197,7 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90">
         <v>10.83</v>
@@ -6213,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="8"/>
@@ -6223,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L90" s="10">
         <f t="shared" si="10"/>
@@ -6245,7 +6248,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R90">
         <v>3.44E-2</v>
@@ -6256,7 +6259,7 @@
         <v>0.92708333333333304</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>10.845000000000001</v>
@@ -6275,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="8"/>
@@ -6285,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L91" s="10">
         <f t="shared" si="10"/>
@@ -6307,7 +6310,7 @@
         <v>0.05</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R91">
         <v>3.44E-2</v>
@@ -6318,7 +6321,7 @@
         <v>0.9375</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92">
         <v>10.5</v>
@@ -6337,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I92" s="5">
         <f t="shared" si="8"/>
@@ -6347,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L92" s="10">
         <f t="shared" si="10"/>
@@ -6369,7 +6372,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R92">
         <v>3.44E-2</v>
@@ -6380,7 +6383,7 @@
         <v>0.94791666666666696</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93">
         <v>10.23</v>
@@ -6399,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I93" s="5">
         <f t="shared" si="8"/>
@@ -6409,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L93" s="10">
         <f t="shared" si="10"/>
@@ -6431,7 +6434,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R93">
         <v>3.5200000000000002E-2</v>
@@ -6442,7 +6445,7 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94">
         <v>9.7349999999999994</v>
@@ -6461,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I94" s="5">
         <f t="shared" si="8"/>
@@ -6471,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L94" s="10">
         <f t="shared" si="10"/>
@@ -6493,7 +6496,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R94">
         <v>3.5200000000000002E-2</v>
@@ -6504,7 +6507,7 @@
         <v>0.96875</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95">
         <v>9.69</v>
@@ -6523,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I95" s="5">
         <f t="shared" si="8"/>
@@ -6533,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L95" s="10">
         <f t="shared" si="10"/>
@@ -6555,7 +6558,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R95">
         <v>3.5999999999999997E-2</v>
@@ -6566,7 +6569,7 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96">
         <v>8.0849999999999991</v>
@@ -6585,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I96" s="5">
         <f t="shared" si="8"/>
@@ -6595,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L96" s="10">
         <f t="shared" si="10"/>
@@ -6617,7 +6620,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R96">
         <v>3.5999999999999997E-2</v>
@@ -6628,7 +6631,7 @@
         <v>0.98958333333333304</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97">
         <v>8.5500000000000007</v>
@@ -6647,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I97" s="5">
         <f t="shared" si="8"/>
@@ -6657,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L97" s="10">
         <f t="shared" si="10"/>
@@ -6679,7 +6682,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R97">
         <v>3.5999999999999997E-2</v>
@@ -6711,7 +6714,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="C11" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6722,7 +6725,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>20</v>
@@ -6731,1553 +6734,1553 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
         <v>25</v>
       </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
         <v>24</v>
       </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
         <v>25</v>
       </c>
-      <c r="C60" t="s">
-        <v>26</v>
-      </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
         <v>25</v>
       </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
         <v>24</v>
       </c>
-      <c r="C70" t="s">
-        <v>25</v>
-      </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
         <v>25</v>
       </c>
-      <c r="C71" t="s">
-        <v>26</v>
-      </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
         <v>25</v>
       </c>
-      <c r="C72" t="s">
-        <v>26</v>
-      </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -8298,167 +8301,170 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
